--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1070.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1070.xlsx
@@ -914,24 +914,24 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2738,19 +2738,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$K$65:$K$2000</f>
+              <f>'1'!$K$65:$K$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$J$65:$J$2000</f>
+              <f>'1'!$J$65:$J$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2781,19 +2781,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$M$65:$M$2000</f>
+              <f>'1'!$M$65:$M$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$L$65:$L$2000</f>
+              <f>'1'!$L$65:$L$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2824,19 +2824,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$O$65:$O$2000</f>
+              <f>'1'!$O$65:$O$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$N$65:$N$2000</f>
+              <f>'1'!$N$65:$N$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3181,19 +3181,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3399,7 +3399,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3508,7 +3508,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3657,19 +3657,19 @@
           </trendline>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3749,10 +3749,9 @@
             <numRef>
               <f>'1'!$A$81:$A$82</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3814,10 +3813,9 @@
             <numRef>
               <f>'1'!$A$75:$A$76</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3869,7 +3867,7 @@
             <numRef>
               <f>'1'!$A$85:$A$86</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -3923,7 +3921,7 @@
             <numRef>
               <f>'1'!$A$88:$A$89</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>#N/A</v>
@@ -3978,7 +3976,7 @@
             <numRef>
               <f>'1'!$A$78:$A$79</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -4088,7 +4086,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4198,7 +4196,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4886,8 +4884,8 @@
   </sheetPr>
   <dimension ref="A1:BF264"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -4917,13 +4915,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="150" t="inlineStr">
+      <c r="A1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
       </c>
-      <c r="L1" s="150" t="n"/>
-      <c r="M1" s="150" t="inlineStr">
+      <c r="L1" s="153" t="n"/>
+      <c r="M1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
@@ -4974,13 +4972,13 @@
       <c r="BC1" s="40" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="150" t="inlineStr">
+      <c r="A2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
       </c>
-      <c r="L2" s="150" t="n"/>
-      <c r="M2" s="150" t="inlineStr">
+      <c r="L2" s="153" t="n"/>
+      <c r="M2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
@@ -5096,13 +5094,13 @@
       <c r="BD2" s="50" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="150" t="inlineStr">
+      <c r="A3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
       </c>
-      <c r="L3" s="150" t="n"/>
-      <c r="M3" s="150" t="inlineStr">
+      <c r="L3" s="153" t="n"/>
+      <c r="M3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
@@ -5173,27 +5171,27 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="150" t="n"/>
-      <c r="B4" s="150" t="n"/>
-      <c r="C4" s="150" t="n"/>
-      <c r="D4" s="150" t="n"/>
-      <c r="E4" s="150" t="n"/>
-      <c r="F4" s="150" t="n"/>
-      <c r="G4" s="150" t="n"/>
-      <c r="H4" s="150" t="n"/>
-      <c r="I4" s="150" t="n"/>
-      <c r="J4" s="150" t="n"/>
-      <c r="K4" s="150" t="n"/>
-      <c r="L4" s="150" t="n"/>
-      <c r="M4" s="150" t="n"/>
-      <c r="N4" s="150" t="n"/>
-      <c r="O4" s="150" t="n"/>
-      <c r="P4" s="150" t="n"/>
-      <c r="Q4" s="150" t="n"/>
-      <c r="R4" s="150" t="n"/>
-      <c r="S4" s="150" t="n"/>
-      <c r="T4" s="150" t="n"/>
-      <c r="U4" s="150" t="n"/>
+      <c r="A4" s="153" t="n"/>
+      <c r="B4" s="153" t="n"/>
+      <c r="C4" s="153" t="n"/>
+      <c r="D4" s="153" t="n"/>
+      <c r="E4" s="153" t="n"/>
+      <c r="F4" s="153" t="n"/>
+      <c r="G4" s="153" t="n"/>
+      <c r="H4" s="153" t="n"/>
+      <c r="I4" s="153" t="n"/>
+      <c r="J4" s="153" t="n"/>
+      <c r="K4" s="153" t="n"/>
+      <c r="L4" s="153" t="n"/>
+      <c r="M4" s="153" t="n"/>
+      <c r="N4" s="153" t="n"/>
+      <c r="O4" s="153" t="n"/>
+      <c r="P4" s="153" t="n"/>
+      <c r="Q4" s="153" t="n"/>
+      <c r="R4" s="153" t="n"/>
+      <c r="S4" s="153" t="n"/>
+      <c r="T4" s="153" t="n"/>
+      <c r="U4" s="153" t="n"/>
       <c r="X4" s="66">
         <f>X2-X1</f>
         <v/>
@@ -5256,13 +5254,13 @@
       <c r="BC4" s="58" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="150" t="inlineStr">
+      <c r="A5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
       </c>
-      <c r="L5" s="150" t="n"/>
-      <c r="M5" s="150" t="inlineStr">
+      <c r="L5" s="153" t="n"/>
+      <c r="M5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
@@ -5377,13 +5375,13 @@
       <c r="BC5" s="58" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="154" t="inlineStr">
+      <c r="A6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
       </c>
-      <c r="L6" s="154" t="n"/>
-      <c r="M6" s="154" t="inlineStr">
+      <c r="L6" s="152" t="n"/>
+      <c r="M6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
@@ -5456,13 +5454,13 @@
       <c r="BF6" s="67" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="150" t="inlineStr">
+      <c r="A7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
       </c>
-      <c r="L7" s="150" t="n"/>
-      <c r="M7" s="150" t="inlineStr">
+      <c r="L7" s="153" t="n"/>
+      <c r="M7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
@@ -5624,8 +5622,8 @@
       <c r="BF8" s="67" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="156" t="n"/>
-      <c r="M9" s="156" t="inlineStr">
+      <c r="A9" s="155" t="n"/>
+      <c r="M9" s="155" t="inlineStr">
         <is>
           <t>Протокол испытаний № 13-63/35 от 03-12-2022</t>
         </is>
@@ -6442,13 +6440,13 @@
       <c r="BC17" s="58" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="155" t="inlineStr">
+      <c r="A18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
       </c>
-      <c r="L18" s="155" t="n"/>
-      <c r="M18" s="155" t="inlineStr">
+      <c r="L18" s="154" t="n"/>
+      <c r="M18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
@@ -7328,13 +7326,13 @@
       <c r="BC26" s="58" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="155" t="inlineStr">
+      <c r="A27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
       </c>
-      <c r="L27" s="155" t="n"/>
-      <c r="M27" s="155" t="inlineStr">
+      <c r="L27" s="154" t="n"/>
+      <c r="M27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
@@ -9133,26 +9131,26 @@
       <c r="U59" s="10" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="152" t="inlineStr">
+      <c r="A60" s="156" t="inlineStr">
         <is>
           <t>Лист 1 , всего листов 2</t>
         </is>
       </c>
-      <c r="L60" s="152" t="n"/>
-      <c r="M60" s="152" t="inlineStr">
+      <c r="L60" s="156" t="n"/>
+      <c r="M60" s="156" t="inlineStr">
         <is>
           <t>Лист 2 , всего листов 2</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="153" t="inlineStr">
+      <c r="A61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
       </c>
-      <c r="L61" s="153" t="n"/>
-      <c r="M61" s="153" t="inlineStr">
+      <c r="L61" s="150" t="n"/>
+      <c r="M61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
@@ -9257,7 +9255,7 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9272,29 +9270,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.0001250000000000001</v>
+        <v>0.0001750000000000015</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.0001250000000000001</v>
+        <v>0.0001750000000000015</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.01512529197804738</v>
+        <v>0.02016705597072985</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0003053322830113907</v>
+        <v>0.0004149568871977379</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.02400509551925228</v>
+        <v>0.03000636939906537</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.000343900956238177</v>
+        <v>0.0004167520048790955</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9314,29 +9312,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.007161947496018679</v>
+        <v>0.009258127250950973</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0004771050690264444</v>
+        <v>0.0006172038543331061</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.007161947496018679</v>
+        <v>0.009258127250950973</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0004771050690264444</v>
+        <v>0.0006172038543331061</v>
       </c>
       <c r="L66" s="172" t="n">
         <v>0.03601259994773187</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001090472439326396</v>
+        <v>0.001111491662136798</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.04096597917410677</v>
+        <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007340028638316934</v>
+        <v>0.001136596376942988</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9357,26 +9355,26 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
         <v>0.0174681646244358</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03595500381680755</v>
+        <v>0.03593802050203426</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001467182439379841</v>
+        <v>0.001761206273075079</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05455703527102795</v>
+        <v>0.05459591791901919</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00117238962353924</v>
+        <v>0.001761458581766599</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9396,29 +9394,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01824550111945807</v>
+        <v>0.01842255314768332</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002210648542146701</v>
+        <v>0.00265138697291689</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01824550111945807</v>
+        <v>0.01842255314768332</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002210648542146701</v>
+        <v>0.00265138697291689</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.04002097406118399</v>
+        <v>0.03953429943720996</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002200773659069761</v>
+        <v>0.00264180940961262</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05939841021808034</v>
+        <v>0.06184513242487033</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00220200859149508</v>
+        <v>0.002642187872649898</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9443,29 +9441,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01882154313191059</v>
+        <v>0.01924765019881375</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002947531389528935</v>
+        <v>0.003535182630555853</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01882154313191059</v>
+        <v>0.01924765019881375</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002947531389528935</v>
+        <v>0.003535182630555853</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03938356738102816</v>
+        <v>0.04119534758980065</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002934364878759681</v>
+        <v>0.003522412546150159</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06028271164310145</v>
+        <v>0.06405360456790171</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002936011455326774</v>
+        <v>0.003522917163533198</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9480,62 +9478,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0004771050690264444</v>
+        <v>0.0006172038543331061</v>
       </c>
       <c r="B70" t="n">
-        <v>0.007161947496018679</v>
+        <v>0.009258127250950973</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01927765972836687</v>
+        <v>0.02023839075787583</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003684414236911169</v>
+        <v>0.004418978288194817</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01927765972836687</v>
+        <v>0.02023839075787583</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003684414236911169</v>
+        <v>0.004418978288194817</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04103411465663379</v>
+        <v>0.04357587073582628</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003667956098449602</v>
+        <v>0.004403015682687699</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06310891114619327</v>
+        <v>0.06274570661869355</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003670014319158467</v>
+        <v>0.004403646454416497</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02083704380973739</v>
+        <v>0.021528218707038</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004421297084293402</v>
+        <v>0.00530277394583378</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02083704380973739</v>
+        <v>0.021528218707038</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004421297084293402</v>
+        <v>0.00530277394583378</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04439206511708479</v>
+        <v>0.04323850558602482</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004401547318139523</v>
+        <v>0.005283618819225239</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.06847817883047702</v>
+        <v>0.06955248129604197</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004404017182990161</v>
+        <v>0.005284375745299796</v>
       </c>
     </row>
     <row r="72">
@@ -9550,29 +9548,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02138706743627351</v>
+        <v>0.02140597491308449</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005158179931675636</v>
+        <v>0.006186569603472743</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02138706743627351</v>
+        <v>0.02140597491308449</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005158179931675636</v>
+        <v>0.006186569603472743</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04527788578006017</v>
+        <v>0.04468576578221109</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005135138537829442</v>
+        <v>0.006164221955762779</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.06716794497453454</v>
+        <v>0.07217276570545106</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005138020046821854</v>
+        <v>0.006165105036183095</v>
       </c>
     </row>
     <row r="73">
@@ -9596,29 +9594,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02181121538951218</v>
+        <v>0.02308341962817724</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.00589506277905787</v>
+        <v>0.007070365261111706</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02181121538951218</v>
+        <v>0.02308341962817724</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.00589506277905787</v>
+        <v>0.007070365261111706</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04699861704556682</v>
+        <v>0.04773357494279185</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005868729757519363</v>
+        <v>0.007044825092300318</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.0715889071109882</v>
+        <v>0.07379609760341288</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005872022910653548</v>
+        <v>0.007045834327066396</v>
       </c>
     </row>
     <row r="74">
@@ -9633,29 +9631,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02335791780904961</v>
+        <v>0.02282990662407924</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006631945626440103</v>
+        <v>0.007954160918750669</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02335791780904961</v>
+        <v>0.02282990662407924</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006631945626440103</v>
+        <v>0.007954160918750669</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04847577856066648</v>
+        <v>0.04761393642843254</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006602320977209283</v>
+        <v>0.007925428228837858</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07556213749248725</v>
+        <v>0.07576162475774117</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006606025774485241</v>
+        <v>0.007926563617949694</v>
       </c>
     </row>
     <row r="75">
@@ -9677,29 +9675,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.0234871178685145</v>
+        <v>0.0233149672846696</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007368828473822338</v>
+        <v>0.008837956576389633</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.0234871178685145</v>
+        <v>0.0233149672846696</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007368828473822338</v>
+        <v>0.008837956576389633</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05044569560340209</v>
+        <v>0.04951272854921701</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007335912196899204</v>
+        <v>0.008806031365375397</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07615555605240926</v>
+        <v>0.07630322210374629</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007340028638316934</v>
+        <v>0.008807292908832995</v>
       </c>
     </row>
     <row r="76">
@@ -9719,29 +9717,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02337195208775678</v>
+        <v>0.02383027438114707</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008105711321204571</v>
+        <v>0.009721752234028597</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02337195208775678</v>
+        <v>0.02383027438114707</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008105711321204571</v>
+        <v>0.009721752234028597</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04973240230082357</v>
+        <v>0.04903795311521311</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008069503416589125</v>
+        <v>0.009686634501912938</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0776763390838725</v>
+        <v>0.07528376672410553</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008074031502148627</v>
+        <v>0.009688022199716295</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9756,28 +9754,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02409791191446738</v>
+        <v>0.02402825191591319</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008842594168586805</v>
+        <v>0.01060554789166756</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02409791191446738</v>
+        <v>0.02402825191591319</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008842594168586805</v>
+        <v>0.01060554789166756</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05334178784667554</v>
+        <v>0.04975417675148328</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008803094636279046</v>
+        <v>0.01056723763845048</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07992513038321286</v>
+        <v>0.0768399875183256</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008808034365980322</v>
+        <v>0.01056875149059959</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9796,28 +9794,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02487851774565104</v>
+        <v>0.02400099612052553</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00957947701596904</v>
+        <v>0.01148934354930652</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02487851774565104</v>
+        <v>0.02400099612052553</v>
       </c>
       <c r="K78" t="n">
-        <v>0.00957947701596904</v>
+        <v>0.01148934354930652</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05406724240806632</v>
+        <v>0.05433642905914371</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009536685855968965</v>
+        <v>0.01144784077498802</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07949501774423195</v>
+        <v>0.08087339283204331</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009542037229812015</v>
+        <v>0.01144948078148289</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9838,28 +9836,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02497314909085793</v>
+        <v>0.02503343811846488</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01031635986335127</v>
+        <v>0.01237313920694549</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02497314909085793</v>
+        <v>0.02503343811846488</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01031635986335127</v>
+        <v>0.01237313920694549</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05445372922428787</v>
+        <v>0.0530408409578684</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01027027707565888</v>
+        <v>0.01232844391152556</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07864985876825947</v>
+        <v>0.07806783533484718</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01027604009364371</v>
+        <v>0.01233021007236619</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9869,28 +9867,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02593023302727279</v>
+        <v>0.02536796230120664</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01105324271073351</v>
+        <v>0.01325693486458445</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02593023302727279</v>
+        <v>0.02536796230120664</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01105324271073351</v>
+        <v>0.01325693486458445</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05339096850067135</v>
+        <v>0.05120255783661093</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01100386829534881</v>
+        <v>0.0132090470480631</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08387060286846049</v>
+        <v>0.07756347608389524</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0110100429574754</v>
+        <v>0.01321093936324949</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9906,28 +9904,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02594067465940218</v>
+        <v>0.0258643542332304</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01179012555811574</v>
+        <v>0.01414073052222341</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02594067465940218</v>
+        <v>0.0258643542332304</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01179012555811574</v>
+        <v>0.01414073052222341</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05494931798577013</v>
+        <v>0.05178108264086162</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01173745951503873</v>
+        <v>0.01408965018460064</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08548824117588089</v>
+        <v>0.08236087215554128</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0117440458213071</v>
+        <v>0.01409166865413279</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9940,28 +9938,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02685539565811768</v>
+        <v>0.02612902099164545</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01252700840549797</v>
+        <v>0.01502452617986238</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02685539565811768</v>
+        <v>0.02612902099164545</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01252700840549797</v>
+        <v>0.01502452617986238</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05470610618351873</v>
+        <v>0.0530122991496989</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01247105073472865</v>
+        <v>0.01497025332113817</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08689962161199172</v>
+        <v>0.08456134263054033</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01247804868513879</v>
+        <v>0.01497239794501609</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9971,28 +9969,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0269711670894566</v>
+        <v>0.02696921091823741</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01326389125288021</v>
+        <v>0.01590832183750134</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0269711670894566</v>
+        <v>0.02696921091823741</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01326389125288021</v>
+        <v>0.01590832183750134</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05643965745982274</v>
+        <v>0.05346328006015885</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01320464195441857</v>
+        <v>0.01585085645767572</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08613641096610836</v>
+        <v>0.085261096561356</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01321205154897048</v>
+        <v>0.01585312723589939</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10007,28 +10005,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02767556328217907</v>
+        <v>0.02651206338245335</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01400077410026244</v>
+        <v>0.0167921174951403</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02767556328217907</v>
+        <v>0.02651206338245335</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01400077410026244</v>
+        <v>0.0167921174951403</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0571128199363799</v>
+        <v>0.05531146544050805</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01393823317410849</v>
+        <v>0.01673145959421326</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08612341859944483</v>
+        <v>0.07986510471511782</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01394605441280218</v>
+        <v>0.01673385652678269</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10047,28 +10045,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.0268664302387953</v>
+        <v>0.02608635768526431</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01473765694764468</v>
+        <v>0.01767591315277927</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0268664302387953</v>
+        <v>0.02608635768526431</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01473765694764468</v>
+        <v>0.01767591315277927</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05697488363620518</v>
+        <v>0.05451787442380479</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01467182439379841</v>
+        <v>0.01761206273075079</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08862070059371185</v>
+        <v>0.08178666787736028</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01468005727663387</v>
+        <v>0.01761458581766599</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10089,28 +10087,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02749157419106971</v>
+        <v>0.02716732509739411</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01547453979502691</v>
+        <v>0.01855970881041823</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02749157419106971</v>
+        <v>0.02716732509739411</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01547453979502691</v>
+        <v>0.01855970881041823</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05901327861338748</v>
+        <v>0.05650681895610257</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01540541561348833</v>
+        <v>0.01849266586728834</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0871987551461777</v>
+        <v>0.08605414091647062</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01541406014046556</v>
+        <v>0.01849531510854929</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10120,28 +10118,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02747214864985215</v>
+        <v>0.02654692206367519</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01621142264240914</v>
+        <v>0.01944350446805719</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02747214864985215</v>
+        <v>0.02654692206367519</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01621142264240914</v>
+        <v>0.01944350446805719</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05846900372375755</v>
+        <v>0.05691129400068809</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01613900683317825</v>
+        <v>0.01937326900382588</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0896832923545523</v>
+        <v>0.08361613269039847</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01614806300429725</v>
+        <v>0.01937604439943259</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10155,28 +10153,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02837460920247022</v>
+        <v>0.0266202726136873</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01694830548979138</v>
+        <v>0.02032730012569616</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02837460920247022</v>
+        <v>0.0266202726136873</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01694830548979138</v>
+        <v>0.02032730012569616</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05704672992990528</v>
+        <v>0.05701791802895392</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01687259805286817</v>
+        <v>0.02025387214036341</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0878534421774706</v>
+        <v>0.08247828873624241</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01688206586812895</v>
+        <v>0.02025677369031589</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10189,4578 +10187,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02847757846196244</v>
+        <v>0.02783387635237697</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01768518833717361</v>
+        <v>0.02121109578333512</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02847757846196244</v>
+        <v>0.02783387635237697</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01768518833717361</v>
+        <v>0.02121109578333512</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05923888700146859</v>
+        <v>0.05414206112338135</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01760618927255809</v>
+        <v>0.02113447527690096</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08922858568514275</v>
+        <v>0.08527950246325378</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01761606873196064</v>
+        <v>0.02113750298119918</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02915781961263376</v>
+        <v>0.02744307795991698</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01842207118455584</v>
+        <v>0.02209489144097408</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02915781961263376</v>
+        <v>0.02744307795991698</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01842207118455584</v>
+        <v>0.02209489144097408</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05754864726063652</v>
+        <v>0.05614899959507633</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01833978049224801</v>
+        <v>0.0220150784134385</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0865889511470459</v>
+        <v>0.08293133256553709</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01835007159579234</v>
+        <v>0.02201823227208248</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02867198238308728</v>
+        <v>0.02701097365585464</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01915895403193808</v>
+        <v>0.02297868709861305</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02867198238308728</v>
+        <v>0.02701097365585464</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01915895403193808</v>
+        <v>0.02297868709861305</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06023331460460396</v>
+        <v>0.05781937170864296</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01907337171193793</v>
+        <v>0.02289568154997603</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09126336452559636</v>
+        <v>0.08483593529867189</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01908407445962403</v>
+        <v>0.02289896156296578</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02870455137485972</v>
+        <v>0.02796412816471805</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01989583687932031</v>
+        <v>0.02386248275625201</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02870455137485972</v>
+        <v>0.02796412816471805</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01989583687932031</v>
+        <v>0.02386248275625201</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06077281614362379</v>
+        <v>0.05624743876895436</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01980696293162785</v>
+        <v>0.02377628468651357</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0888019662336666</v>
+        <v>0.08454202741771633</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01981807732345572</v>
+        <v>0.02377969085384908</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02869520550874453</v>
+        <v>0.02834689965527472</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02063271972670254</v>
+        <v>0.02474627841389097</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02869520550874453</v>
+        <v>0.02834689965527472</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02063271972670254</v>
+        <v>0.02474627841389097</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05862137552630953</v>
+        <v>0.05576331881584126</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02054055415131777</v>
+        <v>0.02465688782305112</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08827735059414393</v>
+        <v>0.08961636204618523</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02055208018728742</v>
+        <v>0.02466042014473238</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02873741371118763</v>
+        <v>0.02755196293410307</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02136960257408478</v>
+        <v>0.02563007407152994</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02873741371118763</v>
+        <v>0.02755196293410307</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02136960257408478</v>
+        <v>0.02563007407152994</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06032882803238082</v>
+        <v>0.05647638505423419</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02127414537100769</v>
+        <v>0.02553749095958865</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09153403221201933</v>
+        <v>0.0868958162049524</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02128608305111911</v>
+        <v>0.02554114943561568</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02872181467327903</v>
+        <v>0.02791857043890686</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02210648542146701</v>
+        <v>0.0265138697291689</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02872181467327903</v>
+        <v>0.02791857043890686</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02210648542146701</v>
+        <v>0.0265138697291689</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06048732840705714</v>
+        <v>0.05791771984504515</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02200773659069761</v>
+        <v>0.02641809409612619</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08921003660389448</v>
+        <v>0.08802553214086206</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0220200859149508</v>
+        <v>0.02642187872649899</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02941044938449136</v>
+        <v>0.02743447541838163</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02284336826884924</v>
+        <v>0.02739766538680786</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02941044938449136</v>
+        <v>0.02743447541838163</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02284336826884924</v>
+        <v>0.02739766538680786</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06091674057190391</v>
+        <v>0.05885151089119983</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02274132781038753</v>
+        <v>0.02729869723266373</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09375755098109834</v>
+        <v>0.0876661859059476</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0227540887787825</v>
+        <v>0.02730260801738228</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02958092656086303</v>
+        <v>0.02916248769843829</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02358025111623148</v>
+        <v>0.02828146104444683</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02958092656086303</v>
+        <v>0.02916248769843829</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02358025111623148</v>
+        <v>0.02828146104444683</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05943603898825872</v>
+        <v>0.05790274958231242</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02347491903007745</v>
+        <v>0.02817930036920127</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09348108807422495</v>
+        <v>0.08582416868500881</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02348809164261419</v>
+        <v>0.02818333730826558</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02976093015098362</v>
+        <v>0.02802097702153554</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02431713396361371</v>
+        <v>0.02916525670208579</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02976093015098362</v>
+        <v>0.02802097702153554</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02431713396361371</v>
+        <v>0.02916525670208579</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06081728493300606</v>
+        <v>0.06067697588814977</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02420851024976737</v>
+        <v>0.02905990350573881</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0951656098373137</v>
+        <v>0.09082574023908452</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02422209450644588</v>
+        <v>0.02906406659914888</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02996660922677523</v>
+        <v>0.02870642888521324</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02505401681099595</v>
+        <v>0.03004905235972475</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02996660922677523</v>
+        <v>0.02870642888521324</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02505401681099595</v>
+        <v>0.03004905235972475</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06190520135798291</v>
+        <v>0.05968974765929191</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02494210146945729</v>
+        <v>0.02994050664227635</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09221293096001787</v>
+        <v>0.08833498293980263</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02495609737027758</v>
+        <v>0.02994479589003218</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0298572963441488</v>
+        <v>0.02830027471524145</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02579089965837818</v>
+        <v>0.03093284801736372</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0298572963441488</v>
+        <v>0.02830027471524145</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02579089965837818</v>
+        <v>0.03093284801736372</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06252729579362418</v>
+        <v>0.06030654704105037</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02567569268914721</v>
+        <v>0.03082110977881389</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09425984132776971</v>
+        <v>0.09142606578915113</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02569010023410927</v>
+        <v>0.03082552518091548</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02979097220848985</v>
+        <v>0.02896189800023653</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02652778250576041</v>
+        <v>0.03181664367500268</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02979097220848985</v>
+        <v>0.02896189800023653</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02652778250576041</v>
+        <v>0.03181664367500268</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06081511306521348</v>
+        <v>0.05913693625245414</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02640928390883713</v>
+        <v>0.03170171291535143</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09280412091888263</v>
+        <v>0.09070850993515955</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02642410309794097</v>
+        <v>0.03170625447179878</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03016423242997995</v>
+        <v>0.029323826189875</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02726466535314265</v>
+        <v>0.03270043933264164</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03016423242997995</v>
+        <v>0.029323826189875</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02726466535314265</v>
+        <v>0.03270043933264164</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06154927761347459</v>
+        <v>0.06115404257788587</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02714287512852705</v>
+        <v>0.03258231605188897</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09393052651899264</v>
+        <v>0.08736538126997517</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02715810596177266</v>
+        <v>0.03258698376268208</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0301784823445362</v>
+        <v>0.02914241887744631</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02800154820052488</v>
+        <v>0.03358423499028061</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0301784823445362</v>
+        <v>0.02914241887744631</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02800154820052488</v>
+        <v>0.03358423499028061</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06220758377503921</v>
+        <v>0.0612096543278941</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02787646634821697</v>
+        <v>0.03346291918842651</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09152019546892992</v>
+        <v>0.09042040206285556</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02789210882560435</v>
+        <v>0.03346771305356538</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02986799647740526</v>
+        <v>0.02822684323497236</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02873843104790712</v>
+        <v>0.03446803064791957</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02986799647740526</v>
+        <v>0.02822684323497236</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02873843104790712</v>
+        <v>0.03446803064791957</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06334268107433993</v>
+        <v>0.06083081596726184</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02861005756790689</v>
+        <v>0.03434352232496405</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09282005942191573</v>
+        <v>0.09300591338578645</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02862611168943605</v>
+        <v>0.03434844234444868</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03014282954502547</v>
+        <v>0.02887617971997355</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02947531389528935</v>
+        <v>0.03535182630555853</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03014282954502547</v>
+        <v>0.02887617971997355</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02947531389528935</v>
+        <v>0.03535182630555853</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06422591119207319</v>
+        <v>0.05880553679371042</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02934364878759682</v>
+        <v>0.03522412546150159</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09196514811422207</v>
+        <v>0.08854295106371429</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02936011455326774</v>
+        <v>0.03522917163533198</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03040142225947221</v>
+        <v>0.02938760705164657</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03021219674267159</v>
+        <v>0.0362356219631975</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03040142225947221</v>
+        <v>0.02938760705164657</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03021219674267159</v>
+        <v>0.0362356219631975</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06291895337727282</v>
+        <v>0.06155871019367642</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03007724000728674</v>
+        <v>0.03610472859803913</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09647610272446983</v>
+        <v>0.08906315041764568</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03009411741709943</v>
+        <v>0.03610990092621527</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03048440719493546</v>
+        <v>0.02932973114354781</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03094907959005382</v>
+        <v>0.03711941762083646</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03048440719493546</v>
+        <v>0.02932973114354781</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03094907959005382</v>
+        <v>0.03711941762083646</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06316874952133397</v>
+        <v>0.06202466155888164</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03081083122697666</v>
+        <v>0.03698533173457667</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09477878888413926</v>
+        <v>0.08876940528773081</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03082812028093112</v>
+        <v>0.03699063021709857</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03109896728648681</v>
+        <v>0.02920691567170595</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03168596243743605</v>
+        <v>0.03800321327847542</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03109896728648681</v>
+        <v>0.02920691567170595</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03168596243743605</v>
+        <v>0.03800321327847542</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06341875251720772</v>
+        <v>0.05997234533681717</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03154442244666657</v>
+        <v>0.03786593487111421</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09637206118475605</v>
+        <v>0.09309570165959835</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03156212314476282</v>
+        <v>0.03787135950798187</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03079681335227176</v>
+        <v>0.028853780119717</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03242284528481829</v>
+        <v>0.03888700893611439</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03079681335227176</v>
+        <v>0.028853780119717</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03242284528481829</v>
+        <v>0.03888700893611439</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06365483289504592</v>
+        <v>0.05963522737502677</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0322780136663565</v>
+        <v>0.03874653800765175</v>
       </c>
       <c r="N109" t="n">
-        <v>0.097603236772276</v>
+        <v>0.09296464305464297</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03229612600859451</v>
+        <v>0.03875208879886518</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03138883603666096</v>
+        <v>0.03031213868593778</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03315972813220052</v>
+        <v>0.03977080459375335</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03138883603666096</v>
+        <v>0.03031213868593778</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03315972813220052</v>
+        <v>0.03977080459375335</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06308320984283167</v>
+        <v>0.06166290558419824</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03301160488604642</v>
+        <v>0.03962714114418929</v>
       </c>
       <c r="N110" t="n">
-        <v>0.09765565223008477</v>
+        <v>0.08881915020727399</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03303012887242621</v>
+        <v>0.03963281808974847</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03056428612814718</v>
+        <v>0.02984669262262306</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03389661097958276</v>
+        <v>0.04065460025139232</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03056428612814718</v>
+        <v>0.02984669262262306</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03389661097958276</v>
+        <v>0.04065460025139232</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06447777115620174</v>
+        <v>0.06010945131404566</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03374519610573633</v>
+        <v>0.04050774428072683</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09776088064913802</v>
+        <v>0.09403389245210736</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0337641317362579</v>
+        <v>0.04051354738063177</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03049967291297208</v>
+        <v>0.02918786311083481</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03463349382696499</v>
+        <v>0.04153839590903128</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03049967291297208</v>
+        <v>0.02918786311083481</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03463349382696499</v>
+        <v>0.04153839590903128</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06380043115494063</v>
+        <v>0.05939982790925658</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03447878732542626</v>
+        <v>0.04138834741726437</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09631796499083661</v>
+        <v>0.09548210606629259</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0344981346000896</v>
+        <v>0.04139427667151507</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03154161448556478</v>
+        <v>0.03012135066787472</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03537037667434722</v>
+        <v>0.04242219156667024</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03154161448556478</v>
+        <v>0.03012135066787472</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03537037667434722</v>
+        <v>0.04242219156667024</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06441308613892446</v>
+        <v>0.06262937149583384</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03521237854511618</v>
+        <v>0.04226895055380191</v>
       </c>
       <c r="N113" t="n">
-        <v>0.09550948693971156</v>
+        <v>0.09480488445614299</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03523213746392129</v>
+        <v>0.04227500596239837</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03138825847015568</v>
+        <v>0.03012850988779764</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03610725952172945</v>
+        <v>0.0433059872243092</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03138825847015568</v>
+        <v>0.03012850988779764</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03610725952172945</v>
+        <v>0.0433059872243092</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06239846162824725</v>
+        <v>0.05984366809292116</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0359459697648061</v>
+        <v>0.04314955369033945</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09754532663082832</v>
+        <v>0.09249029846680951</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03596614032775298</v>
+        <v>0.04315573525328167</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03077988391206021</v>
+        <v>0.0301864485817533</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03684414236911169</v>
+        <v>0.04418978288194816</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03077988391206021</v>
+        <v>0.0301864485817533</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03684414236911169</v>
+        <v>0.04418978288194816</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0645824955566878</v>
+        <v>0.06340826414275494</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03667956098449602</v>
+        <v>0.04403015682687699</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09679798652960114</v>
+        <v>0.09150781202157154</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03670014319158468</v>
+        <v>0.04403646454416497</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03086395042996355</v>
+        <v>0.02966729219134351</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03758102521649392</v>
+        <v>0.04507357853958713</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03086395042996355</v>
+        <v>0.02966729219134351</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03758102521649392</v>
+        <v>0.04507357853958713</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06487550390173916</v>
+        <v>0.06324388511859463</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03741315220418594</v>
+        <v>0.04491075996341452</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09812271356738145</v>
+        <v>0.09561880035283127</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03743414605541637</v>
+        <v>0.04491719383504827</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03088907553742661</v>
+        <v>0.02914232771192507</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03831790806387616</v>
+        <v>0.04595737419722609</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03088907553742661</v>
+        <v>0.02914232771192507</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03831790806387616</v>
+        <v>0.04595737419722609</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06365412144229365</v>
+        <v>0.06338922535808147</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03814674342387586</v>
+        <v>0.04579136309995207</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09867903690698343</v>
+        <v>0.09209832234128595</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03816814891924806</v>
+        <v>0.04579792312593157</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03100651563609087</v>
+        <v>0.02910848241263363</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03905479091125839</v>
+        <v>0.04684116985486506</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03100651563609087</v>
+        <v>0.02910848241263363</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03905479091125839</v>
+        <v>0.04684116985486506</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06449930704130913</v>
+        <v>0.06214575285397575</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03888033464356578</v>
+        <v>0.04667196623648961</v>
       </c>
       <c r="N118" t="n">
-        <v>0.09767834112436063</v>
+        <v>0.09156916092238171</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03890215178307975</v>
+        <v>0.04667865241681487</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03189162942568156</v>
+        <v>0.03058944153019674</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03979167375864062</v>
+        <v>0.04772496551250402</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03189162942568156</v>
+        <v>0.03058944153019674</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03979167375864062</v>
+        <v>0.04772496551250402</v>
       </c>
       <c r="L119" t="n">
-        <v>0.0638850073542688</v>
+        <v>0.06339545045770323</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0396139258632557</v>
+        <v>0.04755256937302715</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09765310980790276</v>
+        <v>0.09081006432460204</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03963615464691145</v>
+        <v>0.04755938170769817</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03137697099248865</v>
+        <v>0.03045439695136085</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04052855660602286</v>
+        <v>0.04860876117014298</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03137697099248865</v>
+        <v>0.03045439695136085</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04052855660602286</v>
+        <v>0.04860876117014298</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06350740592086099</v>
+        <v>0.06144780665004448</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04034751708294562</v>
+        <v>0.04843317250956469</v>
       </c>
       <c r="N120" t="n">
-        <v>0.09606021393447528</v>
+        <v>0.09652480623331089</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04037015751074314</v>
+        <v>0.04844011099858147</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.0313437885158302</v>
+        <v>0.0309865490495347</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04126543945340509</v>
+        <v>0.04949255682778195</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0313437885158302</v>
+        <v>0.0309865490495347</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04126543945340509</v>
+        <v>0.04949255682778195</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06478096001292447</v>
+        <v>0.06029288901136232</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04108110830263554</v>
+        <v>0.04931377564610223</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1001161907846424</v>
+        <v>0.09588725811963156</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04110416037457483</v>
+        <v>0.04932084028946476</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03210462087587546</v>
+        <v>0.03017300261661209</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04200232230078732</v>
+        <v>0.05037635248542091</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03210462087587546</v>
+        <v>0.03017300261661209</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04200232230078732</v>
+        <v>0.05037635248542091</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06627924905215965</v>
+        <v>0.06335399025093244</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04181469952232546</v>
+        <v>0.05019437878263976</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09935657262380865</v>
+        <v>0.09270748402882445</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04183816323840652</v>
+        <v>0.05020156958034807</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03135760784785079</v>
+        <v>0.02976161252354574</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04273920514816956</v>
+        <v>0.05126014814305987</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03135760784785079</v>
+        <v>0.02976161252354574</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04273920514816956</v>
+        <v>0.05126014814305987</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06542224452752177</v>
+        <v>0.0618525802772904</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04254829074201538</v>
+        <v>0.05107498191917731</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1005531378057461</v>
+        <v>0.0941296065748774</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04257216610223822</v>
+        <v>0.05108229887123137</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03108671426712754</v>
+        <v>0.03056449386844347</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04347608799555179</v>
+        <v>0.05214394380069883</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03108671426712754</v>
+        <v>0.03056449386844347</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04347608799555179</v>
+        <v>0.05214394380069883</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06419473233687273</v>
+        <v>0.06099349488961686</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0432818819617053</v>
+        <v>0.05195558505571485</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09882682494651385</v>
+        <v>0.09355113205270416</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04330616896606992</v>
+        <v>0.05196302816211466</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03203620148523295</v>
+        <v>0.02960832785094396</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04421297084293403</v>
+        <v>0.0530277394583378</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03203620148523295</v>
+        <v>0.02960832785094396</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04421297084293403</v>
+        <v>0.0530277394583378</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06425847444448812</v>
+        <v>0.06255740845686819</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04401547318139522</v>
+        <v>0.05283618819225239</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1015141630551221</v>
+        <v>0.09702214546455235</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04404017182990161</v>
+        <v>0.05284375745299797</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03194331715881452</v>
+        <v>0.03106990107523659</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04494985369031625</v>
+        <v>0.05391153511597677</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03194331715881452</v>
+        <v>0.03106990107523659</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04494985369031625</v>
+        <v>0.05391153511597677</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06502876882820929</v>
+        <v>0.06345616934345708</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04474906440108515</v>
+        <v>0.05371679132878993</v>
       </c>
       <c r="N126" t="n">
-        <v>0.0994414780193722</v>
+        <v>0.09487380613587298</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0447741746937333</v>
+        <v>0.05372448674388126</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03191914991189866</v>
+        <v>0.0300090931108182</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04568673653769849</v>
+        <v>0.05479533077361572</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03191914991189866</v>
+        <v>0.0300090931108182</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04568673653769849</v>
+        <v>0.05479533077361572</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0641288678284006</v>
+        <v>0.06264060048981618</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04548265562077507</v>
+        <v>0.05459739446532746</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1004878290646469</v>
+        <v>0.09585437898300342</v>
       </c>
       <c r="O127" t="n">
-        <v>0.045508177557565</v>
+        <v>0.05460521603476456</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03189659738656553</v>
+        <v>0.0299174919299323</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04642361938508072</v>
+        <v>0.05567912643125469</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03189659738656553</v>
+        <v>0.0299174919299323</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04642361938508072</v>
+        <v>0.05567912643125469</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06483187688117192</v>
+        <v>0.06418917453265016</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04621624684046498</v>
+        <v>0.05547799760186501</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09968869254751533</v>
+        <v>0.09592753181472152</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04624218042139669</v>
+        <v>0.05548594532564786</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03261281783938302</v>
+        <v>0.03045610148090115</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04716050223246296</v>
+        <v>0.05656292208889365</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03261281783938302</v>
+        <v>0.03045610148090115</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04716050223246296</v>
+        <v>0.05656292208889365</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06520439628206959</v>
+        <v>0.06262321534480933</v>
       </c>
       <c r="M129" t="n">
-        <v>0.0469498380601549</v>
+        <v>0.05635860073840254</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1019106816107518</v>
+        <v>0.09760099919249721</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04697618328522838</v>
+        <v>0.05636667461653116</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03162008311109371</v>
+        <v>0.0308984829719576</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04789738507984519</v>
+        <v>0.05744671774653261</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03162008311109371</v>
+        <v>0.0308984829719576</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04789738507984519</v>
+        <v>0.05744671774653261</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06470646619950485</v>
+        <v>0.06312100402796109</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04768342927984483</v>
+        <v>0.05723920387494008</v>
       </c>
       <c r="N130" t="n">
-        <v>0.09970192071453093</v>
+        <v>0.09398995650954522</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04771018614906007</v>
+        <v>0.05724740390741447</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03161092671964218</v>
+        <v>0.03126392289800724</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04863426792722743</v>
+        <v>0.05833051340417158</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03161092671964218</v>
+        <v>0.03126392289800724</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04863426792722743</v>
+        <v>0.05833051340417158</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06665980269291585</v>
+        <v>0.06157876789336214</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04841702049953475</v>
+        <v>0.05811980701147763</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0998063526020172</v>
+        <v>0.09380473039791803</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04844418901289177</v>
+        <v>0.05812813319829777</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03157600409212906</v>
+        <v>0.03020845869472098</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04937115077460966</v>
+        <v>0.05921430906181054</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03157600409212906</v>
+        <v>0.03020845869472098</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04937115077460966</v>
+        <v>0.05921430906181054</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06777686053750573</v>
+        <v>0.06348721034599869</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04915061171922466</v>
+        <v>0.05900041014801517</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1001702877478679</v>
+        <v>0.09535837653507206</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04917819187672346</v>
+        <v>0.05900886248918107</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03204981685900368</v>
+        <v>0.03034035599330646</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05010803362199189</v>
+        <v>0.06009810471944951</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03204981685900368</v>
+        <v>0.03034035599330646</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05010803362199189</v>
+        <v>0.06009810471944951</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06658716701941209</v>
+        <v>0.06516219097035436</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04988420293891459</v>
+        <v>0.0598810132845527</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09910732243692549</v>
+        <v>0.09610894091948224</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04991219474055515</v>
+        <v>0.05988959178006435</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03250779883395671</v>
+        <v>0.03148917021233978</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05084491646937413</v>
+        <v>0.06098190037708846</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03250779883395671</v>
+        <v>0.03148917021233978</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05084491646937413</v>
+        <v>0.06098190037708846</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06610837898444147</v>
+        <v>0.06406707490854097</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05061779415860451</v>
+        <v>0.06076161642109025</v>
       </c>
       <c r="N134" t="n">
-        <v>0.09998525392612034</v>
+        <v>0.09510255989848621</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05064619760438684</v>
+        <v>0.06077032107094765</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03208225409109634</v>
+        <v>0.03111552613809429</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05158179931675636</v>
+        <v>0.06186569603472743</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03208225409109634</v>
+        <v>0.03111552613809429</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05158179931675636</v>
+        <v>0.06186569603472743</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06706019569022376</v>
+        <v>0.06288471773412935</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05135138537829443</v>
+        <v>0.06164221955762778</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1000644434931081</v>
+        <v>0.09727972746461117</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05138020046821854</v>
+        <v>0.06165105036183096</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03231422897908658</v>
+        <v>0.03208442768894466</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0523186821641386</v>
+        <v>0.06274949169236639</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03231422897908658</v>
+        <v>0.03208442768894466</v>
       </c>
       <c r="K136" t="n">
-        <v>0.0523186821641386</v>
+        <v>0.06274949169236639</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06593004948043366</v>
+        <v>0.06255762138613938</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05208497659798435</v>
+        <v>0.06252282269416531</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1001973477449001</v>
+        <v>0.09993100328149596</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05211420333205024</v>
+        <v>0.06253177965271425</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03247442397918361</v>
+        <v>0.03063723470281751</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05305556501152082</v>
+        <v>0.06363328735000535</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03247442397918361</v>
+        <v>0.03063723470281751</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05305556501152082</v>
+        <v>0.06363328735000535</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06649715290239941</v>
+        <v>0.06530667000105755</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05281856781767427</v>
+        <v>0.06340342583070287</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1008983351425549</v>
+        <v>0.1006666371651221</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05284820619588193</v>
+        <v>0.06341250894359755</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0321614236134667</v>
+        <v>0.03138099343671526</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05379244785890307</v>
+        <v>0.06451708300764432</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0321614236134667</v>
+        <v>0.03138099343671526</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05379244785890307</v>
+        <v>0.06451708300764432</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06518015371072325</v>
+        <v>0.0652090170437957</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05355215903736419</v>
+        <v>0.06428402896724041</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1010197102842944</v>
+        <v>0.09940457416122439</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05358220905971361</v>
+        <v>0.06429323823448085</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03228473094495984</v>
+        <v>0.03090469437526121</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05452933070628529</v>
+        <v>0.06540087866528328</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03228473094495984</v>
+        <v>0.03090469437526121</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05452933070628529</v>
+        <v>0.06540087866528328</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06535277469200515</v>
+        <v>0.06272586315442547</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05428575025705411</v>
+        <v>0.06516463210377794</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1025029145515242</v>
+        <v>0.09602853140614781</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05431621192354532</v>
+        <v>0.06517396752536415</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03302046745390128</v>
+        <v>0.03114701706122443</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05526621355366754</v>
+        <v>0.06628467432292225</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03302046745390128</v>
+        <v>0.03114701706122443</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05526621355366754</v>
+        <v>0.06628467432292225</v>
       </c>
       <c r="L140" t="n">
-        <v>0.0664901362041703</v>
+        <v>0.06522650361731952</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05501934147674403</v>
+        <v>0.06604523524031548</v>
       </c>
       <c r="N140" t="n">
-        <v>0.100946241510584</v>
+        <v>0.09694993110887085</v>
       </c>
       <c r="O140" t="n">
-        <v>0.055050214787377</v>
+        <v>0.06605469681624745</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03190826019755352</v>
+        <v>0.03202172605628663</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05600309640104977</v>
+        <v>0.06716846998056121</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03190826019755352</v>
+        <v>0.03202172605628663</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05600309640104977</v>
+        <v>0.06716846998056121</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0665173448120904</v>
+        <v>0.06429376446480603</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05575293269643394</v>
+        <v>0.06692583837685302</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1021323060918919</v>
+        <v>0.100383203875451</v>
       </c>
       <c r="O141" t="n">
-        <v>0.0557842176512087</v>
+        <v>0.06693542610713075</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03300910703322062</v>
+        <v>0.03113345288089181</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05673997924843199</v>
+        <v>0.06805226563820017</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03300910703322062</v>
+        <v>0.03113345288089181</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05673997924843199</v>
+        <v>0.06805226563820017</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06619340391436557</v>
+        <v>0.06458907469378936</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05648652391612387</v>
+        <v>0.06780644151339056</v>
       </c>
       <c r="N142" t="n">
-        <v>0.09959546364539823</v>
+        <v>0.09734057996218204</v>
       </c>
       <c r="O142" t="n">
-        <v>0.0565182205150404</v>
+        <v>0.06781615539801406</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03248439766649934</v>
+        <v>0.03205538908545918</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05747686209581424</v>
+        <v>0.06893606129583914</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03248439766649934</v>
+        <v>0.03205538908545918</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05747686209581424</v>
+        <v>0.06893606129583914</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06623481735124898</v>
+        <v>0.06600759048846908</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05722011513581379</v>
+        <v>0.0686870446499281</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1019644115551931</v>
+        <v>0.100363119823602</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05725222337887209</v>
+        <v>0.06869688468889736</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03219786003224824</v>
+        <v>0.03152879856805894</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05821374494319646</v>
+        <v>0.0698198569534781</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03219786003224824</v>
+        <v>0.03152879856805894</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05821374494319646</v>
+        <v>0.0698198569534781</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06892837808773861</v>
+        <v>0.06611512314491322</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05795370635550372</v>
+        <v>0.06956764778646564</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1018214283344907</v>
+        <v>0.09897303802244084</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05798622624270379</v>
+        <v>0.06957761397978066</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03248420790428669</v>
+        <v>0.0321512441396294</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05895062779057871</v>
+        <v>0.07070365261111707</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03248420790428669</v>
+        <v>0.0321512441396294</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05895062779057871</v>
+        <v>0.07070365261111707</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06829245420488672</v>
+        <v>0.0649907494485511</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05868729757519364</v>
+        <v>0.07044825092300318</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1036359508951807</v>
+        <v>0.09952323624274767</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05872022910653547</v>
+        <v>0.07045834327066396</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03306089782933247</v>
+        <v>0.03115323980849241</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05968751063796093</v>
+        <v>0.07158744826875603</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03306089782933247</v>
+        <v>0.03115323980849241</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05968751063796093</v>
+        <v>0.07158744826875603</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06688422466994409</v>
+        <v>0.0634029330602553</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05942088879488355</v>
+        <v>0.07132885405954073</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1005813216346658</v>
+        <v>0.09994326073572751</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05945423197036717</v>
+        <v>0.07133907256154726</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03304001938794697</v>
+        <v>0.03189846543187945</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06042439348534318</v>
+        <v>0.07247124392639499</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03304001938794697</v>
+        <v>0.03189846543187945</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06042439348534318</v>
+        <v>0.07247124392639499</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06663961309437794</v>
+        <v>0.06356689193802847</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06015448001457348</v>
+        <v>0.07220945719607826</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1045063603307532</v>
+        <v>0.0968480098205689</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06018823483419886</v>
+        <v>0.07221980185243054</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03300068361770075</v>
+        <v>0.03157324117548664</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0611612763327254</v>
+        <v>0.07335503958403396</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03300068361770075</v>
+        <v>0.03157324117548664</v>
       </c>
       <c r="K148" t="n">
-        <v>0.0611612763327254</v>
+        <v>0.07335503958403396</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06608602204302333</v>
+        <v>0.06425868716371264</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0608880712342634</v>
+        <v>0.07309006033261579</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1028022739393067</v>
+        <v>0.1012540903083404</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06092223769803056</v>
+        <v>0.07310053114331384</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03331884447346314</v>
+        <v>0.03171483095932887</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06189815918010763</v>
+        <v>0.07423883524167292</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03331884447346314</v>
+        <v>0.03171483095932887</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06189815918010763</v>
+        <v>0.07423883524167292</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06709892985932181</v>
+        <v>0.0676066813231907</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06162166245395331</v>
+        <v>0.07397066346915335</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1005756501221173</v>
+        <v>0.09842782322567467</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06165624056186225</v>
+        <v>0.07398126043419714</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03283771754665586</v>
+        <v>0.03126321732356881</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06263504202748987</v>
+        <v>0.07512263089931188</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03283771754665586</v>
+        <v>0.03126321732356881</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06263504202748987</v>
+        <v>0.07512263089931188</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06806788995392749</v>
+        <v>0.06794506248950677</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06235525367364323</v>
+        <v>0.07485126660569089</v>
       </c>
       <c r="N150" t="n">
-        <v>0.09970666136824669</v>
+        <v>0.09993300938183342</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06239024342569394</v>
+        <v>0.07486198972508044</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03317127303209555</v>
+        <v>0.03194205594326559</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0633719248748721</v>
+        <v>0.07600642655695085</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03317127303209555</v>
+        <v>0.03194205594326559</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0633719248748721</v>
+        <v>0.07600642655695085</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06922504113957065</v>
+        <v>0.06671390351948794</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06308884489333315</v>
+        <v>0.07573186974222841</v>
       </c>
       <c r="N151" t="n">
-        <v>0.101618840544399</v>
+        <v>0.09871661443091484</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06312424628952563</v>
+        <v>0.07574271901596374</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03327150023458682</v>
+        <v>0.03118181676451098</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06410880772225434</v>
+        <v>0.0768902222145898</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03327150023458682</v>
+        <v>0.03118181676451098</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06410880772225434</v>
+        <v>0.0768902222145898</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06626087823338003</v>
+        <v>0.06724165172412583</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06382243611302307</v>
+        <v>0.07661247287876596</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1045858701114569</v>
+        <v>0.1018041960292259</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06385824915335733</v>
+        <v>0.07662344830684704</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03279658125810192</v>
+        <v>0.03192206386686336</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06484569056963657</v>
+        <v>0.07777401787222878</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03279658125810192</v>
+        <v>0.03192206386686336</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06484569056963657</v>
+        <v>0.07777401787222878</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06874809802980961</v>
+        <v>0.06620838671293106</v>
       </c>
       <c r="M153" t="n">
-        <v>0.064556027332713</v>
+        <v>0.0774930760153035</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1021311643678611</v>
+        <v>0.09736459738152825</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06459225201718902</v>
+        <v>0.07750417759773036</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03259589164950769</v>
+        <v>0.03133653818111927</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06558257341701881</v>
+        <v>0.07865781352986773</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03259589164950769</v>
+        <v>0.03133653818111927</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06558257341701881</v>
+        <v>0.07865781352986773</v>
       </c>
       <c r="L154" t="n">
-        <v>0.0684756089626678</v>
+        <v>0.06864433507564599</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06528961855240291</v>
+        <v>0.07837367915184104</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1013727439523515</v>
+        <v>0.1022751722397465</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06532625488102071</v>
+        <v>0.07838490688861365</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03295311670258072</v>
+        <v>0.03277939771560169</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06631945626440104</v>
+        <v>0.0795416091875067</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03295311670258072</v>
+        <v>0.03277939771560169</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06631945626440104</v>
+        <v>0.0795416091875067</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06910778670644099</v>
+        <v>0.06698106048548952</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06602320977209283</v>
+        <v>0.07925428228837858</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1021246628271221</v>
+        <v>0.1028291778457487</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06606025774485241</v>
+        <v>0.07926563617949695</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03284304411981273</v>
+        <v>0.03254683123167658</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06705633911178327</v>
+        <v>0.08042540484514565</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03284304411981273</v>
+        <v>0.03254683123167658</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06705633911178327</v>
+        <v>0.08042540484514565</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06921448863635357</v>
+        <v>0.06620108230985394</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06675680099178276</v>
+        <v>0.08013488542491612</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1043155042883161</v>
+        <v>0.1037306009714393</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0667942606086841</v>
+        <v>0.08014636547038025</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03299138820687328</v>
+        <v>0.03261671764736629</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06779322195916551</v>
+        <v>0.08130920050278463</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03299138820687328</v>
+        <v>0.03261671764736629</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06779322195916551</v>
+        <v>0.08130920050278463</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06687940028104186</v>
+        <v>0.06825145582253378</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06749039221147267</v>
+        <v>0.08101548856145366</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1028978224261317</v>
+        <v>0.09802438146121689</v>
       </c>
       <c r="O157" t="n">
-        <v>0.0675282634725158</v>
+        <v>0.08102709476126355</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03323911241656458</v>
+        <v>0.0325484977265242</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06853010480654774</v>
+        <v>0.08219299616042358</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03323911241656458</v>
+        <v>0.0325484977265242</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06853010480654774</v>
+        <v>0.08219299616042358</v>
       </c>
       <c r="L158" t="n">
-        <v>0.069837942205871</v>
+        <v>0.0666773454442364</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06822398343116261</v>
+        <v>0.08189609169799121</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1021894425762833</v>
+        <v>0.0990770408939225</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06826226633634749</v>
+        <v>0.08190782405214685</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0332111409803674</v>
+        <v>0.0327685697887399</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06926698765392998</v>
+        <v>0.08307679181806256</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0332111409803674</v>
+        <v>0.0327685697887399</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06926698765392998</v>
+        <v>0.08307679181806256</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06930745217851003</v>
+        <v>0.06777856396159795</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06895757465085252</v>
+        <v>0.08277669483452874</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1026760023281838</v>
+        <v>0.1005397544393528</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06899626920017919</v>
+        <v>0.08278855334303015</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03345925904554897</v>
+        <v>0.03268955599339635</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07000387050131221</v>
+        <v>0.08396058747570151</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03345925904554897</v>
+        <v>0.03268955599339635</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07000387050131221</v>
+        <v>0.08396058747570151</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06848538340558241</v>
+        <v>0.06680027927527463</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06969116587054244</v>
+        <v>0.08365729797106627</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1029201189907802</v>
+        <v>0.1041919140712287</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06973027206401088</v>
+        <v>0.08366928263391345</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03277079686856345</v>
+        <v>0.03187247660337825</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07074075334869444</v>
+        <v>0.08484438313334049</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03277079686856345</v>
+        <v>0.03187247660337825</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07074075334869444</v>
+        <v>0.08484438313334049</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06698626315173478</v>
+        <v>0.06529299695740909</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07042475709023237</v>
+        <v>0.08453790110760383</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1063194961780269</v>
+        <v>0.1010297758467132</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07046427492784257</v>
+        <v>0.08455001192479673</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03281645172960722</v>
+        <v>0.03221357696293548</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07147763619607668</v>
+        <v>0.08572817879097944</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03281645172960722</v>
+        <v>0.03221357696293548</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07147763619607668</v>
+        <v>0.08572817879097944</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06677444308615083</v>
+        <v>0.06755317512065012</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07115834830992228</v>
+        <v>0.08541850424414137</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1028224844932299</v>
+        <v>0.1010732441726541</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07119827779167426</v>
+        <v>0.08543074121568003</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03281184950253294</v>
+        <v>0.03205774087450775</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07221451904345891</v>
+        <v>0.0866119744486184</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03281184950253294</v>
+        <v>0.03205774087450775</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07221451904345891</v>
+        <v>0.0866119744486184</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06883240019901371</v>
+        <v>0.06524432887614173</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0718919395296122</v>
+        <v>0.08629910738067889</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1004584227826495</v>
+        <v>0.1025589938268731</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07193228065550596</v>
+        <v>0.08631147050656333</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03344368516620727</v>
+        <v>0.03226502635492023</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07295140189084115</v>
+        <v>0.08749577010625736</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03344368516620727</v>
+        <v>0.03226502635492023</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07295140189084115</v>
+        <v>0.08749577010625736</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0691729400681384</v>
+        <v>0.06984188267887034</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07262553074930211</v>
+        <v>0.08717971051721643</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1045207973751396</v>
+        <v>0.09931512711331286</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07266628351933764</v>
+        <v>0.08719219979744663</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03313786825631139</v>
+        <v>0.03339203939034961</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07368828473822338</v>
+        <v>0.08837956576389633</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03313786825631139</v>
+        <v>0.03339203939034961</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07368828473822338</v>
+        <v>0.08837956576389633</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06944585164392336</v>
+        <v>0.06692287836414093</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07335912196899204</v>
+        <v>0.08806031365375398</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1015850853097962</v>
+        <v>0.100631676382034</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07340028638316935</v>
+        <v>0.08807292908832993</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03346814781983654</v>
+        <v>0.03290228173102408</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07442516758560562</v>
+        <v>0.08926336142153529</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03346814781983654</v>
+        <v>0.03290228173102408</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07442516758560562</v>
+        <v>0.08926336142153529</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06980878763428813</v>
+        <v>0.06740674945750808</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07409271318868196</v>
+        <v>0.08894091679029152</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1023408295403236</v>
+        <v>0.103411801090505</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07413428924700104</v>
+        <v>0.08895365837921325</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0328848702021155</v>
+        <v>0.03260845246429417</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07516205043298785</v>
+        <v>0.09014715707917426</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0328848702021155</v>
+        <v>0.03260845246429417</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07516205043298785</v>
+        <v>0.09014715707917426</v>
       </c>
       <c r="L167" t="n">
-        <v>0.0671783683442449</v>
+        <v>0.06870234364787922</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07482630440837187</v>
+        <v>0.08982151992682905</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1044367101770788</v>
+        <v>0.0993563337732174</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07486829211083273</v>
+        <v>0.08983438767009655</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0334902652030898</v>
+        <v>0.03269710598292334</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07589893328037008</v>
+        <v>0.09103095273681322</v>
       </c>
       <c r="J168" t="n">
-        <v>0.0334902652030898</v>
+        <v>0.03269710598292334</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07589893328037008</v>
+        <v>0.09103095273681322</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06906824887876953</v>
+        <v>0.06827651711109362</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0755598956280618</v>
+        <v>0.0907021230633666</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1022219456767943</v>
+        <v>0.1024274150054451</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07560229497466443</v>
+        <v>0.09071511696097985</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03282404945641425</v>
+        <v>0.03369084969018758</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07663581612775232</v>
+        <v>0.09191474839445218</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03282404945641425</v>
+        <v>0.03369084969018758</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07663581612775232</v>
+        <v>0.09191474839445218</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06855003752524338</v>
+        <v>0.06756054803021305</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07629348684775172</v>
+        <v>0.09158272619990414</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1061794164777268</v>
+        <v>0.1057505827814346</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07633629783849612</v>
+        <v>0.09159584625186314</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03333822642997808</v>
+        <v>0.03221388331923764</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07737269897513455</v>
+        <v>0.09279854405209115</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03333822642997808</v>
+        <v>0.03221388331923764</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07737269897513455</v>
+        <v>0.09279854405209115</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06704806968643004</v>
+        <v>0.0663600809389836</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07702707806744163</v>
+        <v>0.09246332933644168</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1066278477195726</v>
+        <v>0.1026430960124864</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07707030070232782</v>
+        <v>0.09247657554274644</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03408573137763618</v>
+        <v>0.03263241591860523</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07810958182251677</v>
+        <v>0.09368233970973011</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03408573137763618</v>
+        <v>0.03263241591860523</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07810958182251677</v>
+        <v>0.09368233970973011</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06945368346252814</v>
+        <v>0.06910912819714224</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07776066928713156</v>
+        <v>0.09334393247297922</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1016773681528526</v>
+        <v>0.1057531714437731</v>
       </c>
       <c r="O171" t="n">
-        <v>0.0778043035661595</v>
+        <v>0.09335730483362974</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03341937392353618</v>
+        <v>0.03306696529858889</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07884646466989902</v>
+        <v>0.09456613536736906</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03341937392353618</v>
+        <v>0.03306696529858889</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07884646466989902</v>
+        <v>0.09456613536736906</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06786506882484264</v>
+        <v>0.0671023110017703</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07849426050682148</v>
+        <v>0.09422453560951675</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1027467329620579</v>
+        <v>0.1058941561285373</v>
       </c>
       <c r="O172" t="n">
-        <v>0.0785383064299912</v>
+        <v>0.09423803412451304</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03328829998151246</v>
+        <v>0.03273430476741002</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07958334751728124</v>
+        <v>0.09544993102500804</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03328829998151246</v>
+        <v>0.03273430476741002</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07958334751728124</v>
+        <v>0.09544993102500804</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06719100760741267</v>
+        <v>0.06916918810551653</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07922785172651141</v>
+        <v>0.09510513874605429</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1052373196098543</v>
+        <v>0.1014145054047077</v>
       </c>
       <c r="O173" t="n">
-        <v>0.0792723092938229</v>
+        <v>0.09511876341539634</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03380335720451569</v>
+        <v>0.0339841594894086</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08032023036466347</v>
+        <v>0.09633372668264699</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03380335720451569</v>
+        <v>0.0339841594894086</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08032023036466347</v>
+        <v>0.09633372668264699</v>
       </c>
       <c r="L174" t="n">
-        <v>0.068552329087226</v>
+        <v>0.06881623807608525</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07996144294620133</v>
+        <v>0.09598574188259183</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1032188412948118</v>
+        <v>0.1061651322417487</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08000631215765459</v>
+        <v>0.09599949270627964</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03295097373583886</v>
+        <v>0.03379987098113214</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08105711321204571</v>
+        <v>0.09721752234028597</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03295097373583886</v>
+        <v>0.03379987098113214</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08105711321204571</v>
+        <v>0.09721752234028597</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06842482003602277</v>
+        <v>0.06666607008222611</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08069503416589124</v>
+        <v>0.09686634501912937</v>
       </c>
       <c r="N175" t="n">
-        <v>0.106032042842464</v>
+        <v>0.1043441256740265</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08074031502148628</v>
+        <v>0.09688022199716294</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03330425718523378</v>
+        <v>0.03362225073997394</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08179399605942794</v>
+        <v>0.09810131799792492</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03330425718523378</v>
+        <v>0.03362225073997394</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08179399605942794</v>
+        <v>0.09810131799792492</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06828926603400212</v>
+        <v>0.07061176567688546</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08142862538558117</v>
+        <v>0.09774694815566691</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1060313713555799</v>
+        <v>0.1070801756517655</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08147431788531798</v>
+        <v>0.09776095128804622</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03319107943839046</v>
+        <v>0.03397805816219468</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08253087890681017</v>
+        <v>0.09898511365556389</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03319107943839046</v>
+        <v>0.03397805816219468</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08253087890681017</v>
+        <v>0.09898511365556389</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06825537268609352</v>
+        <v>0.06714493294343543</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08216221660527108</v>
+        <v>0.09862755129220446</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1035274192885187</v>
+        <v>0.1016132579975522</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08220832074914966</v>
+        <v>0.09864168057892952</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03325092128287764</v>
+        <v>0.03384066805317479</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08326776175419241</v>
+        <v>0.09986890931320284</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03325092128287764</v>
+        <v>0.03384066805317479</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08326776175419241</v>
+        <v>0.09986890931320284</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06967056233986565</v>
+        <v>0.06904286159288017</v>
       </c>
       <c r="M178" t="n">
-        <v>0.082895807824961</v>
+        <v>0.09950815442874199</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1031838430930396</v>
+        <v>0.1077283084736738</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08294232361298136</v>
+        <v>0.09952240986981283</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03386049421414082</v>
+        <v>0.0330074487162689</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08400464460157464</v>
+        <v>0.1007527049708418</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03386049421414082</v>
+        <v>0.0330074487162689</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08400464460157464</v>
+        <v>0.1007527049708418</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06794192403642976</v>
+        <v>0.0709661324214286</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08362939904465093</v>
+        <v>0.1003887575652795</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1029955377635466</v>
+        <v>0.1028831875091842</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08367632647681304</v>
+        <v>0.1004031391606961</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03339123712020789</v>
+        <v>0.0333268402313493</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08474152744895688</v>
+        <v>0.1016365006284808</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03339123712020789</v>
+        <v>0.0333268402313493</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08474152744895688</v>
+        <v>0.1016365006284808</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06977481183938805</v>
+        <v>0.06937178128048097</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08436299026434084</v>
+        <v>0.1012693607018171</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1075452536253347</v>
+        <v>0.1022908858611479</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08441032934064474</v>
+        <v>0.1012838684515794</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03300837054985449</v>
+        <v>0.03378725126915001</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08547841029633911</v>
+        <v>0.1025202962861197</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03300837054985449</v>
+        <v>0.03378725126915001</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08547841029633911</v>
+        <v>0.1025202962861197</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06846055968772441</v>
+        <v>0.06769340626589906</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08509658148403076</v>
+        <v>0.1021499638383546</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1065502321538087</v>
+        <v>0.1072815010282454</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08514433220447644</v>
+        <v>0.1021645977424627</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03345432721831296</v>
+        <v>0.03290082954999944</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08621529314372134</v>
+        <v>0.1034040919437587</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03345432721831296</v>
+        <v>0.03290082954999944</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08621529314372134</v>
+        <v>0.1034040919437587</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06936686471402401</v>
+        <v>0.0667480766274528</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08583017270372069</v>
+        <v>0.1030305669748921</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1033416174669339</v>
+        <v>0.1050172208246045</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08587833506830814</v>
+        <v>0.103045327033346</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03373385753487866</v>
+        <v>0.03312360338406568</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08695217599110358</v>
+        <v>0.1042878876013977</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03373385753487866</v>
+        <v>0.03312360338406568</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08695217599110358</v>
+        <v>0.1042878876013977</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07024099359967004</v>
+        <v>0.06779474766702509</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0865637639234106</v>
+        <v>0.1039111701114297</v>
       </c>
       <c r="N183" t="n">
-        <v>0.107387562811548</v>
+        <v>0.1063004468927703</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08661233793213984</v>
+        <v>0.1039260563242293</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03394696568240566</v>
+        <v>0.03291164801620634</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08768905883848581</v>
+        <v>0.1051716832590366</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03394696568240566</v>
+        <v>0.03291164801620634</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08768905883848581</v>
+        <v>0.1051716832590366</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06817728523137939</v>
+        <v>0.06769540366353638</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08729735514310052</v>
+        <v>0.1047917732479672</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1046616703860496</v>
+        <v>0.1084873549840447</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08734634079597152</v>
+        <v>0.1048067856151126</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03432000366525302</v>
+        <v>0.03422156954971414</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08842594168586805</v>
+        <v>0.1060554789166756</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03432000366525302</v>
+        <v>0.03422156954971414</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08842594168586805</v>
+        <v>0.1060554789166756</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06956895405075936</v>
+        <v>0.06911849784650767</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08803094636279045</v>
+        <v>0.1056723763845048</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1030906950908312</v>
+        <v>0.1061924325845916</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08808034365980322</v>
+        <v>0.1056875149059959</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03448633654573527</v>
+        <v>0.0337142784514277</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08916282453325028</v>
+        <v>0.1069392745743146</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03448633654573527</v>
+        <v>0.0337142784514277</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08916282453325028</v>
+        <v>0.1069392745743146</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07056566887645707</v>
+        <v>0.06831902181758884</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08876453758248037</v>
+        <v>0.1065529795210423</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1054720973193563</v>
+        <v>0.102540067887287</v>
       </c>
       <c r="O186" t="n">
-        <v>0.0888143465236349</v>
+        <v>0.1065682441968792</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03366451234124856</v>
+        <v>0.03270323369619868</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08989970738063251</v>
+        <v>0.1078230702319535</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03366451234124856</v>
+        <v>0.03270323369619868</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08989970738063251</v>
+        <v>0.1078230702319535</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06848346837680525</v>
+        <v>0.07100218599550767</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0894981288021703</v>
+        <v>0.1074335826575799</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1071748627407183</v>
+        <v>0.1060825907358236</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0895483493874666</v>
+        <v>0.1074489734877625</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03463075779210126</v>
+        <v>0.0341788478232226</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09063659022801475</v>
+        <v>0.1087068658895925</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03463075779210126</v>
+        <v>0.0341788478232226</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09063659022801475</v>
+        <v>0.1087068658895925</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06906877949090012</v>
+        <v>0.0702567913048954</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09023172002186021</v>
+        <v>0.1083141857941174</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1039151753849235</v>
+        <v>0.1051770706247881</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09028235225129828</v>
+        <v>0.1083297027786458</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03439700302570925</v>
+        <v>0.03454537888789153</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09137347307539698</v>
+        <v>0.1095906615472314</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03439700302570925</v>
+        <v>0.03454537888789153</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09137347307539698</v>
+        <v>0.1095906615472314</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06780160425390633</v>
+        <v>0.07120985159975157</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09096531124155013</v>
+        <v>0.1091947889306549</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1055659693440518</v>
+        <v>0.1060568178443216</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09101635511513</v>
+        <v>0.1092104320695291</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03420847297774791</v>
+        <v>0.03348806923528123</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09211035592277922</v>
+        <v>0.1104744572048704</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03420847297774791</v>
+        <v>0.03348806923528123</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09211035592277922</v>
+        <v>0.1104744572048704</v>
       </c>
       <c r="L190" t="n">
-        <v>0.0709248500171569</v>
+        <v>0.06938304553393385</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09169890246124006</v>
+        <v>0.1100753920671925</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1055163230913061</v>
+        <v>0.1028039944457892</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09175035797896168</v>
+        <v>0.1100911613604124</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03355300523761372</v>
+        <v>0.03363591925691485</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09284723877016145</v>
+        <v>0.1113582528625094</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03355300523761372</v>
+        <v>0.03363591925691485</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09284723877016145</v>
+        <v>0.1113582528625094</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07077953698658457</v>
+        <v>0.07062696310057998</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09243249368092997</v>
+        <v>0.11095599520373</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1063440719874224</v>
+        <v>0.1030048412425378</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09248436084279338</v>
+        <v>0.1109718906512957</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0347207683077074</v>
+        <v>0.03459771587033865</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09358412161754369</v>
+        <v>0.1122420485201483</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0347207683077074</v>
+        <v>0.03459771587033865</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09358412161754369</v>
+        <v>0.1122420485201483</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07150114949822517</v>
+        <v>0.06820037300540366</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09316608490061989</v>
+        <v>0.1118365983402675</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1071991519644148</v>
+        <v>0.1021340465856</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09321836370662506</v>
+        <v>0.111852619942179</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03410381532396314</v>
+        <v>0.03312013048393121</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09432100446492592</v>
+        <v>0.1131258441777873</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03410381532396314</v>
+        <v>0.03312013048393121</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09432100446492592</v>
+        <v>0.1131258441777873</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06972008036343549</v>
+        <v>0.0713980880412422</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09389967612030981</v>
+        <v>0.1127172014768051</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1074532487252926</v>
+        <v>0.1055130211380985</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09395236657045676</v>
+        <v>0.1127333492330623</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03422923808877551</v>
+        <v>0.0332409767136299</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09505788731230815</v>
+        <v>0.1140096398354263</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03422923808877551</v>
+        <v>0.0332409767136299</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09505788731230815</v>
+        <v>0.1140096398354263</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06933224556449244</v>
+        <v>0.06945633985161889</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09463326733999973</v>
+        <v>0.1135978046133426</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1049462996367295</v>
+        <v>0.1037245477025778</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09468636943428846</v>
+        <v>0.1136140785239456</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03458229940823214</v>
+        <v>0.03394347209990914</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09579477015969039</v>
+        <v>0.1148934354930652</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03458229940823214</v>
+        <v>0.03394347209990914</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09579477015969039</v>
+        <v>0.1148934354930652</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06940563351295898</v>
+        <v>0.06876594758841792</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09536685855968965</v>
+        <v>0.1144784077498802</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1081356154660271</v>
+        <v>0.1073692120316261</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09542037229812014</v>
+        <v>0.1144948078148289</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03347882851875332</v>
+        <v>0.03452264824067759</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09653165300707262</v>
+        <v>0.1157772311507042</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03347882851875332</v>
+        <v>0.03452264824067759</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09653165300707262</v>
+        <v>0.1157772311507042</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07051592331088155</v>
+        <v>0.06929006690359654</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09610044977937957</v>
+        <v>0.1153590108864177</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1062029665382787</v>
+        <v>0.1024599193593015</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09615437516195184</v>
+        <v>0.1153755371057122</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03457164198636452</v>
+        <v>0.03359469256492606</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09726853585445486</v>
+        <v>0.1166610268083432</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03457164198636452</v>
+        <v>0.03359469256492606</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09726853585445486</v>
+        <v>0.1166610268083432</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06885883272749077</v>
+        <v>0.06975576295503874</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09683404099906949</v>
+        <v>0.1162396140229553</v>
       </c>
       <c r="N197" t="n">
-        <v>0.106329337383856</v>
+        <v>0.1084992018361906</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09688837802578354</v>
+        <v>0.1162562663965955</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0339749446789176</v>
+        <v>0.03415293172313179</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09800541870183709</v>
+        <v>0.1175448224659821</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0339749446789176</v>
+        <v>0.03415293172313179</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09800541870183709</v>
+        <v>0.1175448224659821</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06975716666917708</v>
+        <v>0.06840184968722254</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09756763221875941</v>
+        <v>0.1171202171594928</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1078629988284704</v>
+        <v>0.1046702451636717</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09762238088961524</v>
+        <v>0.1171369956874788</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03445414654725446</v>
+        <v>0.034202822136466</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09874230154921933</v>
+        <v>0.1184286181236211</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03445414654725446</v>
+        <v>0.034202822136466</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09874230154921933</v>
+        <v>0.1184286181236211</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06823550714992255</v>
+        <v>0.07171663250838109</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09830122343844933</v>
+        <v>0.1180008202960303</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1049594336613447</v>
+        <v>0.1063492582351378</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09835638375344692</v>
+        <v>0.1180177249783621</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0341588112994759</v>
+        <v>0.03366975190638788</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09947918439660156</v>
+        <v>0.11931241378126</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0341588112994759</v>
+        <v>0.03366975190638788</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09947918439660156</v>
+        <v>0.11931241378126</v>
       </c>
       <c r="L200" t="n">
-        <v>0.0701742130439153</v>
+        <v>0.06875562529484075</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09903481465813925</v>
+        <v>0.1188814234325679</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1082283864700905</v>
+        <v>0.1040713373636381</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09909038661727862</v>
+        <v>0.1188984542692454</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03464390575040519</v>
+        <v>0.03397649873577969</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1002160672439838</v>
+        <v>0.120196209438899</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03464390575040519</v>
+        <v>0.03397649873577969</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1002160672439838</v>
+        <v>0.120196209438899</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07190084693351856</v>
+        <v>0.06974068308248496</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09976840587782917</v>
+        <v>0.1197620265691054</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1039888890548802</v>
+        <v>0.1055299874820548</v>
       </c>
       <c r="O201" t="n">
-        <v>0.0998243894811103</v>
+        <v>0.1197791835601287</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03462619525026225</v>
+        <v>0.03458707175428152</v>
       </c>
       <c r="G202" t="n">
-        <v>0.100952950091366</v>
+        <v>0.121080005096538</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03462619525026225</v>
+        <v>0.03458707175428152</v>
       </c>
       <c r="K202" t="n">
-        <v>0.100952950091366</v>
+        <v>0.121080005096538</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06942676806880055</v>
+        <v>0.07025622304977422</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1005019970975191</v>
+        <v>0.1206426297056429</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1075769614282048</v>
+        <v>0.1078871339586812</v>
       </c>
       <c r="O202" t="n">
-        <v>0.100558392344942</v>
+        <v>0.120659912851012</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03374441917184809</v>
+        <v>0.03327993131045037</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1016898329387483</v>
+        <v>0.1219638007541769</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03374441917184809</v>
+        <v>0.03327993131045037</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1016898329387483</v>
+        <v>0.1219638007541769</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.06815341278327269</v>
       </c>
       <c r="M203" t="n">
-        <v>0.101235588317209</v>
+        <v>0.1215232328421805</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1054367545847668</v>
+        <v>0.1054488232747002</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1012923952087737</v>
+        <v>0.1215406421418953</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03491998100175459</v>
+        <v>0.03449543904433584</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1024267157861305</v>
+        <v>0.1228475964118159</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03491998100175459</v>
+        <v>0.03449543904433584</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1024267157861305</v>
+        <v>0.1228475964118159</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07076346089961277</v>
+        <v>0.07202117668346236</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1019691795368989</v>
+        <v>0.122403835978718</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1042839174672118</v>
+        <v>0.1073565871627696</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1020263980726054</v>
+        <v>0.1224213714327786</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03426115645842233</v>
+        <v>0.03390097466233916</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1031635986335127</v>
+        <v>0.1237313920694549</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03426115645842233</v>
+        <v>0.03390097466233916</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1031635986335127</v>
+        <v>0.1237313920694549</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06862627481888797</v>
+        <v>0.06967142184470781</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1027027707565889</v>
+        <v>0.1232844391152556</v>
       </c>
       <c r="N205" t="n">
-        <v>0.106943922138458</v>
+        <v>0.1062307359649096</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1027604009364371</v>
+        <v>0.1233021007236619</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03438236807201946</v>
+        <v>0.03398191935771702</v>
       </c>
       <c r="G206" t="n">
-        <v>0.103900481480895</v>
+        <v>0.1246151877270938</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03438236807201946</v>
+        <v>0.03398191935771702</v>
       </c>
       <c r="K206" t="n">
-        <v>0.103900481480895</v>
+        <v>0.1246151877270938</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07129870511778461</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1034363619762788</v>
+        <v>0.1241650422517931</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1067721571314825</v>
+        <v>0.103968174269668</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1034944038002688</v>
+        <v>0.1241828300145452</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03373850885205018</v>
+        <v>0.03378367182958868</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1046373643282772</v>
+        <v>0.1254989833847328</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03373850885205018</v>
+        <v>0.03378367182958868</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1046373643282772</v>
+        <v>0.1254989833847328</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06847623494308414</v>
+        <v>0.06953480008933105</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1041699531959687</v>
+        <v>0.1250456453883306</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1082677821428227</v>
+        <v>0.1079737447822244</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1042284066641005</v>
+        <v>0.1250635593054285</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03458957623104944</v>
+        <v>0.03387783266158095</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1053742471756594</v>
+        <v>0.1263827790423717</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03458957623104944</v>
+        <v>0.03387783266158095</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1053742471756594</v>
+        <v>0.1263827790423717</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07146926167185746</v>
+        <v>0.07062577533006245</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1049035444156586</v>
+        <v>0.1259262485248682</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1046618495552357</v>
+        <v>0.1050530201771838</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1049624095279322</v>
+        <v>0.1259442885963118</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03445229031463351</v>
+        <v>0.03406903646851493</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1061111300230416</v>
+        <v>0.1272665747000107</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03445229031463351</v>
+        <v>0.03406903646851493</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1061111300230416</v>
+        <v>0.1272665747000107</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07078685792878509</v>
+        <v>0.06904773108643361</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1056371356353485</v>
+        <v>0.1268068516614057</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1069977322937877</v>
+        <v>0.1054163828942608</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1056964123917639</v>
+        <v>0.1268250178871951</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03473410515016828</v>
+        <v>0.0336171683080892</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1068480128704239</v>
+        <v>0.1281503703576497</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03473410515016828</v>
+        <v>0.0336171683080892</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1068480128704239</v>
+        <v>0.1281503703576497</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07100233192573641</v>
+        <v>0.07038995153368335</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1063707268550385</v>
+        <v>0.1276874547979433</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1055718942574259</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1064304152555955</v>
+        <v>0.1277057471780784</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03410833920927485</v>
+        <v>0.03424187188050627</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1075848957178061</v>
+        <v>0.1290341660152886</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03410833920927485</v>
+        <v>0.03424187188050627</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1075848957178061</v>
+        <v>0.1290341660152886</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06925618967078934</v>
+        <v>0.07084922901342522</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1071043180747284</v>
+        <v>0.1285680579344808</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1090527946595405</v>
+        <v>0.1035050702424503</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1071644181194272</v>
+        <v>0.1285864764689617</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03486276734236238</v>
+        <v>0.03460873750957727</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1083217785651884</v>
+        <v>0.1299179616729276</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03486276734236238</v>
+        <v>0.03460873750957727</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1083217785651884</v>
+        <v>0.1299179616729276</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07221395189368962</v>
+        <v>0.06917807630075062</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1078379092944183</v>
+        <v>0.1294486610710184</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1052477017848473</v>
+        <v>0.105059473834484</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1078984209832589</v>
+        <v>0.129467205759845</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03479967315731342</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1090586614125706</v>
+        <v>0.1308017573305666</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03479967315731342</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1090586614125706</v>
+        <v>0.1308017573305666</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06997902522990782</v>
+        <v>0.0715604587430283</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1085715005141082</v>
+        <v>0.1303292642075559</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1083020799643715</v>
+        <v>0.1040054928954622</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1086324238470906</v>
+        <v>0.1303479350507283</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03469582317511531</v>
+        <v>0.03344252891314366</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1097955442599528</v>
+        <v>0.1316855529882055</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03469582317511531</v>
+        <v>0.03344252891314366</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1097955442599528</v>
+        <v>0.1316855529882055</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07125028235851139</v>
+        <v>0.0705309251978995</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1093050917337981</v>
+        <v>0.1312098673440934</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1038553831932713</v>
+        <v>0.1071600068183382</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1093664267109223</v>
+        <v>0.1312286643416116</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03371699646021463</v>
+        <v>0.03351936167914914</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1105324271073351</v>
+        <v>0.1325693486458445</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03371699646021463</v>
+        <v>0.03351936167914914</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1105324271073351</v>
+        <v>0.1325693486458445</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06989871219676139</v>
+        <v>0.07102142314763613</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1100386829534881</v>
+        <v>0.132090470480631</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1088103804779175</v>
+        <v>0.1059255279303665</v>
       </c>
       <c r="O215" t="n">
-        <v>0.110100429574754</v>
+        <v>0.1321093936324949</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03402473443273726</v>
+        <v>0.03438370111102332</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1112693099547173</v>
+        <v>0.1334531443034835</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03402473443273726</v>
+        <v>0.03438370111102332</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1112693099547173</v>
+        <v>0.1334531443034835</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07198818773033017</v>
+        <v>0.07152557179913052</v>
       </c>
       <c r="M216" t="n">
-        <v>0.110772274173178</v>
+        <v>0.1329710736171685</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1097781091871217</v>
+        <v>0.1055412015069849</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1108344324385857</v>
+        <v>0.1329901229233782</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03449868757501412</v>
+        <v>0.03440247618608333</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1120061928020995</v>
+        <v>0.1343369399611224</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03449868757501412</v>
+        <v>0.03440247618608333</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1120061928020995</v>
+        <v>0.1343369399611224</v>
       </c>
       <c r="L217" t="n">
-        <v>0.07126846083105395</v>
+        <v>0.06866775745955064</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1115058653928679</v>
+        <v>0.133851676753706</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1047916518399193</v>
+        <v>0.1040469889563474</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1115684353024174</v>
+        <v>0.1338708522142615</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.034377428948954</v>
+        <v>0.03499669300926332</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1127430756494818</v>
+        <v>0.1352207356187614</v>
       </c>
       <c r="J218" t="n">
-        <v>0.034377428948954</v>
+        <v>0.03499669300926332</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1127430756494818</v>
+        <v>0.1352207356187614</v>
       </c>
       <c r="L218" t="n">
-        <v>0.07204127236079175</v>
+        <v>0.06897165092025614</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1122394566125578</v>
+        <v>0.1347322798902436</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1085960881018725</v>
+        <v>0.1092684431949622</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1123024381662491</v>
+        <v>0.1347515815051448</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03475458247151296</v>
+        <v>0.03449705281005519</v>
       </c>
       <c r="G219" t="n">
-        <v>0.113479958496864</v>
+        <v>0.1361045312764003</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03475458247151296</v>
+        <v>0.03449705281005519</v>
       </c>
       <c r="K219" t="n">
-        <v>0.113479958496864</v>
+        <v>0.1361045312764003</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07041186438637759</v>
+        <v>0.07235770634835581</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1129730478322477</v>
+        <v>0.1356128830267811</v>
       </c>
       <c r="N219" t="n">
-        <v>0.108917915137509</v>
+        <v>0.108981573595775</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1130364410300808</v>
+        <v>0.1356323107960281</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03407877869594009</v>
+        <v>0.03472491742270002</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1142168413442462</v>
+        <v>0.1369883269340393</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03407877869594009</v>
+        <v>0.03472491742270002</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1142168413442462</v>
+        <v>0.1369883269340393</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07007865342478306</v>
+        <v>0.0694096589447129</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1137066390519376</v>
+        <v>0.1364934861633187</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1066639066227556</v>
+        <v>0.1090523033238361</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1137704438939125</v>
+        <v>0.1365130400869114</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0346914824885588</v>
+        <v>0.03343697453221106</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1149537241916285</v>
+        <v>0.1378721225916783</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0346914824885588</v>
+        <v>0.03343697453221106</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1149537241916285</v>
+        <v>0.1378721225916783</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07049694022563699</v>
+        <v>0.06983231953230387</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1144402302716276</v>
+        <v>0.1373740892998562</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1082777197064108</v>
+        <v>0.1063029646801431</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1145044467577442</v>
+        <v>0.1373937693777947</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03481758514171268</v>
+        <v>0.03391488820064621</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1156906070390107</v>
+        <v>0.1387559182493172</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03481758514171268</v>
+        <v>0.03391488820064621</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1156906070390107</v>
+        <v>0.1387559182493172</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06961026450810223</v>
+        <v>0.0713817718062153</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1151738214913175</v>
+        <v>0.1382546924363937</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1055755963252818</v>
+        <v>0.110078775577985</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1152384496215759</v>
+        <v>0.138274498668678</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0346450190009856</v>
+        <v>0.03517482411846737</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1164274898863929</v>
+        <v>0.1396397139069562</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0346450190009856</v>
+        <v>0.03517482411846737</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1164274898863929</v>
+        <v>0.1396397139069562</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07125746040940473</v>
+        <v>0.06943933471445199</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1159074127110074</v>
+        <v>0.1391352955729313</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1060076471450517</v>
+        <v>0.1062597265709835</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1159724524854076</v>
+        <v>0.1391552279595613</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0344433375545453</v>
+        <v>0.03464513568797589</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1171643727337752</v>
+        <v>0.1405235095645952</v>
       </c>
       <c r="J224" t="n">
-        <v>0.0344433375545453</v>
+        <v>0.03464513568797589</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1171643727337752</v>
+        <v>0.1405235095645952</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06932781042400543</v>
+        <v>0.07036771121255325</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1166410039306974</v>
+        <v>0.1400158987094688</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1060712631362417</v>
+        <v>0.1107939912935451</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1167064553492393</v>
+        <v>0.1400359572504446</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03423660519681032</v>
+        <v>0.03479018315611387</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1179012555811574</v>
+        <v>0.1414073052222341</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03423660519681032</v>
+        <v>0.03479018315611387</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1179012555811574</v>
+        <v>0.1414073052222341</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0703779662482088</v>
+        <v>0.07155249871910341</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1173745951503873</v>
+        <v>0.1408965018460064</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1085414670392754</v>
+        <v>0.1066276596428974</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1174404582130709</v>
+        <v>0.1409166865413279</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03402485725870438</v>
+        <v>0.03452439158587645</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1186381384285396</v>
+        <v>0.1422911008798731</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03402485725870438</v>
+        <v>0.03452439158587645</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1186381384285396</v>
+        <v>0.1422911008798731</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07164852533555527</v>
+        <v>0.07163195633247407</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1181081863700772</v>
+        <v>0.1417771049825439</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1055864779608572</v>
+        <v>0.1076388178686475</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1181744610769026</v>
+        <v>0.1417974158322112</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0342929601013382</v>
+        <v>0.03518349443415868</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1193750212759219</v>
+        <v>0.1431748965375121</v>
       </c>
       <c r="J227" t="n">
-        <v>0.0342929601013382</v>
+        <v>0.03518349443415868</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1193750212759219</v>
+        <v>0.1431748965375121</v>
       </c>
       <c r="L227" t="n">
-        <v>0.07048262329376875</v>
+        <v>0.07065803973061194</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1188417775897671</v>
+        <v>0.1426577081190815</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1095378871554707</v>
+        <v>0.1048101345679782</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1189084639407343</v>
+        <v>0.1426781451230945</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03441316526914349</v>
+        <v>0.03534320700426041</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1201119041233041</v>
+        <v>0.144058692195151</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03441316526914349</v>
+        <v>0.03534320700426041</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1201119041233041</v>
+        <v>0.144058692195151</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06950545917690437</v>
+        <v>0.07098868379353362</v>
       </c>
       <c r="M228" t="n">
-        <v>0.119575368809457</v>
+        <v>0.143538311255619</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1098079572233615</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O228" t="n">
-        <v>0.119642466804566</v>
+        <v>0.1435588744139778</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03474898940062918</v>
+        <v>0.0337928029605444</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1208487869706864</v>
+        <v>0.14494248785279</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03474898940062918</v>
+        <v>0.0337928029605444</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1208487869706864</v>
+        <v>0.14494248785279</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07094108643522085</v>
+        <v>0.07101879811690409</v>
       </c>
       <c r="M229" t="n">
-        <v>0.120308960029147</v>
+        <v>0.1444189143921565</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1052470711342172</v>
+        <v>0.1069314555369986</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1203764696683977</v>
+        <v>0.1444396037048611</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03401264154332889</v>
+        <v>0.03514858440475495</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1215856698180686</v>
+        <v>0.145826283510429</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03401264154332889</v>
+        <v>0.03514858440475495</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1215856698180686</v>
+        <v>0.145826283510429</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07055038039501654</v>
+        <v>0.07094037228454664</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1210425512488369</v>
+        <v>0.1452995175286941</v>
       </c>
       <c r="N230" t="n">
-        <v>0.107985990986468</v>
+        <v>0.1044927304297634</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1211104725322294</v>
+        <v>0.1453203329957444</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03450951227893993</v>
+        <v>0.03506025312627246</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1223225526654508</v>
+        <v>0.1467100791680679</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03450951227893993</v>
+        <v>0.03506025312627246</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1223225526654508</v>
+        <v>0.1467100791680679</v>
       </c>
       <c r="L231" t="n">
-        <v>0.07112235618175414</v>
+        <v>0.06993964292281143</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1217761424685268</v>
+        <v>0.1461801206652316</v>
       </c>
       <c r="N231" t="n">
-        <v>0.10543596240553</v>
+        <v>0.1066820738958194</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1218444753960611</v>
+        <v>0.1462010622866277</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03456142197627347</v>
+        <v>0.03479529429369405</v>
       </c>
       <c r="G232" t="n">
-        <v>0.123059435512833</v>
+        <v>0.1475938748257069</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03456142197627347</v>
+        <v>0.03479529429369405</v>
       </c>
       <c r="K232" t="n">
-        <v>0.123059435512833</v>
+        <v>0.1475938748257069</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06982154265381493</v>
+        <v>0.06988233866659918</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1225097336882167</v>
+        <v>0.1470607238017692</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1045042456074163</v>
+        <v>0.1068967120948119</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1225784782598928</v>
+        <v>0.147081791577511</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03528544388549072</v>
+        <v>0.03458754752015358</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1237963183602153</v>
+        <v>0.1484776704833458</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03528544388549072</v>
+        <v>0.03458754752015358</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1237963183602153</v>
+        <v>0.1484776704833458</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07057081860111014</v>
+        <v>0.07280068838086312</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1232433249079066</v>
+        <v>0.1479413269383067</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1057973164795172</v>
+        <v>0.111356035822617</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1233124811237245</v>
+        <v>0.1479625208683943</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03407335384140804</v>
+        <v>0.0351333403169176</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1245332012075975</v>
+        <v>0.1493614661409848</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03407335384140804</v>
+        <v>0.0351333403169176</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1245332012075975</v>
+        <v>0.1493614661409848</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06995646255162427</v>
+        <v>0.06938436250646304</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1239769161275966</v>
+        <v>0.1488219300748442</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1066770822587921</v>
+        <v>0.1077637707180918</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1240464839875562</v>
+        <v>0.1488432501592776</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03384001670271933</v>
+        <v>0.03519762391321553</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1252700840549797</v>
+        <v>0.1502452617986238</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03384001670271933</v>
+        <v>0.03519762391321553</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1252700840549797</v>
+        <v>0.1502452617986238</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07172481010773496</v>
+        <v>0.07193838326676716</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1247105073472865</v>
+        <v>0.1497025332113818</v>
       </c>
       <c r="N235" t="n">
-        <v>0.10979416884316</v>
+        <v>0.1115258672776626</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1247804868513879</v>
+        <v>0.1497239794501609</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03377629030136532</v>
+        <v>0.0343327575489463</v>
       </c>
       <c r="G236" t="n">
-        <v>0.126006966902362</v>
+        <v>0.1511290574562627</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03377629030136532</v>
+        <v>0.0343327575489463</v>
       </c>
       <c r="K236" t="n">
-        <v>0.126006966902362</v>
+        <v>0.1511290574562627</v>
       </c>
       <c r="L236" t="n">
-        <v>0.070954507846163</v>
+        <v>0.07075533443679802</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1254440985669764</v>
+        <v>0.1505831363479193</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1065514071886101</v>
+        <v>0.1084475018930475</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1255144897152196</v>
+        <v>0.1506047087410442</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03394824666011019</v>
+        <v>0.03429452388731542</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1267438497497442</v>
+        <v>0.1520128531139017</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03394824666011019</v>
+        <v>0.03429452388731542</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1267438497497442</v>
+        <v>0.1520128531139017</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07192488547178835</v>
+        <v>0.07261016487707667</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1261776897866663</v>
+        <v>0.1514637394844568</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1092860721027132</v>
+        <v>0.1052409979227536</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1262484925790513</v>
+        <v>0.1514854380319275</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03502647207174933</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1274807325971264</v>
+        <v>0.1528966487715407</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03502647207174933</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1274807325971264</v>
+        <v>0.1528966487715407</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07144240526831683</v>
+        <v>0.07265911255992691</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1269112810063562</v>
+        <v>0.1523443426209944</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1057167472473512</v>
+        <v>0.1065132156662101</v>
       </c>
       <c r="O238" t="n">
-        <v>0.126982495442883</v>
+        <v>0.1523661673228108</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03395414124004176</v>
+        <v>0.03500709489664594</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1282176154445087</v>
+        <v>0.1537804444291796</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03395414124004176</v>
+        <v>0.03500709489664594</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1282176154445087</v>
+        <v>0.1537804444291796</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07203391330523493</v>
+        <v>0.07060946318110531</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1276448722260461</v>
+        <v>0.1532249457575319</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1058742548764071</v>
+        <v>0.1083280111501526</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1277164983067147</v>
+        <v>0.1532468966136941</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03497837778426398</v>
+        <v>0.03400613993907121</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1289544982918909</v>
+        <v>0.1546642400868186</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03497837778426398</v>
+        <v>0.03400613993907121</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1289544982918909</v>
+        <v>0.1546642400868186</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06900969665958917</v>
+        <v>0.07168642443252521</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1283784634457361</v>
+        <v>0.1541055488940695</v>
       </c>
       <c r="N240" t="n">
-        <v>0.104700550275908</v>
+        <v>0.1110723281262064</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1284505011705463</v>
+        <v>0.1541276259045774</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03483954590538899</v>
+        <v>0.0353079569786037</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1296913811392731</v>
+        <v>0.1555480357444576</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03483954590538899</v>
+        <v>0.0353079569786037</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1296913811392731</v>
+        <v>0.1555480357444576</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06964609823517451</v>
+        <v>0.07037954984783926</v>
       </c>
       <c r="M241" t="n">
-        <v>0.129112054665426</v>
+        <v>0.154986152030607</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1076848235239863</v>
+        <v>0.111503828379397</v>
       </c>
       <c r="O241" t="n">
-        <v>0.129184504034378</v>
+        <v>0.1550083551954607</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.034359118559541</v>
+        <v>0.03434832237920556</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1304282639866554</v>
+        <v>0.1564318314020965</v>
       </c>
       <c r="J242" t="n">
-        <v>0.034359118559541</v>
+        <v>0.03434832237920556</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1304282639866554</v>
+        <v>0.1564318314020965</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07146852546667079</v>
+        <v>0.07228606656544548</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1298456458851159</v>
+        <v>0.1558667551671445</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1094380541947566</v>
+        <v>0.1049312530922536</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1299185068982097</v>
+        <v>0.155889084486344</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03521618475383115</v>
+        <v>0.03556488718821368</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1311651468340376</v>
+        <v>0.1573156270597355</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03521618475383115</v>
+        <v>0.03556488718821368</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1311651468340376</v>
+        <v>0.1573156270597355</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0711707320273238</v>
+        <v>0.07282790773433287</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1305792371048058</v>
+        <v>0.1567473583036821</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1073911378410624</v>
+        <v>0.1047759869466164</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1306525097620414</v>
+        <v>0.1567698137772273</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03423453290368664</v>
+        <v>0.03540341531454159</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1319020296814198</v>
+        <v>0.1581994227173744</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03423453290368664</v>
+        <v>0.03540341531454159</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1319020296814198</v>
+        <v>0.1581994227173744</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07001930521138799</v>
+        <v>0.07074105611292686</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1313128283244958</v>
+        <v>0.1576279614402196</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1069588635323118</v>
+        <v>0.1102731572897707</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1313865126258731</v>
+        <v>0.1576505430681106</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03398664531723196</v>
+        <v>0.03472267718383712</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1326389125288021</v>
+        <v>0.1590832183750134</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03398664531723196</v>
+        <v>0.03472267718383712</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1326389125288021</v>
+        <v>0.1590832183750134</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07055423804766731</v>
+        <v>0.07238018232398136</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1320464195441857</v>
+        <v>0.1585085645767572</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1056516164403369</v>
+        <v>0.1087468429556794</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1321205154897048</v>
+        <v>0.1585312723589939</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03387729023193561</v>
+        <v>0.03410018868700582</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1333757953761843</v>
+        <v>0.1599670140326524</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03387729023193561</v>
+        <v>0.03410018868700582</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1333757953761843</v>
+        <v>0.1599670140326524</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07224118339685556</v>
+        <v>0.07008090143793291</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1327800107638756</v>
+        <v>0.1593891677132947</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1093260534193395</v>
+        <v>0.110705175716699</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1328545183535365</v>
+        <v>0.1594120016498772</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03432160685327496</v>
+        <v>0.03495920391511498</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1341126782235665</v>
+        <v>0.1608508096902913</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03432160685327496</v>
+        <v>0.03495920391511498</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1341126782235665</v>
+        <v>0.1608508096902913</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06967926918180958</v>
+        <v>0.06955436032909187</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1335136019835655</v>
+        <v>0.1602697708498322</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1049918164803975</v>
+        <v>0.1116474586816742</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1335885212173682</v>
+        <v>0.1602927309407605</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03470447276269213</v>
+        <v>0.03544933561669462</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1348495610709488</v>
+        <v>0.1617346053479303</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03470447276269213</v>
+        <v>0.03544933561669462</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1348495610709488</v>
+        <v>0.1617346053479303</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06931259276545351</v>
+        <v>0.06941534785449927</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1342471932032554</v>
+        <v>0.1611503739863698</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1058828554662274</v>
+        <v>0.1090990526734538</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1343225240811999</v>
+        <v>0.1611734602316438</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03517212955118428</v>
+        <v>0.03453196713776362</v>
       </c>
       <c r="G249" t="n">
-        <v>0.135586443918331</v>
+        <v>0.1626184010055693</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03517212955118428</v>
+        <v>0.03453196713776362</v>
       </c>
       <c r="K249" t="n">
-        <v>0.135586443918331</v>
+        <v>0.1626184010055693</v>
       </c>
       <c r="L249" t="n">
-        <v>0.07110968461206796</v>
+        <v>0.0719388791519425</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1349807844229453</v>
+        <v>0.1620309771229073</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1106893752796286</v>
+        <v>0.1091641900433873</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1350565269450316</v>
+        <v>0.1620541895225271</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03473863439360243</v>
+        <v>0.03468167783445639</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1363233267657132</v>
+        <v>0.1635021966632082</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03473863439360243</v>
+        <v>0.03468167783445639</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1363233267657132</v>
+        <v>0.1635021966632082</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07078733388698849</v>
+        <v>0.0699899608601427</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1357143756426353</v>
+        <v>0.1629115802594449</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1057759182100673</v>
+        <v>0.1099508656442066</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1357905298088633</v>
+        <v>0.1629349188134104</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.0338916389023414</v>
+        <v>0.03515914076370512</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1370602096130955</v>
+        <v>0.1643859923208472</v>
       </c>
       <c r="J251" t="n">
-        <v>0.0338916389023414</v>
+        <v>0.03515914076370512</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1370602096130955</v>
+        <v>0.1643859923208472</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07048605900779073</v>
+        <v>0.07351015017884216</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1364479668623252</v>
+        <v>0.1637921833959824</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1085117261170026</v>
+        <v>0.1092952321825674</v>
       </c>
       <c r="O251" t="n">
-        <v>0.136524532672695</v>
+        <v>0.1638156481042937</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03459856119442535</v>
+        <v>0.03445239320766032</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1377970924604777</v>
+        <v>0.1652697879784861</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03459856119442535</v>
+        <v>0.03445239320766032</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1377970924604777</v>
+        <v>0.1652697879784861</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07115006950383621</v>
+        <v>0.07260258506844486</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1371815580820151</v>
+        <v>0.1646727865325199</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1093262059844683</v>
+        <v>0.1061404488407511</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1372585355365267</v>
+        <v>0.164696377395177</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03436544493242157</v>
+        <v>0.03441581796361998</v>
       </c>
       <c r="G253" t="n">
-        <v>0.13853397530786</v>
+        <v>0.1661535836361251</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03436544493242157</v>
+        <v>0.03441581796361998</v>
       </c>
       <c r="K253" t="n">
-        <v>0.13853397530786</v>
+        <v>0.1661535836361251</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07267877189411021</v>
+        <v>0.07090536482290735</v>
       </c>
       <c r="M253" t="n">
-        <v>0.137915149301705</v>
+        <v>0.1655533896690575</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1079960854317304</v>
+        <v>0.1106207151808349</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1379925384003584</v>
+        <v>0.1655771066860603</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0338784419023155</v>
+        <v>0.03503916596341838</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1392708581552422</v>
+        <v>0.1670373792937641</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0338784419023155</v>
+        <v>0.03503916596341838</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1392708581552422</v>
+        <v>0.1670373792937641</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06964500612230096</v>
+        <v>0.07244778961945283</v>
       </c>
       <c r="M254" t="n">
-        <v>0.138648740521395</v>
+        <v>0.166433992805595</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1084448088278923</v>
+        <v>0.1074600829311185</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1387265412641901</v>
+        <v>0.1664578359769436</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.0346463105743033</v>
+        <v>0.03532432953449947</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1400077410026244</v>
+        <v>0.167921174951403</v>
       </c>
       <c r="J255" t="n">
-        <v>0.0346463105743033</v>
+        <v>0.03532432953449947</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1400077410026244</v>
+        <v>0.167921174951403</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07107249072028937</v>
+        <v>0.07241396688770935</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1393823317410849</v>
+        <v>0.1673145959421325</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1106423237478176</v>
+        <v>0.106046842796637</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1394605441280218</v>
+        <v>0.1673385652678269</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03493268777154455</v>
+        <v>0.03530522356791262</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1407446238500066</v>
+        <v>0.168804970609042</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03493268777154455</v>
+        <v>0.03530522356791262</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1407446238500066</v>
+        <v>0.168804970609042</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07266620433529333</v>
+        <v>0.07036977216748205</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1401159229607748</v>
+        <v>0.1681951990786701</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1075787893638716</v>
+        <v>0.1094870270895313</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1401945469918534</v>
+        <v>0.1682192945587102</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.034598082437205</v>
+        <v>0.03471473045096535</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1414815066973889</v>
+        <v>0.169688766266681</v>
       </c>
       <c r="J257" t="n">
-        <v>0.034598082437205</v>
+        <v>0.03471473045096535</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1414815066973889</v>
+        <v>0.169688766266681</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07198345446037999</v>
+        <v>0.07077677605845015</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1408495141804647</v>
+        <v>0.1690758022152077</v>
       </c>
       <c r="N257" t="n">
-        <v>0.10626856758461</v>
+        <v>0.1085529522786096</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1409285498556851</v>
+        <v>0.1691000238495935</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03497948191179688</v>
+        <v>0.03486254331422661</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1422183895447711</v>
+        <v>0.1705725619243199</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03497948191179688</v>
+        <v>0.03486254331422661</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1422183895447711</v>
+        <v>0.1705725619243199</v>
       </c>
       <c r="L258" t="n">
-        <v>0.07126696220706732</v>
+        <v>0.0733036528125883</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1415831054001546</v>
+        <v>0.1699564053517452</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1076303810375511</v>
+        <v>0.1091613322169745</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1416625527195168</v>
+        <v>0.1699807531404768</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03505495866776032</v>
+        <v>0.03389727766791362</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1429552723921534</v>
+        <v>0.1714563575819589</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03505495866776032</v>
+        <v>0.03389727766791362</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1429552723921534</v>
+        <v>0.1714563575819589</v>
       </c>
       <c r="L259" t="n">
-        <v>0.07201483605682882</v>
+        <v>0.06951310815375139</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1423166966198446</v>
+        <v>0.1708370084882827</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1085837641983688</v>
+        <v>0.1051767767735804</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1423965555833485</v>
+        <v>0.1708614824313601</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03404886477860529</v>
+        <v>0.0347451467306258</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1436921552395356</v>
+        <v>0.1723401532395978</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03404886477860529</v>
+        <v>0.0347451467306258</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1436921552395356</v>
+        <v>0.1723401532395978</v>
       </c>
       <c r="L260" t="n">
-        <v>0.0705091540872603</v>
+        <v>0.07166092118727568</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1430502878395345</v>
+        <v>0.1717176116248202</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1073149393030123</v>
+        <v>0.1086751943206251</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1431305584471802</v>
+        <v>0.1717422117222434</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0342108531039451</v>
+        <v>0.03423469334453993</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1444290380869178</v>
+        <v>0.1732239488972368</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0342108531039451</v>
+        <v>0.03423469334453993</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1444290380869178</v>
+        <v>0.1732239488972368</v>
       </c>
       <c r="L261" t="n">
-        <v>0.07203227248996646</v>
+        <v>0.07127578795545672</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1437838790592244</v>
+        <v>0.1725982147613578</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1092618605731389</v>
+        <v>0.1096169627147683</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1438645613110119</v>
+        <v>0.1726229410131267</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03502090883982767</v>
+        <v>0.03509661442575335</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1451659209343001</v>
+        <v>0.1741077445548758</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03502090883982767</v>
+        <v>0.03509661442575335</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1451659209343001</v>
+        <v>0.1741077445548758</v>
       </c>
       <c r="L262" t="n">
-        <v>0.07211205148825714</v>
+        <v>0.07083505271649959</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1445174702789143</v>
+        <v>0.1734788178978953</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1084970001993056</v>
+        <v>0.1100471269465348</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1445985641748436</v>
+        <v>0.17350367030401</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03497021427506536</v>
+        <v>0.03513333140563792</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1459028037816823</v>
+        <v>0.1749915402125147</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03497021427506536</v>
+        <v>0.03513333140563792</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1459028037816823</v>
+        <v>0.1749915402125147</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07215801207040953</v>
+        <v>0.07313458437447257</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1452510614986042</v>
+        <v>0.1743594210344329</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1055943537572049</v>
+        <v>0.1116170622103512</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1453325670386753</v>
+        <v>0.1743843995948933</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03450892475499832</v>
+        <v>0.03531197269266528</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1466396866290645</v>
+        <v>0.1758753358701537</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03450892475499832</v>
+        <v>0.03531197269266528</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1466396866290645</v>
+        <v>0.1758753358701537</v>
       </c>
       <c r="L264" t="n">
-        <v>0.07213621249541147</v>
+        <v>0.07198061753539053</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1459846527182942</v>
+        <v>0.1752400241709704</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1062439176764783</v>
+        <v>0.1066057914457792</v>
       </c>
       <c r="O264" t="n">
-        <v>0.146066569902507</v>
+        <v>0.1752651288857766</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1070.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1070.xlsx
@@ -4882,7 +4882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="S81" sqref="S81"/>
@@ -8805,7 +8805,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.06746816462443581</v>
+        <v>0.1006139320975862</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9252,10 +9252,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9270,29 +9270,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.0001750000000000015</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.0001750000000000015</v>
+        <v>-0.0001900000000000027</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.02016705597072985</v>
+        <v>0.01440503997909276</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0004149568871977379</v>
+        <v>0.0003369574723109454</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.03000636939906537</v>
+        <v>0.02946079904635512</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0004167520048790955</v>
+        <v>0.0004049563998675227</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9312,29 +9312,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.009258127250950973</v>
+        <v>0.009534698318798336</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006172038543331061</v>
+        <v>0.0005561715176697933</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.009258127250950973</v>
+        <v>0.007860674080996111</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0006172038543331061</v>
+        <v>0.0005240410083960336</v>
       </c>
       <c r="L66" s="172" t="n">
         <v>0.03601259994773187</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001111491662136798</v>
+        <v>0.001263590521166044</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001136596376942988</v>
+        <v>0.001124878888520895</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9352,10 +9352,10 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.01816121240506933</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.001112343035339587</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
@@ -9365,16 +9365,16 @@
         <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03593802050203426</v>
+        <v>0.03729712070981211</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001761206273075079</v>
+        <v>0.001762734904824117</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05459591791901919</v>
+        <v>0.0586962381432195</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001761458581766599</v>
+        <v>0.001761340818063865</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9394,29 +9394,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01842255314768332</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00265138697291689</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01842255314768332</v>
+        <v>0.01832079760205088</v>
       </c>
       <c r="K68" s="171" t="n">
         <v>0.00265138697291689</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03953429943720996</v>
+        <v>0.04071100640287284</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.00264180940961262</v>
+        <v>0.002644102357236175</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.06184513242487033</v>
+        <v>0.06022252207957951</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002642187872649898</v>
+        <v>0.002642011227095797</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9441,29 +9441,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01924765019881375</v>
+        <v>0.0308831288469745</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003535182630555853</v>
+        <v>0.002224686070679173</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01924765019881375</v>
+        <v>0.0192625587178812</v>
       </c>
       <c r="K69" s="171" t="n">
         <v>0.003535182630555853</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04119534758980065</v>
+        <v>0.04150132436516299</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003522412546150159</v>
+        <v>0.003525469809648234</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06405360456790171</v>
+        <v>0.05989452817423657</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003522917163533198</v>
+        <v>0.003522681636127729</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9478,62 +9478,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0006172038543331061</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009258127250950973</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02023839075787583</v>
+        <v>0.03644359093644176</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004418978288194817</v>
+        <v>0.002780857588348967</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02023839075787583</v>
+        <v>0.01981469984506247</v>
       </c>
       <c r="K70" s="171" t="n">
         <v>0.004418978288194817</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04357587073582628</v>
+        <v>0.04433087903031174</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004403015682687699</v>
+        <v>0.004406837262060293</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06274570661869355</v>
+        <v>0.06448305338224647</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004403646454416497</v>
+        <v>0.004403352045159662</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.021528218707038</v>
+        <v>0.04149206577244127</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00530277394583378</v>
+        <v>0.00333702910601876</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.021528218707038</v>
+        <v>0.02127341793513944</v>
       </c>
       <c r="K71" s="171" t="n">
         <v>0.00530277394583378</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04323850558602482</v>
+        <v>0.04469434957440008</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.005283618819225239</v>
+        <v>0.005288204714472351</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.06955248129604197</v>
+        <v>0.07026836335798337</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.005284375745299796</v>
+        <v>0.005284022454191593</v>
       </c>
     </row>
     <row r="72">
@@ -9548,29 +9548,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02140597491308449</v>
+        <v>0.04572541325551524</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.006186569603472743</v>
+        <v>0.003893200623688553</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02140597491308449</v>
+        <v>0.02188954761319536</v>
       </c>
       <c r="K72" s="171" t="n">
         <v>0.006186569603472743</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04468576578221109</v>
+        <v>0.04504648608032799</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.006164221955762779</v>
+        <v>0.00616957216688441</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07217276570545106</v>
+        <v>0.066141112691533</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.006165105036183095</v>
+        <v>0.006164692863223526</v>
       </c>
     </row>
     <row r="73">
@@ -9594,29 +9594,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02308341962817724</v>
+        <v>0.04884049328620589</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.007070365261111706</v>
+        <v>0.004449372141358346</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02308341962817724</v>
+        <v>0.02199752385438822</v>
       </c>
       <c r="K73" s="171" t="n">
         <v>0.007070365261111706</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04773357494279185</v>
+        <v>0.04882168003590967</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.007044825092300318</v>
+        <v>0.007050939619296468</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07379609760341288</v>
+        <v>0.07093882111352429</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.007045834327066396</v>
+        <v>0.007045363272255458</v>
       </c>
     </row>
     <row r="74">
@@ -9631,29 +9631,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02282990662407924</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007954160918750669</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02282990662407924</v>
+        <v>0.02380462271331106</v>
       </c>
       <c r="K74" s="171" t="n">
         <v>0.007954160918750669</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04761393642843254</v>
+        <v>0.0484704287462818</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007925428228837858</v>
+        <v>0.007932307071708526</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07576162475774117</v>
+        <v>0.07547970407666377</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007926563617949694</v>
+        <v>0.007926033681287392</v>
       </c>
     </row>
     <row r="75">
@@ -9675,29 +9675,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.0233149672846696</v>
+        <v>0.05124516877195633</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008837956576389633</v>
+        <v>0.005561715176697933</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.0233149672846696</v>
+        <v>0.02315615825547235</v>
       </c>
       <c r="K75" s="171" t="n">
         <v>0.008837956576389633</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04951272854921701</v>
+        <v>0.04815867555716821</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.008806031365375397</v>
+        <v>0.008813674524120586</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07630322210374629</v>
+        <v>0.07420301504660082</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008807292908832995</v>
+        <v>0.008806704090319323</v>
       </c>
     </row>
     <row r="76">
@@ -9717,29 +9717,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02383027438114707</v>
+        <v>0.05193486225656946</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.009721752234028597</v>
+        <v>0.006117886694367726</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02383027438114707</v>
+        <v>0.02472790090319148</v>
       </c>
       <c r="K76" s="171" t="n">
         <v>0.009721752234028597</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04903795311521311</v>
+        <v>0.05173079437027503</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.009686634501912938</v>
+        <v>0.009695041976532643</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07528376672410553</v>
+        <v>0.07605099021499651</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.009688022199716295</v>
+        <v>0.009687374499351255</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9754,28 +9754,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02402825191591319</v>
+        <v>0.05261207473045341</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01060554789166756</v>
+        <v>0.00667405821203752</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02402825191591319</v>
+        <v>0.02499243581533259</v>
       </c>
       <c r="K77" t="n">
         <v>0.01060554789166756</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04975417675148328</v>
+        <v>0.05189649404983276</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01056723763845048</v>
+        <v>0.0105764094289447</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0768399875183256</v>
+        <v>0.07558887191956581</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01056875149059959</v>
+        <v>0.01056804490838319</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9794,28 +9794,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02400099612052553</v>
+        <v>0.05327691334593873</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01148934354930652</v>
+        <v>0.007230229729707312</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02400099612052553</v>
+        <v>0.02433555979393504</v>
       </c>
       <c r="K78" t="n">
         <v>0.01148934354930652</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05433642905914371</v>
+        <v>0.05262789850910027</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01144784077498802</v>
+        <v>0.01145777688135676</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08087339283204331</v>
+        <v>0.08120774707068512</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01144948078148289</v>
+        <v>0.01144871531741512</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9836,28 +9836,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02503343811846488</v>
+        <v>0.05392948525535586</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01237313920694549</v>
+        <v>0.007786401247377107</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02503343811846488</v>
+        <v>0.02474937389834544</v>
       </c>
       <c r="K79" t="n">
         <v>0.01237313920694549</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0530408409578684</v>
+        <v>0.05241634270361195</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01232844391152556</v>
+        <v>0.01233914433376882</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07806783533484718</v>
+        <v>0.07970739503191071</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01233021007236619</v>
+        <v>0.01232938572644705</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9867,28 +9867,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02536796230120664</v>
+        <v>0.05456989761103528</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01325693486458445</v>
+        <v>0.0083425727650469</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02536796230120664</v>
+        <v>0.02511771170691668</v>
       </c>
       <c r="K80" t="n">
         <v>0.01325693486458445</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05120255783661093</v>
+        <v>0.05388496096631526</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0132090470480631</v>
+        <v>0.01322051178618088</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07756347608389524</v>
+        <v>0.07897708576460122</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01321093936324949</v>
+        <v>0.01321005613547898</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9904,28 +9904,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0258643542332304</v>
+        <v>0.0551982575653075</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01414073052222341</v>
+        <v>0.008898744282716692</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0258643542332304</v>
+        <v>0.02649961794025885</v>
       </c>
       <c r="K81" t="n">
         <v>0.01414073052222341</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05178108264086162</v>
+        <v>0.05520237692380214</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01408965018460064</v>
+        <v>0.01410187923859294</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08236087215554128</v>
+        <v>0.08354648974557943</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01409166865413279</v>
+        <v>0.01409072654451092</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9938,28 +9938,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02612902099164545</v>
+        <v>0.05581467227050298</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01502452617986238</v>
+        <v>0.009454915800386486</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02612902099164545</v>
+        <v>0.02651015851694573</v>
       </c>
       <c r="K82" t="n">
         <v>0.01502452617986238</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0530122991496989</v>
+        <v>0.05424835602155675</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01497025332113817</v>
+        <v>0.01498324669100499</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08456134263054033</v>
+        <v>0.08378242836524769</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01497239794501609</v>
+        <v>0.01497139695354285</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9969,28 +9969,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02696921091823741</v>
+        <v>0.05641924887895221</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01590832183750134</v>
+        <v>0.01001108731805628</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02696921091823741</v>
+        <v>0.02583181636519621</v>
       </c>
       <c r="K83" t="n">
         <v>0.01590832183750134</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05346328006015885</v>
+        <v>0.05279915483155473</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01585085645767572</v>
+        <v>0.01586461414341705</v>
       </c>
       <c r="N83" t="n">
-        <v>0.085261096561356</v>
+        <v>0.08237929109346143</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01585312723589939</v>
+        <v>0.01585206736257478</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10005,28 +10005,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02651206338245335</v>
+        <v>0.05701209454298568</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0167921174951403</v>
+        <v>0.01056725883572607</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02651206338245335</v>
+        <v>0.02723906554071985</v>
       </c>
       <c r="K84" t="n">
         <v>0.0167921174951403</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05531146544050805</v>
+        <v>0.05305664933802698</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01673145959421326</v>
+        <v>0.01674598159582911</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07986510471511782</v>
+        <v>0.08061140347000295</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01673385652678269</v>
+        <v>0.01673273777160671</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10045,28 +10045,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02608635768526431</v>
+        <v>0.05759331641493387</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01767591315277927</v>
+        <v>0.01112343035339587</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02608635768526431</v>
+        <v>0.02656855173536343</v>
       </c>
       <c r="K85" t="n">
         <v>0.01767591315277927</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05451787442380479</v>
+        <v>0.05281859688628213</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01761206273075079</v>
+        <v>0.01762734904824117</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08178666787736028</v>
+        <v>0.08326517678043466</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01761458581766599</v>
+        <v>0.01761340818063865</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10087,28 +10087,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02716732509739411</v>
+        <v>0.05816302164712729</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01855970881041823</v>
+        <v>0.01167960187106566</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02716732509739411</v>
+        <v>0.02618776635150472</v>
       </c>
       <c r="K86" t="n">
         <v>0.01855970881041823</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05650681895610257</v>
+        <v>0.05527588347792362</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01849266586728834</v>
+        <v>0.01850871650065323</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08605414091647062</v>
+        <v>0.08372182802643674</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01849531510854929</v>
+        <v>0.01849407858967058</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10118,28 +10118,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02654692206367519</v>
+        <v>0.0587213173918964</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01944350446805719</v>
+        <v>0.01223577338873545</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02654692206367519</v>
+        <v>0.02625722759878928</v>
       </c>
       <c r="K87" t="n">
         <v>0.01944350446805719</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05691129400068809</v>
+        <v>0.05658153099648941</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01937326900382588</v>
+        <v>0.01939008395306529</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08361613269039847</v>
+        <v>0.08727157120207618</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01937604439943259</v>
+        <v>0.01937474899870251</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10153,28 +10153,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.0266202726136873</v>
+        <v>0.0592683108015717</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02032730012569616</v>
+        <v>0.01279194490640525</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0266202726136873</v>
+        <v>0.02631256512267113</v>
       </c>
       <c r="K88" t="n">
         <v>0.02032730012569616</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05701791802895392</v>
+        <v>0.05671987073533363</v>
       </c>
       <c r="M88" t="n">
-        <v>0.02025387214036341</v>
+        <v>0.02027145140547735</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08247828873624241</v>
+        <v>0.0846327252514934</v>
       </c>
       <c r="O88" t="n">
-        <v>0.02025677369031589</v>
+        <v>0.02025541940773444</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10187,4780 +10187,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02783387635237697</v>
+        <v>0.05980410902848367</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02121109578333512</v>
+        <v>0.01334811642407504</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02783387635237697</v>
+        <v>0.02767320301905621</v>
       </c>
       <c r="K89" t="n">
         <v>0.02121109578333512</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05414206112338135</v>
+        <v>0.05558495779485678</v>
       </c>
       <c r="M89" t="n">
-        <v>0.02113447527690096</v>
+        <v>0.0211528188578894</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08527950246325378</v>
+        <v>0.08544995169388753</v>
       </c>
       <c r="O89" t="n">
-        <v>0.02113750298119918</v>
+        <v>0.02113608981676637</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02744307795991698</v>
+        <v>0.06032881922496279</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02209489144097408</v>
+        <v>0.01390428794174483</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02744307795991698</v>
+        <v>0.02710246620063865</v>
       </c>
       <c r="K90" t="n">
         <v>0.02209489144097408</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05614899959507633</v>
+        <v>0.05634803567330599</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0220150784134385</v>
+        <v>0.02203418631030146</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08293133256553709</v>
+        <v>0.08538859760288486</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02201823227208248</v>
+        <v>0.02201676022579831</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02701097365585464</v>
+        <v>0.06084254854333954</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02297868709861305</v>
+        <v>0.01446045945941462</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02701097365585464</v>
+        <v>0.02674716664016827</v>
       </c>
       <c r="K91" t="n">
         <v>0.02297868709861305</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05781937170864296</v>
+        <v>0.05526250208234823</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02289568154997603</v>
+        <v>0.02291555376271352</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08483593529867189</v>
+        <v>0.08558603361078371</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02289896156296578</v>
+        <v>0.02289743063483024</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02796412816471805</v>
+        <v>0.06134540413594443</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02386248275625201</v>
+        <v>0.01501663097708442</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02796412816471805</v>
+        <v>0.02821960131870058</v>
       </c>
       <c r="K92" t="n">
         <v>0.02386248275625201</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05624743876895436</v>
+        <v>0.05610828292298675</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02377628468651357</v>
+        <v>0.02379692121512558</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08454202741771633</v>
+        <v>0.08727160239973603</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02377969085384908</v>
+        <v>0.02377810104386217</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02834689965527472</v>
+        <v>0.06183749315510791</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02474627841389097</v>
+        <v>0.01557280249475421</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02834689965527472</v>
+        <v>0.02774724555320687</v>
       </c>
       <c r="K93" t="n">
         <v>0.02474627841389097</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05576331881584126</v>
+        <v>0.05586026256351204</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02465688782305112</v>
+        <v>0.02467828866753764</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08961636204618523</v>
+        <v>0.08540104716950758</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02466042014473238</v>
+        <v>0.0246587714528941</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02755196293410307</v>
+        <v>0.06231892275316048</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02563007407152994</v>
+        <v>0.01612897401242401</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02755196293410307</v>
+        <v>0.02844413422580153</v>
       </c>
       <c r="K94" t="n">
         <v>0.02563007407152994</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05647638505423419</v>
+        <v>0.05983073731897756</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02553749095958865</v>
+        <v>0.0255596561199497</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0868958162049524</v>
+        <v>0.08966716829021026</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02554114943561568</v>
+        <v>0.02553944186192604</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02791857043890686</v>
+        <v>0.06278980008243265</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0265138697291689</v>
+        <v>0.0166851455300938</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02791857043890686</v>
+        <v>0.02782163078934416</v>
       </c>
       <c r="K95" t="n">
         <v>0.0265138697291689</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05791771984504515</v>
+        <v>0.05896659480772926</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02641809409612619</v>
+        <v>0.02644102357236175</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08802553214086206</v>
+        <v>0.08914860233183924</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02642187872649899</v>
+        <v>0.02642011227095797</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02743447541838163</v>
+        <v>0.06325023229525488</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02739766538680786</v>
+        <v>0.01724131704776359</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02743447541838163</v>
+        <v>0.02820407555179916</v>
       </c>
       <c r="K96" t="n">
         <v>0.02739766538680786</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05885151089119983</v>
+        <v>0.05756501618558707</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02729869723266373</v>
+        <v>0.02732239102477382</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0876661859059476</v>
+        <v>0.09132002501889575</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02730260801738228</v>
+        <v>0.0273007826799899</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02916248769843829</v>
+        <v>0.06370032654395764</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02828146104444683</v>
+        <v>0.01779748856543338</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02916248769843829</v>
+        <v>0.02827268683523772</v>
       </c>
       <c r="K97" t="n">
         <v>0.02828146104444683</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05790274958231242</v>
+        <v>0.05945062908241716</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02817930036920127</v>
+        <v>0.02820375847718587</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08582416868500881</v>
+        <v>0.08983012668808615</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02818333730826558</v>
+        <v>0.02818145308902183</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02802097702153554</v>
+        <v>0.06414018998087144</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02916525670208579</v>
+        <v>0.01835366008310318</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02802097702153554</v>
+        <v>0.02799332258296436</v>
       </c>
       <c r="K98" t="n">
         <v>0.02916525670208579</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06067697588814977</v>
+        <v>0.05851928891524663</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02905990350573881</v>
+        <v>0.02908512592959793</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09082574023908452</v>
+        <v>0.08676068672855358</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02906406659914888</v>
+        <v>0.02906212349805376</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02870642888521324</v>
+        <v>0.06456992975832677</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03004905235972475</v>
+        <v>0.01890983160077297</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02870642888521324</v>
+        <v>0.0282570659059065</v>
       </c>
       <c r="K99" t="n">
         <v>0.03004905235972475</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05968974765929191</v>
+        <v>0.05762384487712938</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02994050664227635</v>
+        <v>0.02996649338200999</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08833498293980263</v>
+        <v>0.08576917647380178</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02994479589003218</v>
+        <v>0.0299427939070857</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02830027471524145</v>
+        <v>0.06498965302865412</v>
       </c>
       <c r="G100" t="n">
-        <v>0.03093284801736372</v>
+        <v>0.01946600311844277</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02830027471524145</v>
+        <v>0.02837199149373498</v>
       </c>
       <c r="K100" t="n">
         <v>0.03093284801736372</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06030654704105037</v>
+        <v>0.05794623858613548</v>
       </c>
       <c r="M100" t="n">
-        <v>0.03082110977881389</v>
+        <v>0.03084786083442205</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09142606578915113</v>
+        <v>0.09212563906403692</v>
       </c>
       <c r="O100" t="n">
-        <v>0.03082552518091548</v>
+        <v>0.03082346431611763</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02896189800023653</v>
+        <v>0.06539946694418394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03181664367500268</v>
+        <v>0.02002217463611256</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02896189800023653</v>
+        <v>0.02906189800023652</v>
       </c>
       <c r="K101" t="n">
         <v>0.03181664367500268</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05913693625245414</v>
+        <v>0.05861227617661005</v>
       </c>
       <c r="M101" t="n">
-        <v>0.03170171291535143</v>
+        <v>0.0317292282868341</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09070850993515955</v>
+        <v>0.09054791911380228</v>
       </c>
       <c r="O101" t="n">
-        <v>0.03170625447179878</v>
+        <v>0.03170413472514957</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.029323826189875</v>
+        <v>0.06579947865724674</v>
       </c>
       <c r="G102" t="n">
-        <v>0.03270043933264164</v>
+        <v>0.02057834615378235</v>
       </c>
       <c r="J102" t="n">
-        <v>0.029323826189875</v>
+        <v>0.02874771934251205</v>
       </c>
       <c r="K102" t="n">
         <v>0.03270043933264164</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06115404257788587</v>
+        <v>0.05988285138823671</v>
       </c>
       <c r="M102" t="n">
-        <v>0.03258231605188897</v>
+        <v>0.03261059573924616</v>
       </c>
       <c r="N102" t="n">
-        <v>0.08736538126997517</v>
+        <v>0.09345257608383367</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03258698376268208</v>
+        <v>0.03258480513418149</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02914241887744631</v>
+        <v>0.06618979532017299</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03358423499028061</v>
+        <v>0.02113451767145215</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02914241887744631</v>
+        <v>0.0291794587185395</v>
       </c>
       <c r="K103" t="n">
         <v>0.03358423499028061</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0612096543278941</v>
+        <v>0.0600326837707052</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03346291918842651</v>
+        <v>0.03349196319165822</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09042040206285556</v>
+        <v>0.09097092735839474</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03346771305356538</v>
+        <v>0.03346547554321343</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02822684323497236</v>
+        <v>0.06657052408529321</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03446803064791957</v>
+        <v>0.02169068918912194</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02822684323497236</v>
+        <v>0.02899922982457372</v>
       </c>
       <c r="K104" t="n">
         <v>0.03446803064791957</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06083081596726184</v>
+        <v>0.05790651380289197</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03434352232496405</v>
+        <v>0.03437333064407028</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09300591338578645</v>
+        <v>0.09328169145756399</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03434844234444868</v>
+        <v>0.03434614595224536</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02887617971997355</v>
+        <v>0.06694177210493786</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03535182630555853</v>
+        <v>0.02224686070679173</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02887617971997355</v>
+        <v>0.02852478521666903</v>
       </c>
       <c r="K105" t="n">
         <v>0.03535182630555853</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05880553679371042</v>
+        <v>0.0581724034245891</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03522412546150159</v>
+        <v>0.03525469809648234</v>
       </c>
       <c r="N105" t="n">
-        <v>0.08854295106371429</v>
+        <v>0.09061821152792804</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03522917163533198</v>
+        <v>0.03522681636127729</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02938760705164657</v>
+        <v>0.06730364653143742</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0362356219631975</v>
+        <v>0.02280303222446153</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02938760705164657</v>
+        <v>0.0289229346006404</v>
       </c>
       <c r="K106" t="n">
         <v>0.0362356219631975</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06155871019367642</v>
+        <v>0.06113052594938084</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03610472859803913</v>
+        <v>0.0361360655488944</v>
       </c>
       <c r="N106" t="n">
-        <v>0.08906315041764568</v>
+        <v>0.09341131862469731</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03610990092621527</v>
+        <v>0.03610748677030923</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02932973114354781</v>
+        <v>0.06765625451712236</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03711941762083646</v>
+        <v>0.02335920374213132</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02932973114354781</v>
+        <v>0.02881229790888483</v>
       </c>
       <c r="K107" t="n">
         <v>0.03711941762083646</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06202466155888164</v>
+        <v>0.06004882153692265</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03698533173457667</v>
+        <v>0.03701743300130646</v>
       </c>
       <c r="N107" t="n">
-        <v>0.08876940528773081</v>
+        <v>0.09378922520699406</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03699063021709857</v>
+        <v>0.03698815717934115</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02920691567170595</v>
+        <v>0.06799970321432322</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03800321327847542</v>
+        <v>0.02391537525980111</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02920691567170595</v>
+        <v>0.03009661325020671</v>
       </c>
       <c r="K108" t="n">
         <v>0.03800321327847542</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05997234533681717</v>
+        <v>0.06033539199988744</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03786593487111421</v>
+        <v>0.03789880045371852</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09309570165959835</v>
+        <v>0.09236397995015727</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03787135950798187</v>
+        <v>0.03786882758837309</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.028853780119717</v>
+        <v>0.06833409977537044</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03888700893611439</v>
+        <v>0.0244715467774709</v>
       </c>
       <c r="J109" t="n">
-        <v>0.028853780119717</v>
+        <v>0.02949325794074488</v>
       </c>
       <c r="K109" t="n">
         <v>0.03888700893611439</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05963522737502677</v>
+        <v>0.0597515684391568</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03874653800765175</v>
+        <v>0.03878016790613057</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09296464305464297</v>
+        <v>0.0931885726227476</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03875208879886518</v>
+        <v>0.03874949799740502</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03031213868593778</v>
+        <v>0.06865955135259451</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03977080459375335</v>
+        <v>0.0250277182951407</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03031213868593778</v>
+        <v>0.02907300159695346</v>
       </c>
       <c r="K110" t="n">
         <v>0.03977080459375335</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06166290558419824</v>
+        <v>0.06093199025941448</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03962714114418929</v>
+        <v>0.03966153535854263</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08881915020727399</v>
+        <v>0.08861591612615627</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03963281808974847</v>
+        <v>0.03963016840643695</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02984669262262306</v>
+        <v>0.06897616509832592</v>
       </c>
       <c r="G111" t="n">
-        <v>0.04065460025139232</v>
+        <v>0.02558388981281049</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02984669262262306</v>
+        <v>0.0289146715946391</v>
       </c>
       <c r="K111" t="n">
         <v>0.04065460025139232</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06010945131404566</v>
+        <v>0.06065634169799769</v>
       </c>
       <c r="M111" t="n">
-        <v>0.04050774428072683</v>
+        <v>0.04054290281095469</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09403389245210736</v>
+        <v>0.08859765270655151</v>
       </c>
       <c r="O111" t="n">
-        <v>0.04051354738063177</v>
+        <v>0.04051083881546889</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02918786311083481</v>
+        <v>0.06928404816489518</v>
       </c>
       <c r="G112" t="n">
-        <v>0.04153839590903128</v>
+        <v>0.02614006133048028</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02918786311083481</v>
+        <v>0.02915962013540162</v>
       </c>
       <c r="K112" t="n">
         <v>0.04153839590903128</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05939982790925658</v>
+        <v>0.05969846165344345</v>
       </c>
       <c r="M112" t="n">
-        <v>0.04138834741726437</v>
+        <v>0.04142427026336675</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09548210606629259</v>
+        <v>0.09088560966799214</v>
       </c>
       <c r="O112" t="n">
-        <v>0.04139427667151507</v>
+        <v>0.04139150922450082</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03012135066787472</v>
+        <v>0.06958330770463274</v>
       </c>
       <c r="G113" t="n">
-        <v>0.04242219156667024</v>
+        <v>0.02669623284815008</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03012135066787472</v>
+        <v>0.03044478624120611</v>
       </c>
       <c r="K113" t="n">
         <v>0.04242219156667024</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06262937149583384</v>
+        <v>0.05918120996492371</v>
       </c>
       <c r="M113" t="n">
-        <v>0.04226895055380191</v>
+        <v>0.0423056377157788</v>
       </c>
       <c r="N113" t="n">
-        <v>0.09480488445614299</v>
+        <v>0.09643948870856978</v>
       </c>
       <c r="O113" t="n">
-        <v>0.04227500596239837</v>
+        <v>0.04227217963353275</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03012850988779764</v>
+        <v>0.0698740508698691</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0433059872243092</v>
+        <v>0.02725240436581987</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03012850988779764</v>
+        <v>0.03055595758171291</v>
       </c>
       <c r="K114" t="n">
         <v>0.0433059872243092</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05984366809292116</v>
+        <v>0.06359480998115211</v>
       </c>
       <c r="M114" t="n">
-        <v>0.04314955369033945</v>
+        <v>0.04318700516819087</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09249029846680951</v>
+        <v>0.09076821359894</v>
       </c>
       <c r="O114" t="n">
-        <v>0.04315573525328167</v>
+        <v>0.04315285004256468</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0301864485817533</v>
+        <v>0.07015638481293474</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04418978288194816</v>
+        <v>0.02780857588348966</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0301864485817533</v>
+        <v>0.02992284969364138</v>
       </c>
       <c r="K115" t="n">
         <v>0.04418978288194816</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06340826414275494</v>
+        <v>0.06099104745022735</v>
       </c>
       <c r="M115" t="n">
-        <v>0.04403015682687699</v>
+        <v>0.04406837262060292</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09150781202157154</v>
+        <v>0.09416465021808779</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04403646454416497</v>
+        <v>0.04403352045159661</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02966729219134351</v>
+        <v>0.07043041668616015</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04507357853958713</v>
+        <v>0.02836474740115946</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02966729219134351</v>
+        <v>0.03008726146460761</v>
       </c>
       <c r="K116" t="n">
         <v>0.04507357853958713</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06324388511859463</v>
+        <v>0.06336604490013345</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04491075996341452</v>
+        <v>0.04494974007301498</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09561880035283127</v>
+        <v>0.09260799331744329</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04491719383504827</v>
+        <v>0.04491419086062855</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02914232771192507</v>
+        <v>0.07069625364187583</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04595737419722609</v>
+        <v>0.02892091891882925</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02914232771192507</v>
+        <v>0.03010288612496878</v>
       </c>
       <c r="K117" t="n">
         <v>0.04595737419722609</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06338922535808147</v>
+        <v>0.06017742181443173</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04579136309995207</v>
+        <v>0.04583110752542705</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09209832234128595</v>
+        <v>0.09556242229966372</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04579792312593157</v>
+        <v>0.04579486126966048</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02910848241263363</v>
+        <v>0.07095400283241224</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04684116985486506</v>
+        <v>0.02947709043649904</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02910848241263363</v>
+        <v>0.02965300513927505</v>
       </c>
       <c r="K118" t="n">
         <v>0.04684116985486506</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06214575285397575</v>
+        <v>0.0636568800901533</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04667196623648961</v>
+        <v>0.0467124749778391</v>
       </c>
       <c r="N118" t="n">
-        <v>0.09156916092238171</v>
+        <v>0.09681554250641239</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04667865241681487</v>
+        <v>0.04667553167869241</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03058944153019674</v>
+        <v>0.07120377141009987</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04772496551250402</v>
+        <v>0.03003326195416884</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03058944153019674</v>
+        <v>0.03007202608632034</v>
       </c>
       <c r="K119" t="n">
         <v>0.04772496551250402</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06339545045770323</v>
+        <v>0.06387985167852889</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04755256937302715</v>
+        <v>0.04759384243025117</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09081006432460204</v>
+        <v>0.09668078107916789</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04755938170769817</v>
+        <v>0.04755620208772435</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03045439695136085</v>
+        <v>0.07144566652726921</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04860876117014298</v>
+        <v>0.03058943347183863</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03045439695136085</v>
+        <v>0.03071982234764838</v>
       </c>
       <c r="K120" t="n">
         <v>0.04860876117014298</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06144780665004448</v>
+        <v>0.06155585572806851</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04843317250956469</v>
+        <v>0.04847520988266322</v>
       </c>
       <c r="N120" t="n">
-        <v>0.09652480623331089</v>
+        <v>0.09718133758021807</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04844011099858147</v>
+        <v>0.04843687249675627</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.0309865490495347</v>
+        <v>0.07167979533625077</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04949255682778195</v>
+        <v>0.03114560498950843</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0309865490495347</v>
+        <v>0.03044045760302896</v>
       </c>
       <c r="K121" t="n">
         <v>0.04949255682778195</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06029288901136232</v>
+        <v>0.06099741771443312</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04931377564610223</v>
+        <v>0.04935657733507528</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09588725811963156</v>
+        <v>0.09713386508176408</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04932084028946476</v>
+        <v>0.04931754290578821</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03017300261661209</v>
+        <v>0.07190626498937497</v>
       </c>
       <c r="G122" t="n">
-        <v>0.05037635248542091</v>
+        <v>0.03170177650717822</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03017300261661209</v>
+        <v>0.02937378843683182</v>
       </c>
       <c r="K122" t="n">
         <v>0.05037635248542091</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06335399025093244</v>
+        <v>0.06406756312140233</v>
       </c>
       <c r="M122" t="n">
-        <v>0.05019437878263976</v>
+        <v>0.05023794478748734</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09270748402882445</v>
+        <v>0.09440652273274652</v>
       </c>
       <c r="O122" t="n">
-        <v>0.05020156958034807</v>
+        <v>0.05019821331482014</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02976161252354574</v>
+        <v>0.07212518263897234</v>
       </c>
       <c r="G123" t="n">
-        <v>0.05126014814305987</v>
+        <v>0.03225794802484801</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02976161252354574</v>
+        <v>0.03037289266738635</v>
       </c>
       <c r="K123" t="n">
         <v>0.05126014814305987</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0618525802772904</v>
+        <v>0.0635222329418923</v>
       </c>
       <c r="M123" t="n">
-        <v>0.05107498191917731</v>
+        <v>0.05111931223989939</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0941296065748774</v>
+        <v>0.09731737679394431</v>
       </c>
       <c r="O123" t="n">
-        <v>0.05108229887123137</v>
+        <v>0.05107888372385207</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03056449386844347</v>
+        <v>0.0723366554373734</v>
       </c>
       <c r="G124" t="n">
-        <v>0.05214394380069883</v>
+        <v>0.0328141195425178</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03056449386844347</v>
+        <v>0.03001125513162732</v>
       </c>
       <c r="K124" t="n">
         <v>0.05214394380069883</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06099349488961686</v>
+        <v>0.06235341873012273</v>
       </c>
       <c r="M124" t="n">
-        <v>0.05195558505571485</v>
+        <v>0.05200067969231145</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09355113205270416</v>
+        <v>0.09686821149819619</v>
       </c>
       <c r="O124" t="n">
-        <v>0.05196302816211466</v>
+        <v>0.05195955413288401</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02960832785094396</v>
+        <v>0.07254079053690855</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0530277394583378</v>
+        <v>0.0333702910601876</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02960832785094396</v>
+        <v>0.03045278795269782</v>
       </c>
       <c r="K125" t="n">
         <v>0.0530277394583378</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06255740845686819</v>
+        <v>0.06340850464161121</v>
       </c>
       <c r="M125" t="n">
-        <v>0.05283618819225239</v>
+        <v>0.05288204714472351</v>
       </c>
       <c r="N125" t="n">
-        <v>0.09702214546455235</v>
+        <v>0.09368124096478903</v>
       </c>
       <c r="O125" t="n">
-        <v>0.05284375745299797</v>
+        <v>0.05284022454191593</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03106990107523659</v>
+        <v>0.07273769508990836</v>
       </c>
       <c r="G126" t="n">
-        <v>0.05391153511597677</v>
+        <v>0.03392646257785739</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03106990107523659</v>
+        <v>0.03073129004572131</v>
       </c>
       <c r="K126" t="n">
         <v>0.05391153511597677</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06345616934345708</v>
+        <v>0.06341525320462404</v>
       </c>
       <c r="M126" t="n">
-        <v>0.05371679132878993</v>
+        <v>0.05376341459713557</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09487380613587298</v>
+        <v>0.09533366297877449</v>
       </c>
       <c r="O126" t="n">
-        <v>0.05372448674388126</v>
+        <v>0.05372089495094787</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0300090931108182</v>
+        <v>0.07292747624870324</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05479533077361572</v>
+        <v>0.03448263409552719</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0300090931108182</v>
+        <v>0.03142918189535876</v>
       </c>
       <c r="K127" t="n">
         <v>0.05479533077361572</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06264060048981618</v>
+        <v>0.06336323031583285</v>
       </c>
       <c r="M127" t="n">
-        <v>0.05459739446532746</v>
+        <v>0.05464478204954763</v>
       </c>
       <c r="N127" t="n">
-        <v>0.09585437898300342</v>
+        <v>0.09314277773632346</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05460521603476456</v>
+        <v>0.05460156535997981</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0299174919299323</v>
+        <v>0.07311024116562373</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05567912643125469</v>
+        <v>0.03503880561319698</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0299174919299323</v>
+        <v>0.03129028167946186</v>
       </c>
       <c r="K128" t="n">
         <v>0.05567912643125469</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06418917453265016</v>
+        <v>0.06221854400974888</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05547799760186501</v>
+        <v>0.05552614950195969</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09592753181472152</v>
+        <v>0.09387944412365384</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05548594532564786</v>
+        <v>0.05548223576901173</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03045610148090115</v>
+        <v>0.07328609699300032</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05656292208889365</v>
+        <v>0.03559497713086677</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03045610148090115</v>
+        <v>0.03046720197025087</v>
       </c>
       <c r="K129" t="n">
         <v>0.05656292208889365</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06262321534480933</v>
+        <v>0.06191825857091598</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05635860073840254</v>
+        <v>0.05640751695437175</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09760099919249721</v>
+        <v>0.09777211103904682</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05636667461653116</v>
+        <v>0.05636290617804367</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.0308984829719576</v>
+        <v>0.07345515088316344</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05744671774653261</v>
+        <v>0.03615114864853657</v>
       </c>
       <c r="J130" t="n">
-        <v>0.0308984829719576</v>
+        <v>0.03114995314848597</v>
       </c>
       <c r="K130" t="n">
         <v>0.05744671774653261</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06312100402796109</v>
+        <v>0.0647228660938993</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05723920387494008</v>
+        <v>0.0572888844067838</v>
       </c>
       <c r="N130" t="n">
-        <v>0.09398995650954522</v>
+        <v>0.09763745162320442</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05724740390741447</v>
+        <v>0.05724357658707559</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03126392289800724</v>
+        <v>0.07361750998844363</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05833051340417158</v>
+        <v>0.03670732016620636</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03126392289800724</v>
+        <v>0.03054348369709853</v>
       </c>
       <c r="K131" t="n">
         <v>0.05833051340417158</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06157876789336214</v>
+        <v>0.06190564729586104</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05811980701147763</v>
+        <v>0.05817025185919586</v>
       </c>
       <c r="N131" t="n">
-        <v>0.09380473039791803</v>
+        <v>0.09586444216637635</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05812813319829777</v>
+        <v>0.05812424699610753</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03020845869472098</v>
+        <v>0.07377328146117133</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05921430906181054</v>
+        <v>0.03726349168387615</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03020845869472098</v>
+        <v>0.03068922108336741</v>
       </c>
       <c r="K132" t="n">
         <v>0.05921430906181054</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06348721034599869</v>
+        <v>0.06536243902503608</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05900041014801517</v>
+        <v>0.05905161931160793</v>
       </c>
       <c r="N132" t="n">
-        <v>0.09535837653507206</v>
+        <v>0.09732353959110301</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05900886248918107</v>
+        <v>0.05900491740513947</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03034035599330646</v>
+        <v>0.07392257245367706</v>
       </c>
       <c r="G133" t="n">
-        <v>0.06009810471944951</v>
+        <v>0.03781966320154594</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03034035599330646</v>
+        <v>0.03094302984973367</v>
       </c>
       <c r="K133" t="n">
         <v>0.06009810471944951</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06516219097035436</v>
+        <v>0.06350487465298363</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0598810132845527</v>
+        <v>0.05993298676401998</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09610894091948224</v>
+        <v>0.09844649279163165</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05988959178006435</v>
+        <v>0.05988558781417139</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03148917021233978</v>
+        <v>0.07406549011829129</v>
       </c>
       <c r="G134" t="n">
-        <v>0.06098190037708846</v>
+        <v>0.03837583471921574</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03148917021233978</v>
+        <v>0.03016939840833155</v>
       </c>
       <c r="K134" t="n">
         <v>0.06098190037708846</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06406707490854097</v>
+        <v>0.06483770197701588</v>
       </c>
       <c r="M134" t="n">
-        <v>0.06076161642109025</v>
+        <v>0.06081435421643204</v>
       </c>
       <c r="N134" t="n">
-        <v>0.09510255989848621</v>
+        <v>0.09571692179121505</v>
       </c>
       <c r="O134" t="n">
-        <v>0.06077032107094765</v>
+        <v>0.06076625822320333</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03111552613809429</v>
+        <v>0.07420214160734452</v>
       </c>
       <c r="G135" t="n">
-        <v>0.06186569603472743</v>
+        <v>0.03893200623688553</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03111552613809429</v>
+        <v>0.03089928465701479</v>
       </c>
       <c r="K135" t="n">
         <v>0.06186569603472743</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06288471773412935</v>
+        <v>0.06339847155287223</v>
       </c>
       <c r="M135" t="n">
-        <v>0.06164221955762778</v>
+        <v>0.06169572166884409</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09727972746461117</v>
+        <v>0.1000350951092454</v>
       </c>
       <c r="O135" t="n">
-        <v>0.06165105036183096</v>
+        <v>0.06164692863223525</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03208442768894466</v>
+        <v>0.07433263407316722</v>
       </c>
       <c r="G136" t="n">
-        <v>0.06274949169236639</v>
+        <v>0.03948817775455532</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03208442768894466</v>
+        <v>0.03085722485913965</v>
       </c>
       <c r="K136" t="n">
         <v>0.06274949169236639</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06255762138613938</v>
+        <v>0.06303684089263015</v>
       </c>
       <c r="M136" t="n">
-        <v>0.06252282269416531</v>
+        <v>0.06257708912125615</v>
       </c>
       <c r="N136" t="n">
-        <v>0.09993100328149596</v>
+        <v>0.09990227458356044</v>
       </c>
       <c r="O136" t="n">
-        <v>0.06253177965271425</v>
+        <v>0.0625275990412672</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03063723470281751</v>
+        <v>0.07445707466808987</v>
       </c>
       <c r="G137" t="n">
-        <v>0.06363328735000535</v>
+        <v>0.04004434927222512</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03063723470281751</v>
+        <v>0.03058843323480255</v>
       </c>
       <c r="K137" t="n">
         <v>0.06363328735000535</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06530667000105755</v>
+        <v>0.06263785749570439</v>
       </c>
       <c r="M137" t="n">
-        <v>0.06340342583070287</v>
+        <v>0.06345845657366821</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1006666371651221</v>
+        <v>0.09695396114695487</v>
       </c>
       <c r="O137" t="n">
-        <v>0.06341250894359755</v>
+        <v>0.06340826945029913</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03138099343671526</v>
+        <v>0.07457557054444297</v>
       </c>
       <c r="G138" t="n">
-        <v>0.06451708300764432</v>
+        <v>0.04060052078989491</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03138099343671526</v>
+        <v>0.03170077234009103</v>
       </c>
       <c r="K138" t="n">
         <v>0.06451708300764432</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0652090170437957</v>
+        <v>0.06291942459625921</v>
       </c>
       <c r="M138" t="n">
-        <v>0.06428402896724041</v>
+        <v>0.06433982402608028</v>
       </c>
       <c r="N138" t="n">
-        <v>0.09940457416122439</v>
+        <v>0.09565873962473243</v>
       </c>
       <c r="O138" t="n">
-        <v>0.06429323823448085</v>
+        <v>0.06428893985933105</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03090469437526121</v>
+        <v>0.074688228854557</v>
       </c>
       <c r="G139" t="n">
-        <v>0.06540087866528328</v>
+        <v>0.0411566923075647</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03090469437526121</v>
+        <v>0.03112913331490823</v>
       </c>
       <c r="K139" t="n">
         <v>0.06540087866528328</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06272586315442547</v>
+        <v>0.06428071341747821</v>
       </c>
       <c r="M139" t="n">
-        <v>0.06516463210377794</v>
+        <v>0.06522119147849233</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09602853140614781</v>
+        <v>0.09622895662072367</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06517396752536415</v>
+        <v>0.06516961026836299</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03114701706122443</v>
+        <v>0.07479515675076247</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06628467432292225</v>
+        <v>0.0417128638252345</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03114701706122443</v>
+        <v>0.03211336498703674</v>
       </c>
       <c r="K140" t="n">
         <v>0.06628467432292225</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06522650361731952</v>
+        <v>0.0664963254934493</v>
       </c>
       <c r="M140" t="n">
-        <v>0.06604523524031548</v>
+        <v>0.06610255893090439</v>
       </c>
       <c r="N140" t="n">
-        <v>0.09694993110887085</v>
+        <v>0.1008690071686216</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06605469681624745</v>
+        <v>0.06605028067739492</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03202172605628663</v>
+        <v>0.0748964613853898</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06716846998056121</v>
+        <v>0.04226903534290429</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03202172605628663</v>
+        <v>0.03083052223611177</v>
       </c>
       <c r="K141" t="n">
         <v>0.06716846998056121</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06429376446480603</v>
+        <v>0.06364091605935465</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06692583837685302</v>
+        <v>0.06698392638331645</v>
       </c>
       <c r="N141" t="n">
-        <v>0.100383203875451</v>
+        <v>0.09435825210634735</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06693542610713075</v>
+        <v>0.06693095108642685</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03113345288089181</v>
+        <v>0.07499224991076951</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06805226563820017</v>
+        <v>0.04282520686057409</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03113345288089181</v>
+        <v>0.03160088640961786</v>
       </c>
       <c r="K142" t="n">
         <v>0.06805226563820017</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06458907469378936</v>
+        <v>0.06531858886111089</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06780644151339056</v>
+        <v>0.06786529383572851</v>
       </c>
       <c r="N142" t="n">
-        <v>0.09734057996218204</v>
+        <v>0.09841450754361247</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06781615539801406</v>
+        <v>0.06781162149545879</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03205538908545918</v>
+        <v>0.07508262947923214</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06893606129583914</v>
+        <v>0.04338137837824388</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03205538908545918</v>
+        <v>0.03130556210466669</v>
       </c>
       <c r="K143" t="n">
         <v>0.06893606129583914</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06600759048846908</v>
+        <v>0.06676810944306991</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0686870446499281</v>
+        <v>0.06874666128814055</v>
       </c>
       <c r="N143" t="n">
-        <v>0.100363119823602</v>
+        <v>0.09604965229640355</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06869688468889736</v>
+        <v>0.06869229190449072</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03152879856805894</v>
+        <v>0.0751677072431081</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0698198569534781</v>
+        <v>0.04393754989591368</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03152879856805894</v>
+        <v>0.03129608816991507</v>
       </c>
       <c r="K144" t="n">
         <v>0.0698198569534781</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06611512314491322</v>
+        <v>0.06357815837610159</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06956764778646564</v>
+        <v>0.06962802874055263</v>
       </c>
       <c r="N144" t="n">
-        <v>0.09897303802244084</v>
+        <v>0.1014547844932097</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06957761397978066</v>
+        <v>0.06957296231352265</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0321512441396294</v>
+        <v>0.07524759035472789</v>
       </c>
       <c r="G145" t="n">
-        <v>0.07070365261111707</v>
+        <v>0.04449372141358347</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0321512441396294</v>
+        <v>0.03202848794488056</v>
       </c>
       <c r="K145" t="n">
         <v>0.07070365261111707</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0649907494485511</v>
+        <v>0.06717574947703533</v>
       </c>
       <c r="M145" t="n">
-        <v>0.07044825092300318</v>
+        <v>0.07050939619296469</v>
       </c>
       <c r="N145" t="n">
-        <v>0.09952323624274767</v>
+        <v>0.09837620481329878</v>
       </c>
       <c r="O145" t="n">
-        <v>0.07045834327066396</v>
+        <v>0.07045363272255459</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03115323980849241</v>
+        <v>0.075322385966422</v>
       </c>
       <c r="G146" t="n">
-        <v>0.07158744826875603</v>
+        <v>0.04504989293125326</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03115323980849241</v>
+        <v>0.03202955393297609</v>
       </c>
       <c r="K146" t="n">
         <v>0.07158744826875603</v>
       </c>
       <c r="L146" t="n">
-        <v>0.0634029330602553</v>
+        <v>0.06386869506599846</v>
       </c>
       <c r="M146" t="n">
-        <v>0.07132885405954073</v>
+        <v>0.07139076364537673</v>
       </c>
       <c r="N146" t="n">
-        <v>0.09994326073572751</v>
+        <v>0.1012239289685813</v>
       </c>
       <c r="O146" t="n">
-        <v>0.07133907256154726</v>
+        <v>0.07133430313158652</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03189846543187945</v>
+        <v>0.07539220123052096</v>
       </c>
       <c r="G147" t="n">
-        <v>0.07247124392639499</v>
+        <v>0.04560606444892305</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03189846543187945</v>
+        <v>0.03144279235265909</v>
       </c>
       <c r="K147" t="n">
         <v>0.07247124392639499</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06356689193802847</v>
+        <v>0.06770592031773665</v>
       </c>
       <c r="M147" t="n">
-        <v>0.07220945719607826</v>
+        <v>0.07227213109778879</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0968480098205689</v>
+        <v>0.09612937766285995</v>
       </c>
       <c r="O147" t="n">
-        <v>0.07221980185243054</v>
+        <v>0.07221497354061845</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03157324117548664</v>
+        <v>0.07545714329935518</v>
       </c>
       <c r="G148" t="n">
-        <v>0.07335503958403396</v>
+        <v>0.04616223596659284</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03157324117548664</v>
+        <v>0.03259185732510093</v>
       </c>
       <c r="K148" t="n">
         <v>0.07335503958403396</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06425868716371264</v>
+        <v>0.06722543851187407</v>
       </c>
       <c r="M148" t="n">
-        <v>0.07309006033261579</v>
+        <v>0.07315349855020085</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1012540903083404</v>
+        <v>0.1010505146162006</v>
       </c>
       <c r="O148" t="n">
-        <v>0.07310053114331384</v>
+        <v>0.07309564394965037</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03171483095932887</v>
+        <v>0.07551731932525522</v>
       </c>
       <c r="G149" t="n">
-        <v>0.07423883524167292</v>
+        <v>0.04671840748426264</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03171483095932887</v>
+        <v>0.03161784138587959</v>
       </c>
       <c r="K149" t="n">
         <v>0.07423883524167292</v>
       </c>
       <c r="L149" t="n">
-        <v>0.0676066813231907</v>
+        <v>0.06768899486994548</v>
       </c>
       <c r="M149" t="n">
-        <v>0.07397066346915335</v>
+        <v>0.07403486600261291</v>
       </c>
       <c r="N149" t="n">
-        <v>0.09842782322567467</v>
+        <v>0.09730330648676139</v>
       </c>
       <c r="O149" t="n">
-        <v>0.07398126043419714</v>
+        <v>0.07397631435868231</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03126321732356881</v>
+        <v>0.0755728364605515</v>
       </c>
       <c r="G150" t="n">
-        <v>0.07512263089931188</v>
+        <v>0.04727457900193243</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03126321732356881</v>
+        <v>0.03137143114203038</v>
       </c>
       <c r="K150" t="n">
         <v>0.07512263089931188</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06794506248950677</v>
+        <v>0.06661895749438124</v>
       </c>
       <c r="M150" t="n">
-        <v>0.07485126660569089</v>
+        <v>0.07491623345502497</v>
       </c>
       <c r="N150" t="n">
-        <v>0.09993300938183342</v>
+        <v>0.09812657605002267</v>
       </c>
       <c r="O150" t="n">
-        <v>0.07486198972508044</v>
+        <v>0.07485698476771425</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03194205594326559</v>
+        <v>0.0756238018575745</v>
       </c>
       <c r="G151" t="n">
-        <v>0.07600642655695085</v>
+        <v>0.04783075051960223</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03194205594326559</v>
+        <v>0.03192152528844273</v>
       </c>
       <c r="K151" t="n">
         <v>0.07600642655695085</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06671390351948794</v>
+        <v>0.06772748206049611</v>
       </c>
       <c r="M151" t="n">
-        <v>0.07573186974222841</v>
+        <v>0.07579760090743703</v>
       </c>
       <c r="N151" t="n">
-        <v>0.09871661443091484</v>
+        <v>0.1024606103547095</v>
       </c>
       <c r="O151" t="n">
-        <v>0.07574271901596374</v>
+        <v>0.07573765517674617</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03118181676451098</v>
+        <v>0.0756703226686548</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0768902222145898</v>
+        <v>0.04838692203727202</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03118181676451098</v>
+        <v>0.03285547549655958</v>
       </c>
       <c r="K152" t="n">
         <v>0.0768902222145898</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06724165172412583</v>
+        <v>0.06708362734134884</v>
       </c>
       <c r="M152" t="n">
-        <v>0.07661247287876596</v>
+        <v>0.0766789683598491</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1018041960292259</v>
+        <v>0.101126896697089</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07662344830684704</v>
+        <v>0.07661832558577811</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03192206386686336</v>
+        <v>0.07571250604612279</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07777401787222878</v>
+        <v>0.04894309355494181</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03192206386686336</v>
+        <v>0.03169281343592185</v>
       </c>
       <c r="K153" t="n">
         <v>0.07777401787222878</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06620838671293106</v>
+        <v>0.06521214830695216</v>
       </c>
       <c r="M153" t="n">
-        <v>0.0774930760153035</v>
+        <v>0.07756033581226114</v>
       </c>
       <c r="N153" t="n">
-        <v>0.09736459738152825</v>
+        <v>0.1036294117829882</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07750417759773036</v>
+        <v>0.07749899599481004</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03133653818111927</v>
+        <v>0.07575045914230902</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07865781352986773</v>
+        <v>0.0494992650726116</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03133653818111927</v>
+        <v>0.03148595995784076</v>
       </c>
       <c r="K154" t="n">
         <v>0.07865781352986773</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06864433507564599</v>
+        <v>0.06440963764394897</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07837367915184104</v>
+        <v>0.0784417032646732</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1022751722397465</v>
+        <v>0.09801130702718147</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07838490688861365</v>
+        <v>0.07837966640384197</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03277939771560169</v>
+        <v>0.07578428910954389</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0795416091875067</v>
+        <v>0.05005543659028139</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03277939771560169</v>
+        <v>0.03209526146394628</v>
       </c>
       <c r="K155" t="n">
         <v>0.0795416091875067</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06698106048548952</v>
+        <v>0.06833290035451378</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07925428228837858</v>
+        <v>0.07932307071708526</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1028291778457487</v>
+        <v>0.1022764300419247</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07926563617949695</v>
+        <v>0.07926033681287391</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03254683123167658</v>
+        <v>0.07581410310015796</v>
       </c>
       <c r="G156" t="n">
-        <v>0.08042540484514565</v>
+        <v>0.05061160810795119</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03254683123167658</v>
+        <v>0.03213544365319715</v>
       </c>
       <c r="K156" t="n">
         <v>0.08042540484514565</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06620108230985394</v>
+        <v>0.06520544834961253</v>
       </c>
       <c r="M156" t="n">
-        <v>0.08013488542491612</v>
+        <v>0.08020443816949734</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1037306009714393</v>
+        <v>0.1039076102374278</v>
       </c>
       <c r="O156" t="n">
-        <v>0.08014636547038025</v>
+        <v>0.08014100722190584</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03261671764736629</v>
+        <v>0.07584000826648171</v>
       </c>
       <c r="G157" t="n">
-        <v>0.08130920050278463</v>
+        <v>0.05116777962562098</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03261671764736629</v>
+        <v>0.03258656945844585</v>
       </c>
       <c r="K157" t="n">
         <v>0.08130920050278463</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06825145582253378</v>
+        <v>0.06694622084961693</v>
       </c>
       <c r="M157" t="n">
-        <v>0.08101548856145366</v>
+        <v>0.08108580562190938</v>
       </c>
       <c r="N157" t="n">
-        <v>0.09802438146121689</v>
+        <v>0.1041745730357866</v>
       </c>
       <c r="O157" t="n">
-        <v>0.08102709476126355</v>
+        <v>0.08102167763093777</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0325484977265242</v>
+        <v>0.07586211176084559</v>
       </c>
       <c r="G158" t="n">
-        <v>0.08219299616042358</v>
+        <v>0.05172395114329078</v>
       </c>
       <c r="J158" t="n">
-        <v>0.0325484977265242</v>
+        <v>0.03229246384794128</v>
       </c>
       <c r="K158" t="n">
         <v>0.08219299616042358</v>
       </c>
       <c r="L158" t="n">
-        <v>0.0666773454442364</v>
+        <v>0.06709298017358326</v>
       </c>
       <c r="M158" t="n">
-        <v>0.08189609169799121</v>
+        <v>0.08196717307432144</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0990770408939225</v>
+        <v>0.104117142357174</v>
       </c>
       <c r="O158" t="n">
-        <v>0.08190782405214685</v>
+        <v>0.08190234803996969</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0327685697887399</v>
+        <v>0.07588052073558013</v>
       </c>
       <c r="G159" t="n">
-        <v>0.08307679181806256</v>
+        <v>0.05228012266096057</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0327685697887399</v>
+        <v>0.03192476094452065</v>
       </c>
       <c r="K159" t="n">
         <v>0.08307679181806256</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06777856396159795</v>
+        <v>0.06497360548001335</v>
       </c>
       <c r="M159" t="n">
-        <v>0.08277669483452874</v>
+        <v>0.0828485405267335</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1005397544393528</v>
+        <v>0.1046835498881142</v>
       </c>
       <c r="O159" t="n">
-        <v>0.08278855334303015</v>
+        <v>0.08278301844900164</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03268955599339635</v>
+        <v>0.07589534234301576</v>
       </c>
       <c r="G160" t="n">
-        <v>0.08396058747570151</v>
+        <v>0.05283629417863037</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03268955599339635</v>
+        <v>0.03286169963735827</v>
       </c>
       <c r="K160" t="n">
         <v>0.08396058747570151</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06680027927527463</v>
+        <v>0.06874754679960998</v>
       </c>
       <c r="M160" t="n">
-        <v>0.08365729797106627</v>
+        <v>0.08372990797914555</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1041919140712287</v>
+        <v>0.1011755728801794</v>
       </c>
       <c r="O160" t="n">
-        <v>0.08366928263391345</v>
+        <v>0.08366368885803357</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03187247660337825</v>
+        <v>0.075906683735483</v>
       </c>
       <c r="G161" t="n">
-        <v>0.08484438313334049</v>
+        <v>0.05339246569630016</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03187247660337825</v>
+        <v>0.03270965957357992</v>
       </c>
       <c r="K161" t="n">
         <v>0.08484438313334049</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06529299695740909</v>
+        <v>0.06828155624991378</v>
       </c>
       <c r="M161" t="n">
-        <v>0.08453790110760383</v>
+        <v>0.08461127543155761</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1010297758467132</v>
+        <v>0.09876545785931196</v>
       </c>
       <c r="O161" t="n">
-        <v>0.08455001192479673</v>
+        <v>0.08454435926706549</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03221357696293548</v>
+        <v>0.07591465206531234</v>
       </c>
       <c r="G162" t="n">
-        <v>0.08572817879097944</v>
+        <v>0.05394863721396995</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03221357696293548</v>
+        <v>0.03296708198691087</v>
       </c>
       <c r="K162" t="n">
         <v>0.08572817879097944</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06755317512065012</v>
+        <v>0.06656440494924759</v>
       </c>
       <c r="M162" t="n">
-        <v>0.08541850424414137</v>
+        <v>0.08549264288396968</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1010732441726541</v>
+        <v>0.1053216788626528</v>
       </c>
       <c r="O162" t="n">
-        <v>0.08543074121568003</v>
+        <v>0.08542502967609743</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03205774087450775</v>
+        <v>0.07591935448483428</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0866119744486184</v>
+        <v>0.05450480873163974</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03205774087450775</v>
+        <v>0.03204117013209658</v>
       </c>
       <c r="K163" t="n">
         <v>0.0866119744486184</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06524432887614173</v>
+        <v>0.06919774236620616</v>
       </c>
       <c r="M163" t="n">
-        <v>0.08629910738067889</v>
+        <v>0.08637401033638174</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1025589938268731</v>
+        <v>0.1005083209814341</v>
       </c>
       <c r="O163" t="n">
-        <v>0.08631147050656333</v>
+        <v>0.08630570008512936</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03226502635492023</v>
+        <v>0.07592089814637923</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08749577010625736</v>
+        <v>0.05506098024930954</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03226502635492023</v>
+        <v>0.03358319839220582</v>
       </c>
       <c r="K164" t="n">
         <v>0.08749577010625736</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06984188267887034</v>
+        <v>0.06593822170944533</v>
       </c>
       <c r="M164" t="n">
-        <v>0.08717971051721643</v>
+        <v>0.08725537778879379</v>
       </c>
       <c r="N164" t="n">
-        <v>0.09931512711331286</v>
+        <v>0.1018449739593617</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08719219979744663</v>
+        <v>0.08718637049416129</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03339203939034961</v>
+        <v>0.07542089814637924</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08837956576389633</v>
+        <v>0.05506098024930954</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03339203939034961</v>
+        <v>0.03335010669964132</v>
       </c>
       <c r="K165" t="n">
         <v>0.08837956576389633</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06692287836414093</v>
+        <v>0.06600400909359552</v>
       </c>
       <c r="M165" t="n">
-        <v>0.08806031365375398</v>
+        <v>0.08813674524120585</v>
       </c>
       <c r="N165" t="n">
-        <v>0.100631676382034</v>
+        <v>0.1021210574656202</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08807292908832993</v>
+        <v>0.08806704090319323</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03290228173102408</v>
+        <v>0.07479456727029606</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08926336142153529</v>
+        <v>0.05509263684759427</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03290228173102408</v>
+        <v>0.03227897212266582</v>
       </c>
       <c r="K166" t="n">
         <v>0.08926336142153529</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06740674945750808</v>
+        <v>0.06979179304513894</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08894091679029152</v>
+        <v>0.08901811269361791</v>
       </c>
       <c r="N166" t="n">
-        <v>0.103411801090505</v>
+        <v>0.1003587201570581</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08895365837921325</v>
+        <v>0.08894771131222516</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03260845246429417</v>
+        <v>0.07416650187732679</v>
       </c>
       <c r="G167" t="n">
-        <v>0.09014715707917426</v>
+        <v>0.05512343233106331</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03260845246429417</v>
+        <v>0.03371369350592576</v>
       </c>
       <c r="K167" t="n">
         <v>0.09014715707917426</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06870234364787922</v>
+        <v>0.06764877651606765</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08982151992682905</v>
+        <v>0.08989948014602997</v>
       </c>
       <c r="N167" t="n">
-        <v>0.0993563337732174</v>
+        <v>0.1026780318455858</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08983438767009655</v>
+        <v>0.08982838172125709</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03269710598292334</v>
+        <v>0.07353670196747153</v>
       </c>
       <c r="G168" t="n">
-        <v>0.09103095273681322</v>
+        <v>0.05515336669971672</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03269710598292334</v>
+        <v>0.03273091290757668</v>
       </c>
       <c r="K168" t="n">
         <v>0.09103095273681322</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06827651711109362</v>
+        <v>0.06619314914010335</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0907021230633666</v>
+        <v>0.09078084759844203</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1024274150054451</v>
+        <v>0.101898210708205</v>
       </c>
       <c r="O168" t="n">
-        <v>0.09071511696097985</v>
+        <v>0.09070905213028903</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03369084969018758</v>
+        <v>0.0729051675407302</v>
       </c>
       <c r="G169" t="n">
-        <v>0.09191474839445218</v>
+        <v>0.05518243995355444</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03369084969018758</v>
+        <v>0.03360747820350578</v>
       </c>
       <c r="K169" t="n">
         <v>0.09191474839445218</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06756054803021305</v>
+        <v>0.06987311661361209</v>
       </c>
       <c r="M169" t="n">
-        <v>0.09158272619990414</v>
+        <v>0.09166221505085409</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1057505827814346</v>
+        <v>0.100861279008931</v>
       </c>
       <c r="O169" t="n">
-        <v>0.09159584625186314</v>
+        <v>0.09158972253932096</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03221388331923764</v>
+        <v>0.07227189859710287</v>
       </c>
       <c r="G170" t="n">
-        <v>0.09279854405209115</v>
+        <v>0.05521065209257651</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03221388331923764</v>
+        <v>0.03395303059358265</v>
       </c>
       <c r="K170" t="n">
         <v>0.09279854405209115</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0663600809389836</v>
+        <v>0.06761385229351735</v>
       </c>
       <c r="M170" t="n">
-        <v>0.09246332933644168</v>
+        <v>0.09254358250326615</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1026430960124864</v>
+        <v>0.09980343904319466</v>
       </c>
       <c r="O170" t="n">
-        <v>0.09247657554274644</v>
+        <v>0.09247039294835289</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03263241591860523</v>
+        <v>0.07163689513658951</v>
       </c>
       <c r="G171" t="n">
-        <v>0.09368233970973011</v>
+        <v>0.05523800311678293</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03263241591860523</v>
+        <v>0.03255738549735886</v>
       </c>
       <c r="K171" t="n">
         <v>0.09368233970973011</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06910912819714224</v>
+        <v>0.06781916115054812</v>
       </c>
       <c r="M171" t="n">
-        <v>0.09334393247297922</v>
+        <v>0.0934249499556782</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1057531714437731</v>
+        <v>0.1017603060925355</v>
       </c>
       <c r="O171" t="n">
-        <v>0.09335730483362974</v>
+        <v>0.09335106335738481</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03306696529858889</v>
+        <v>0.0710001571591901</v>
       </c>
       <c r="G172" t="n">
-        <v>0.09456613536736906</v>
+        <v>0.05526449302617367</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03306696529858889</v>
+        <v>0.0334748744271357</v>
       </c>
       <c r="K172" t="n">
         <v>0.09456613536736906</v>
       </c>
       <c r="L172" t="n">
-        <v>0.0671023110017703</v>
+        <v>0.06755123437947891</v>
       </c>
       <c r="M172" t="n">
-        <v>0.09422453560951675</v>
+        <v>0.09430631740809026</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1058941561285373</v>
+        <v>0.1040897322585438</v>
       </c>
       <c r="O172" t="n">
-        <v>0.09423803412451304</v>
+        <v>0.09423173376641675</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03273430476741002</v>
+        <v>0.07036168466490468</v>
       </c>
       <c r="G173" t="n">
-        <v>0.09544993102500804</v>
+        <v>0.05529012182074875</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03273430476741002</v>
+        <v>0.03293430476741002</v>
       </c>
       <c r="K173" t="n">
         <v>0.09544993102500804</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06916918810551653</v>
+        <v>0.06880312611956013</v>
       </c>
       <c r="M173" t="n">
-        <v>0.09510513874605429</v>
+        <v>0.09518768486050233</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1014145054047077</v>
+        <v>0.1019110267232513</v>
       </c>
       <c r="O173" t="n">
-        <v>0.09511876341539634</v>
+        <v>0.09511240417544869</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.0339841594894086</v>
+        <v>0.06972147765373318</v>
       </c>
       <c r="G174" t="n">
-        <v>0.09633372668264699</v>
+        <v>0.05531488950050818</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0339841594894086</v>
+        <v>0.03295890601568487</v>
       </c>
       <c r="K174" t="n">
         <v>0.09633372668264699</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06881623807608525</v>
+        <v>0.06755318904273927</v>
       </c>
       <c r="M174" t="n">
-        <v>0.09598574188259183</v>
+        <v>0.09606905231291438</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1061651322417487</v>
+        <v>0.1024214294285982</v>
       </c>
       <c r="O174" t="n">
-        <v>0.09599949270627964</v>
+        <v>0.09599307458448063</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03379987098113214</v>
+        <v>0.0690795361256757</v>
       </c>
       <c r="G175" t="n">
-        <v>0.09721752234028597</v>
+        <v>0.05533879606545194</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03379987098113214</v>
+        <v>0.03287413856553262</v>
       </c>
       <c r="K175" t="n">
         <v>0.09721752234028597</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06666607008222611</v>
+        <v>0.07025242599514522</v>
       </c>
       <c r="M175" t="n">
-        <v>0.09686634501912937</v>
+        <v>0.09695041976532644</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1043441256740265</v>
+        <v>0.1068457532057454</v>
       </c>
       <c r="O175" t="n">
-        <v>0.09688022199716294</v>
+        <v>0.09687374499351255</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03362225073997394</v>
+        <v>0.06843586008073217</v>
       </c>
       <c r="G176" t="n">
-        <v>0.09810131799792492</v>
+        <v>0.05536184151558005</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03362225073997394</v>
+        <v>0.03306321154624232</v>
       </c>
       <c r="K176" t="n">
         <v>0.09810131799792492</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07061176567688546</v>
+        <v>0.06813798700823182</v>
       </c>
       <c r="M176" t="n">
-        <v>0.09774694815566691</v>
+        <v>0.0978317872177385</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1070801756517655</v>
+        <v>0.1053529119376697</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09776095128804622</v>
+        <v>0.09775441540254448</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03397805816219468</v>
+        <v>0.0677904495189026</v>
       </c>
       <c r="G177" t="n">
-        <v>0.09898511365556389</v>
+        <v>0.05538402585089247</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03397805816219468</v>
+        <v>0.03368606100793231</v>
       </c>
       <c r="K177" t="n">
         <v>0.09898511365556389</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06714493294343543</v>
+        <v>0.07061895234858195</v>
       </c>
       <c r="M177" t="n">
-        <v>0.09862755129220446</v>
+        <v>0.09871315467015056</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1016132579975522</v>
+        <v>0.1027486270911988</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09864168057892952</v>
+        <v>0.09863508581157641</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03384066805317479</v>
+        <v>0.06714330444018703</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09986890931320284</v>
+        <v>0.05540534907138926</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03384066805317479</v>
+        <v>0.03393188227636788</v>
       </c>
       <c r="K178" t="n">
         <v>0.09986890931320284</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06904286159288017</v>
+        <v>0.06765289957867648</v>
       </c>
       <c r="M178" t="n">
-        <v>0.09950815442874199</v>
+        <v>0.0995945221225626</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1077283084736738</v>
+        <v>0.1029626539708465</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09952240986981283</v>
+        <v>0.09951575622060835</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0330074487162689</v>
+        <v>0.06649442484458537</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1007527049708418</v>
+        <v>0.05542581117707037</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0330074487162689</v>
+        <v>0.03372598324969608</v>
       </c>
       <c r="K179" t="n">
         <v>0.1007527049708418</v>
       </c>
       <c r="L179" t="n">
-        <v>0.0709661324214286</v>
+        <v>0.07019770503267631</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1003887575652795</v>
+        <v>0.1004758895749747</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1028831875091842</v>
+        <v>0.1017451964822476</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1004031391606961</v>
+        <v>0.1003964266296403</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0333268402313493</v>
+        <v>0.06584381073209773</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1016365006284808</v>
+        <v>0.05544541216793584</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0333268402313493</v>
+        <v>0.03328565297199609</v>
       </c>
       <c r="K180" t="n">
         <v>0.1016365006284808</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06937178128048097</v>
+        <v>0.06726340040823364</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1012693607018171</v>
+        <v>0.1013572570273867</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1022908858611479</v>
+        <v>0.1051404805914913</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1012838684515794</v>
+        <v>0.1012770970386722</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03378725126915001</v>
+        <v>0.06519146210272403</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1025202962861197</v>
+        <v>0.05546415204398562</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03378725126915001</v>
+        <v>0.03355311619782463</v>
       </c>
       <c r="K181" t="n">
         <v>0.1025202962861197</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06769340626589906</v>
+        <v>0.06708407919030362</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1021499638383546</v>
+        <v>0.1022386244797988</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1072815010282454</v>
+        <v>0.1064045608753262</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1021645977424627</v>
+        <v>0.1021577674477041</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03290082954999944</v>
+        <v>0.06453737895646432</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1034040919437587</v>
+        <v>0.05548203080521976</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03290082954999944</v>
+        <v>0.03344342195467971</v>
       </c>
       <c r="K182" t="n">
         <v>0.1034040919437587</v>
       </c>
       <c r="L182" t="n">
-        <v>0.0667480766274528</v>
+        <v>0.06773580475414248</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1030305669748921</v>
+        <v>0.1031199919322108</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1050172208246045</v>
+        <v>0.1058541946714939</v>
       </c>
       <c r="O182" t="n">
-        <v>0.103045327033346</v>
+        <v>0.1030384378567361</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03312360338406568</v>
+        <v>0.06388156129331854</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1042878876013977</v>
+        <v>0.05549904845163822</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03312360338406568</v>
+        <v>0.03363407754156372</v>
       </c>
       <c r="K183" t="n">
         <v>0.1042878876013977</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06779474766702509</v>
+        <v>0.06724892214377981</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1039111701114297</v>
+        <v>0.1040013593846229</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1063004468927703</v>
+        <v>0.1022474377014966</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1039260563242293</v>
+        <v>0.103919108265768</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03291164801620634</v>
+        <v>0.06322400911328677</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1051716832590366</v>
+        <v>0.05551520498324104</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03291164801620634</v>
+        <v>0.03319673633899228</v>
       </c>
       <c r="K184" t="n">
         <v>0.1051716832590366</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06769540366353638</v>
+        <v>0.06904732550405843</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1047917732479672</v>
+        <v>0.104882726837035</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1084873549840447</v>
+        <v>0.1033462845539989</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1048067856151126</v>
+        <v>0.1047997786747999</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03422156954971414</v>
+        <v>0.06256472241636896</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1060554789166756</v>
+        <v>0.05553050040002818</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03422156954971414</v>
+        <v>0.03371910418499476</v>
       </c>
       <c r="K185" t="n">
         <v>0.1060554789166756</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06911849784650767</v>
+        <v>0.06915099284113008</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1056723763845048</v>
+        <v>0.105764094289447</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1061924325845916</v>
+        <v>0.1030519936506341</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1056875149059959</v>
+        <v>0.1056804490838319</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0337142784514277</v>
+        <v>0.0619037012025651</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1069392745743146</v>
+        <v>0.05554493470199967</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0337142784514277</v>
+        <v>0.03352160194924052</v>
       </c>
       <c r="K186" t="n">
         <v>0.1069392745743146</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06831902181758884</v>
+        <v>0.06856150209140863</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1065529795210423</v>
+        <v>0.1066454617418591</v>
       </c>
       <c r="N186" t="n">
-        <v>0.102540067887287</v>
+        <v>0.1047446220691967</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1065682441968792</v>
+        <v>0.1065611194928638</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03270323369619868</v>
+        <v>0.06124094547187522</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1078230702319535</v>
+        <v>0.0555585078891555</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03270323369619868</v>
+        <v>0.03350770723833246</v>
       </c>
       <c r="K187" t="n">
         <v>0.1078230702319535</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07100218599550767</v>
+        <v>0.06924105232851091</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1074335826575799</v>
+        <v>0.1075268291942711</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1060825907358236</v>
+        <v>0.1021915971078439</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1074489734877625</v>
+        <v>0.1074417899018957</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0341788478232226</v>
+        <v>0.0605764552242993</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1087068658895925</v>
+        <v>0.05557121996149565</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0341788478232226</v>
+        <v>0.03385854272906516</v>
       </c>
       <c r="K188" t="n">
         <v>0.1087068658895925</v>
       </c>
       <c r="L188" t="n">
-        <v>0.0702567913048954</v>
+        <v>0.06850215007263208</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1083141857941174</v>
+        <v>0.1084081966466832</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1051770706247881</v>
+        <v>0.1038146101445976</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1083297027786458</v>
+        <v>0.1083224603109277</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03454537888789153</v>
+        <v>0.05991023045983734</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1095906615472314</v>
+        <v>0.05558307091902016</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03454537888789153</v>
+        <v>0.03280316871545105</v>
       </c>
       <c r="K189" t="n">
         <v>0.1095906615472314</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07120985159975157</v>
+        <v>0.06778226256062603</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1091947889306549</v>
+        <v>0.1092895640990953</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1060568178443216</v>
+        <v>0.1042140633906362</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1092104320695291</v>
+        <v>0.1092031307199596</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03348806923528123</v>
+        <v>0.05924227117848935</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1104744572048704</v>
+        <v>0.05559406076172899</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03348806923528123</v>
+        <v>0.03390743217993587</v>
       </c>
       <c r="K190" t="n">
         <v>0.1104744572048704</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06938304553393385</v>
+        <v>0.06980124313703015</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1100753920671925</v>
+        <v>0.1101709315515073</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1028039944457892</v>
+        <v>0.1046496788314719</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1100911613604124</v>
+        <v>0.1100838011289915</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03363591925691485</v>
+        <v>0.05857257738025537</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1113582528625094</v>
+        <v>0.05560418948962218</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03363591925691485</v>
+        <v>0.03324296002007396</v>
       </c>
       <c r="K191" t="n">
         <v>0.1113582528625094</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07062696310057998</v>
+        <v>0.06771152863177834</v>
       </c>
       <c r="M191" t="n">
-        <v>0.11095599520373</v>
+        <v>0.1110522990039194</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1030048412425378</v>
+        <v>0.1026628306142975</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1109718906512957</v>
+        <v>0.1109644715380235</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03459771587033865</v>
+        <v>0.05790114906513533</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1122420485201483</v>
+        <v>0.05561345710269969</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03459771587033865</v>
+        <v>0.0331809051569968</v>
       </c>
       <c r="K192" t="n">
         <v>0.1122420485201483</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06820037300540366</v>
+        <v>0.06848340976788939</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1118365983402675</v>
+        <v>0.1119336664563314</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1021340465856</v>
+        <v>0.1035293783238049</v>
       </c>
       <c r="O192" t="n">
-        <v>0.111852619942179</v>
+        <v>0.1118451419470554</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03312013048393121</v>
+        <v>0.05722798623312925</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1131258441777873</v>
+        <v>0.05562186360096154</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03312013048393121</v>
+        <v>0.03370698574334638</v>
       </c>
       <c r="K193" t="n">
         <v>0.1131258441777873</v>
       </c>
       <c r="L193" t="n">
-        <v>0.0713980880412422</v>
+        <v>0.07153719187592789</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1127172014768051</v>
+        <v>0.1128150339087435</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1055130211380985</v>
+        <v>0.1082918932718584</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1127333492330623</v>
+        <v>0.1127258123560873</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0332409767136299</v>
+        <v>0.05655308888423713</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1140096398354263</v>
+        <v>0.05562940898440773</v>
       </c>
       <c r="J194" t="n">
-        <v>0.0332409767136299</v>
+        <v>0.03289059887821719</v>
       </c>
       <c r="K194" t="n">
         <v>0.1140096398354263</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06945633985161889</v>
+        <v>0.06910756432996784</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1135978046133426</v>
+        <v>0.1136964013611556</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1037245477025778</v>
+        <v>0.1036975629612635</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1136140785239456</v>
+        <v>0.1136064827651193</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03394347209990914</v>
+        <v>0.05587645701845902</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1148934354930652</v>
+        <v>0.05563609325303828</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03394347209990914</v>
+        <v>0.03409542849440611</v>
       </c>
       <c r="K195" t="n">
         <v>0.1148934354930652</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06876594758841792</v>
+        <v>0.06781303081966947</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1144784077498802</v>
+        <v>0.1145777688135676</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1073692120316261</v>
+        <v>0.1061517377478151</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1144948078148289</v>
+        <v>0.1144871531741512</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03452264824067759</v>
+        <v>0.05519809063579482</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1157772311507042</v>
+        <v>0.05564191640685314</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03452264824067759</v>
+        <v>0.03468064435425555</v>
       </c>
       <c r="K196" t="n">
         <v>0.1157772311507042</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06929006690359654</v>
+        <v>0.06853079956642286</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1153590108864177</v>
+        <v>0.1154591362659797</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1024599193593015</v>
+        <v>0.1038151847724308</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1153755371057122</v>
+        <v>0.1153678235831831</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03359469256492606</v>
+        <v>0.05451798973624461</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1166610268083432</v>
+        <v>0.05564687844585234</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03359469256492606</v>
+        <v>0.03400643944977176</v>
       </c>
       <c r="K197" t="n">
         <v>0.1166610268083432</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06975576295503874</v>
+        <v>0.07067781212505822</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1162396140229553</v>
+        <v>0.1163405037183917</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1084992018361906</v>
+        <v>0.103227457718025</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1162562663965955</v>
+        <v>0.1162484939922151</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03415293172313179</v>
+        <v>0.0538361543198084</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1175448224659821</v>
+        <v>0.0556509793700359</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03415293172313179</v>
+        <v>0.0346085378632041</v>
       </c>
       <c r="K198" t="n">
         <v>0.1175448224659821</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06840184968722254</v>
+        <v>0.06902777897730322</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1171202171594928</v>
+        <v>0.1172218711708038</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1046702451636717</v>
+        <v>0.1064178358811583</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1171369956874788</v>
+        <v>0.117129164401247</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.034202822136466</v>
+        <v>0.05315258438648612</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1184286181236211</v>
+        <v>0.05565421917940378</v>
       </c>
       <c r="J199" t="n">
-        <v>0.034202822136466</v>
+        <v>0.03403200748721297</v>
       </c>
       <c r="K199" t="n">
         <v>0.1184286181236211</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07171663250838109</v>
+        <v>0.07122115096918158</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1180008202960303</v>
+        <v>0.1181032386232159</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1063492582351378</v>
+        <v>0.1034693487251988</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1180177249783621</v>
+        <v>0.1180098348102789</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03366975190638788</v>
+        <v>0.05246727993627781</v>
       </c>
       <c r="G200" t="n">
-        <v>0.11931241378126</v>
+        <v>0.055656597873956</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03366975190638788</v>
+        <v>0.03465275881176298</v>
       </c>
       <c r="K200" t="n">
         <v>0.11931241378126</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06875562529484075</v>
+        <v>0.06830240187710854</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1188814234325679</v>
+        <v>0.1189846060756279</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1040713373636381</v>
+        <v>0.1061611002249494</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1188984542692454</v>
+        <v>0.1188905052193109</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03397649873577969</v>
+        <v>0.05178024096918349</v>
       </c>
       <c r="G201" t="n">
-        <v>0.120196209438899</v>
+        <v>0.05565811545369257</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03397649873577969</v>
+        <v>0.03406714583445411</v>
       </c>
       <c r="K201" t="n">
         <v>0.120196209438899</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06974068308248496</v>
+        <v>0.07026539829584866</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1197620265691054</v>
+        <v>0.11986597352804</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1055299874820548</v>
+        <v>0.1090882207394326</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1197791835601287</v>
+        <v>0.1197711756283428</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03458707175428152</v>
+        <v>0.05109146748520314</v>
       </c>
       <c r="G202" t="n">
-        <v>0.121080005096538</v>
+        <v>0.05565877191861347</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03458707175428152</v>
+        <v>0.03387836839520021</v>
       </c>
       <c r="K202" t="n">
         <v>0.121080005096538</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07025622304977422</v>
+        <v>0.07208307716162937</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1206426297056429</v>
+        <v>0.120747340980452</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1078871339586812</v>
+        <v>0.1074867069058714</v>
       </c>
       <c r="O202" t="n">
-        <v>0.120659912851012</v>
+        <v>0.1206518460373747</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03327993131045037</v>
+        <v>0.05040095948433673</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1219638007541769</v>
+        <v>0.05565856726871871</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03327993131045037</v>
+        <v>0.03388290961345874</v>
       </c>
       <c r="K203" t="n">
         <v>0.1219638007541769</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06815341278327269</v>
+        <v>0.07102535630375154</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1215232328421805</v>
+        <v>0.1216287084328641</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1054488232747002</v>
+        <v>0.1076542698875482</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1215406421418953</v>
+        <v>0.1215325164464067</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03449543904433584</v>
+        <v>0.04970871696658428</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1228475964118159</v>
+        <v>0.05565750150400827</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03449543904433584</v>
+        <v>0.03399774734647799</v>
       </c>
       <c r="K204" t="n">
         <v>0.1228475964118159</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07202117668346236</v>
+        <v>0.07204094054405871</v>
       </c>
       <c r="M204" t="n">
-        <v>0.122403835978718</v>
+        <v>0.1225100758852761</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1073565871627696</v>
+        <v>0.1086055540019287</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1224213714327786</v>
+        <v>0.1224131868554386</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03390097466233916</v>
+        <v>0.04901473993194584</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1237313920694549</v>
+        <v>0.05565557462448219</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03390097466233916</v>
+        <v>0.03456513517781395</v>
       </c>
       <c r="K205" t="n">
         <v>0.1237313920694549</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06967142184470781</v>
+        <v>0.07038514201945198</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1232844391152556</v>
+        <v>0.1233914433376882</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1062307359649096</v>
+        <v>0.1035683866665734</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1233021007236619</v>
+        <v>0.1232938572644705</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03398191935771702</v>
+        <v>0.04831902838042135</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1246151877270938</v>
+        <v>0.05565278663014046</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03398191935771702</v>
+        <v>0.0346630651741935</v>
       </c>
       <c r="K206" t="n">
         <v>0.1246151877270938</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.07243836447790358</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1241650422517931</v>
+        <v>0.1242728107901003</v>
       </c>
       <c r="N206" t="n">
-        <v>0.103968174269668</v>
+        <v>0.1066738147010193</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1241828300145452</v>
+        <v>0.1241745276735024</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03378367182958868</v>
+        <v>0.04762158231201082</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1254989833847328</v>
+        <v>0.05564913752098304</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03378367182958868</v>
+        <v>0.03452612013763953</v>
       </c>
       <c r="K207" t="n">
         <v>0.1254989833847328</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06953480008933105</v>
+        <v>0.07229319111643351</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1250456453883306</v>
+        <v>0.1251541782425123</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1079737447822244</v>
+        <v>0.109301860351249</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1250635593054285</v>
+        <v>0.1250551980825344</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03387783266158095</v>
+        <v>0.04692240172671427</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1263827790423717</v>
+        <v>0.05564462729700997</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03387783266158095</v>
+        <v>0.03447835447219479</v>
       </c>
       <c r="K208" t="n">
         <v>0.1263827790423717</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07062577533006245</v>
+        <v>0.07165935737979351</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1259262485248682</v>
+        <v>0.1260355456949244</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1050530201771838</v>
+        <v>0.1044963827164529</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1259442885963118</v>
+        <v>0.1259358684915663</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03406903646851493</v>
+        <v>0.04622148662453168</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1272665747000107</v>
+        <v>0.05563925595822126</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03406903646851493</v>
+        <v>0.03453375195595147</v>
       </c>
       <c r="K209" t="n">
         <v>0.1272665747000107</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06904773108643361</v>
+        <v>0.07115265902090165</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1268068516614057</v>
+        <v>0.1269169131473364</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1054163828942608</v>
+        <v>0.1094873626735831</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1268250178871951</v>
+        <v>0.1268165389005983</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0336171683080892</v>
+        <v>0.04551883700546307</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1281503703576497</v>
+        <v>0.05563302350461686</v>
       </c>
       <c r="J210" t="n">
-        <v>0.0336171683080892</v>
+        <v>0.03428201947250702</v>
       </c>
       <c r="K210" t="n">
         <v>0.1281503703576497</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07038995153368335</v>
+        <v>0.07062813814364505</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1276874547979433</v>
+        <v>0.1277982805997485</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1055718942574259</v>
+        <v>0.106850719739859</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1277057471780784</v>
+        <v>0.1276972093096302</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03424187188050627</v>
+        <v>0.04481445286950839</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1290341660152886</v>
+        <v>0.05562592993619678</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03424187188050627</v>
+        <v>0.0346044745322442</v>
       </c>
       <c r="K211" t="n">
         <v>0.1290341660152886</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07084922901342522</v>
+        <v>0.06898506719279182</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1285680579344808</v>
+        <v>0.1286796480521606</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1035050702424503</v>
+        <v>0.1080847641031997</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1285864764689617</v>
+        <v>0.1285778797186621</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03460873750957727</v>
+        <v>0.04410833421666772</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1299179616729276</v>
+        <v>0.05561797525296108</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03460873750957727</v>
+        <v>0.03471238328776555</v>
       </c>
       <c r="K212" t="n">
         <v>0.1299179616729276</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06917807630075062</v>
+        <v>0.06954250148586164</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1294486610710184</v>
+        <v>0.1295610155045726</v>
       </c>
       <c r="N212" t="n">
-        <v>0.105059473834484</v>
+        <v>0.1098187188067061</v>
       </c>
       <c r="O212" t="n">
-        <v>0.129467205759845</v>
+        <v>0.1294585501276941</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03479967315731342</v>
+        <v>0.04340048104694101</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1308017573305666</v>
+        <v>0.05560915945490971</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03479967315731342</v>
+        <v>0.03367760945850082</v>
       </c>
       <c r="K213" t="n">
         <v>0.1308017573305666</v>
       </c>
       <c r="L213" t="n">
-        <v>0.0715604587430283</v>
+        <v>0.071305309709772</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1303292642075559</v>
+        <v>0.1304423829569847</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1040054928954622</v>
+        <v>0.1086007352014378</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1303479350507283</v>
+        <v>0.130339220536726</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03344252891314366</v>
+        <v>0.04269089336032825</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1316855529882055</v>
+        <v>0.05559948254204265</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03344252891314366</v>
+        <v>0.03506019889472237</v>
       </c>
       <c r="K214" t="n">
         <v>0.1316855529882055</v>
       </c>
       <c r="L214" t="n">
-        <v>0.0705309251978995</v>
+        <v>0.07166621644859561</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1312098673440934</v>
+        <v>0.1313237504093967</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1071600068183382</v>
+        <v>0.1042872689212528</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1312286643416116</v>
+        <v>0.1312198909457579</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03351936167914914</v>
+        <v>0.04197957115682949</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1325693486458445</v>
+        <v>0.05558894451435997</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03351936167914914</v>
+        <v>0.03360633637351586</v>
       </c>
       <c r="K215" t="n">
         <v>0.1325693486458445</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07102142314763613</v>
+        <v>0.06994648686202387</v>
       </c>
       <c r="M215" t="n">
-        <v>0.132090470480631</v>
+        <v>0.1322051178618088</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1059255279303665</v>
+        <v>0.1088713940808959</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1321093936324949</v>
+        <v>0.1321005613547898</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03438370111102332</v>
+        <v>0.04126651443644466</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1334531443034835</v>
+        <v>0.05557754537186161</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03438370111102332</v>
+        <v>0.03467204827651958</v>
       </c>
       <c r="K216" t="n">
         <v>0.1334531443034835</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07152557179913052</v>
+        <v>0.0694363263008117</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1329710736171685</v>
+        <v>0.1330864853142208</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1055412015069849</v>
+        <v>0.1055274059747965</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1329901229233782</v>
+        <v>0.1329812317638218</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03440247618608333</v>
+        <v>0.04055172319917383</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1343369399611224</v>
+        <v>0.05556528511454759</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03440247618608333</v>
+        <v>0.0351935704403029</v>
       </c>
       <c r="K217" t="n">
         <v>0.1343369399611224</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06866775745955064</v>
+        <v>0.06916403394953125</v>
       </c>
       <c r="M217" t="n">
-        <v>0.133851676753706</v>
+        <v>0.1339678527666329</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1040469889563474</v>
+        <v>0.1104266397450944</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1338708522142615</v>
+        <v>0.1338619021728537</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03499669300926332</v>
+        <v>0.03983519744501694</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1352207356187614</v>
+        <v>0.05555216374241791</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03499669300926332</v>
+        <v>0.03440985740514681</v>
       </c>
       <c r="K218" t="n">
         <v>0.1352207356187614</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06897165092025614</v>
+        <v>0.06997329348094156</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1347322798902436</v>
+        <v>0.134849220219045</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1092684431949622</v>
+        <v>0.1110349328802756</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1347515815051448</v>
+        <v>0.1347425725818857</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03449705281005519</v>
+        <v>0.03911693717397403</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1361045312764003</v>
+        <v>0.05553818125547255</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03449705281005519</v>
+        <v>0.0336677862023953</v>
       </c>
       <c r="K219" t="n">
         <v>0.1361045312764003</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07235770634835581</v>
+        <v>0.07233311424074143</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1356128830267811</v>
+        <v>0.135730587671457</v>
       </c>
       <c r="N219" t="n">
-        <v>0.108981573595775</v>
+        <v>0.1039528739119663</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1356323107960281</v>
+        <v>0.1356232429909176</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03472491742270002</v>
+        <v>0.0383969423860451</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1369883269340393</v>
+        <v>0.05552333765371154</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03472491742270002</v>
+        <v>0.03451786387643992</v>
       </c>
       <c r="K220" t="n">
         <v>0.1369883269340393</v>
       </c>
       <c r="L220" t="n">
-        <v>0.0694096589447129</v>
+        <v>0.06965051631281227</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1364934861633187</v>
+        <v>0.1366119551238691</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1090523033238361</v>
+        <v>0.1075214675227655</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1365130400869114</v>
+        <v>0.1365039133999495</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03343697453221106</v>
+        <v>0.03767521308123013</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1378721225916783</v>
+        <v>0.05550763293713488</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03343697453221106</v>
+        <v>0.03375812966263335</v>
       </c>
       <c r="K221" t="n">
         <v>0.1378721225916783</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06983231953230387</v>
+        <v>0.07103773417745352</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1373740892998562</v>
+        <v>0.1374933225762811</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1063029646801431</v>
+        <v>0.1046361209448219</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1373937693777947</v>
+        <v>0.1373845838089814</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03391488820064621</v>
+        <v>0.03695174925952911</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1387559182493172</v>
+        <v>0.05549106710574254</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03391488820064621</v>
+        <v>0.03521668056318268</v>
       </c>
       <c r="K222" t="n">
         <v>0.1387559182493172</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0713817718062153</v>
+        <v>0.07062840653754002</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1382546924363937</v>
+        <v>0.1383746900286932</v>
       </c>
       <c r="N222" t="n">
-        <v>0.110078775577985</v>
+        <v>0.110171570042872</v>
       </c>
       <c r="O222" t="n">
-        <v>0.138274498668678</v>
+        <v>0.1382652542180134</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03517482411846737</v>
+        <v>0.03622655092094208</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1396397139069562</v>
+        <v>0.05547364015953455</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03517482411846737</v>
+        <v>0.03399113587381922</v>
       </c>
       <c r="K223" t="n">
         <v>0.1396397139069562</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06943933471445199</v>
+        <v>0.07052034753038156</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1391352955729313</v>
+        <v>0.1392560574811053</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1062597265709835</v>
+        <v>0.1084726328951273</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1391552279595613</v>
+        <v>0.1391459246270453</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03464513568797589</v>
+        <v>0.03549961806546902</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1405235095645952</v>
+        <v>0.05545535209851091</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03464513568797589</v>
+        <v>0.03390941089929315</v>
       </c>
       <c r="K224" t="n">
         <v>0.1405235095645952</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07036771121255325</v>
+        <v>0.07142054437916276</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1400158987094688</v>
+        <v>0.1401374249335173</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1107939912935451</v>
+        <v>0.1089980680650701</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1400359572504446</v>
+        <v>0.1400265950360772</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03479018315611387</v>
+        <v>0.03477095069310991</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1414073052222341</v>
+        <v>0.05543620292267158</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03479018315611387</v>
+        <v>0.03495485085685961</v>
       </c>
       <c r="K225" t="n">
         <v>0.1414073052222341</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07155249871910341</v>
+        <v>0.07093254179270922</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1408965018460064</v>
+        <v>0.1410187923859294</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1066276596428974</v>
+        <v>0.1052327508874901</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1409166865413279</v>
+        <v>0.1409072654451092</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03452439158587645</v>
+        <v>0.03404054880386478</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1422911008798731</v>
+        <v>0.0554161926320166</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03452439158587645</v>
+        <v>0.03351224107180627</v>
       </c>
       <c r="K226" t="n">
         <v>0.1422911008798731</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07163195633247407</v>
+        <v>0.07168579324058647</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1417771049825439</v>
+        <v>0.1419001598383414</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1076388178686475</v>
+        <v>0.1060215165483422</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1417974158322112</v>
+        <v>0.1417879358541411</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03518349443415868</v>
+        <v>0.03330841239773362</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1431748965375121</v>
+        <v>0.05539532122654597</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03518349443415868</v>
+        <v>0.03375350033163137</v>
       </c>
       <c r="K227" t="n">
         <v>0.1431748965375121</v>
       </c>
       <c r="L227" t="n">
-        <v>0.07065803973061194</v>
+        <v>0.07063563141121049</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1426577081190815</v>
+        <v>0.1427815272907535</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1048101345679782</v>
+        <v>0.1071440878043838</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1426781451230945</v>
+        <v>0.142668606263173</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03534320700426041</v>
+        <v>0.03257454147471642</v>
       </c>
       <c r="G228" t="n">
-        <v>0.144058692195151</v>
+        <v>0.05537358870625967</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03534320700426041</v>
+        <v>0.03502851632050361</v>
       </c>
       <c r="K228" t="n">
         <v>0.144058692195151</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07098868379353362</v>
+        <v>0.07180537901148107</v>
       </c>
       <c r="M228" t="n">
-        <v>0.143538311255619</v>
+        <v>0.1436628947431655</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1042200195159684</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1435588744139778</v>
+        <v>0.143549276672205</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0337928029605444</v>
+        <v>0.03183893603481319</v>
       </c>
       <c r="G229" t="n">
-        <v>0.14494248785279</v>
+        <v>0.0553509950711577</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0337928029605444</v>
+        <v>0.03514025218930568</v>
       </c>
       <c r="K229" t="n">
         <v>0.14494248785279</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07101879811690409</v>
+        <v>0.07141856095589091</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1444189143921565</v>
+        <v>0.1445442621955776</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1069314555369986</v>
+        <v>0.1104569880732975</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1444396037048611</v>
+        <v>0.1444299470812369</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03514858440475495</v>
+        <v>0.03110159607802393</v>
       </c>
       <c r="G230" t="n">
-        <v>0.145826283510429</v>
+        <v>0.05532754032124008</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03514858440475495</v>
+        <v>0.03517079581142295</v>
       </c>
       <c r="K230" t="n">
         <v>0.145826283510429</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07094037228454664</v>
+        <v>0.06999723428260513</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1452995175286941</v>
+        <v>0.1454256296479897</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1044927304297634</v>
+        <v>0.1080470916390884</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1453203329957444</v>
+        <v>0.1453106174902688</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03506025312627246</v>
+        <v>0.03036252160434863</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1467100791680679</v>
+        <v>0.0553032244565068</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03506025312627246</v>
+        <v>0.03457598880352813</v>
       </c>
       <c r="K231" t="n">
         <v>0.1467100791680679</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06993964292281143</v>
+        <v>0.07319536896287834</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1461801206652316</v>
+        <v>0.1463069971004017</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1066820738958194</v>
+        <v>0.1076254960834114</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1462010622866277</v>
+        <v>0.1461912878993007</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03479529429369405</v>
+        <v>0.02962171261378732</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1475938748257069</v>
+        <v>0.05527804747695785</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03479529429369405</v>
+        <v>0.03487151566163378</v>
       </c>
       <c r="K232" t="n">
         <v>0.1475938748257069</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06988233866659918</v>
+        <v>0.07304801826821039</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1470607238017692</v>
+        <v>0.1471883645528138</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1068967120948119</v>
+        <v>0.1063251361932945</v>
       </c>
       <c r="O232" t="n">
-        <v>0.147081791577511</v>
+        <v>0.1470719583083327</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03458754752015358</v>
+        <v>0.02887916910633995</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1484776704833458</v>
+        <v>0.05525200938259324</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03458754752015358</v>
+        <v>0.03408261136184937</v>
       </c>
       <c r="K233" t="n">
         <v>0.1484776704833458</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07280068838086312</v>
+        <v>0.07267957647921142</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1479413269383067</v>
+        <v>0.1480697320052258</v>
       </c>
       <c r="N233" t="n">
-        <v>0.111356035822617</v>
+        <v>0.1108335708415134</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1479625208683943</v>
+        <v>0.1479526287173646</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.0351333403169176</v>
+        <v>0.02813489108200656</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1493614661409848</v>
+        <v>0.05522511017341297</v>
       </c>
       <c r="J234" t="n">
-        <v>0.0351333403169176</v>
+        <v>0.03495543205274651</v>
       </c>
       <c r="K234" t="n">
         <v>0.1493614661409848</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06938436250646304</v>
+        <v>0.06962738133066193</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1488219300748442</v>
+        <v>0.1489510994576379</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1077637707180918</v>
+        <v>0.1056358244700834</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1488432501592776</v>
+        <v>0.1488332991263965</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03519762391321553</v>
+        <v>0.02738887854078714</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1502452617986238</v>
+        <v>0.05519734984941704</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03519762391321553</v>
+        <v>0.03411305943177428</v>
       </c>
       <c r="K235" t="n">
         <v>0.1502452617986238</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07193838326676716</v>
+        <v>0.0725581962833429</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1497025332113818</v>
+        <v>0.1498324669100499</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1115258672776626</v>
+        <v>0.1107372938569342</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1497239794501609</v>
+        <v>0.1497139695354285</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.0343327575489463</v>
+        <v>0.02664113148268168</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1511290574562627</v>
+        <v>0.05516872841060545</v>
       </c>
       <c r="J236" t="n">
-        <v>0.0343327575489463</v>
+        <v>0.03379717290572114</v>
       </c>
       <c r="K236" t="n">
         <v>0.1511290574562627</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07075533443679802</v>
+        <v>0.07359317896499509</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1505831363479193</v>
+        <v>0.150713834362462</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1084475018930475</v>
+        <v>0.1044133471519625</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1506047087410442</v>
+        <v>0.1505946399444604</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03429452388731542</v>
+        <v>0.0258916499076902</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1520128531139017</v>
+        <v>0.05513924585697819</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03429452388731542</v>
+        <v>0.03404025207302919</v>
       </c>
       <c r="K237" t="n">
         <v>0.1520128531139017</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07261016487707667</v>
+        <v>0.07144611174586826</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1514637394844568</v>
+        <v>0.1515952018148741</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1052409979227536</v>
+        <v>0.1072924185232527</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1514854380319275</v>
+        <v>0.1514753103534923</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.02514043381581268</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1528966487715407</v>
+        <v>0.05510890218853528</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03486796743897462</v>
       </c>
       <c r="K238" t="n">
         <v>0.1528966487715407</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07265911255992691</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1523443426209944</v>
+        <v>0.1524765692672861</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1065132156662101</v>
+        <v>0.1083138429167579</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1523661673228108</v>
+        <v>0.1523559807625243</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03500709489664594</v>
+        <v>0.02438748320704914</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1537804444291796</v>
+        <v>0.0550776974052767</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03500709489664594</v>
+        <v>0.0351749200565717</v>
       </c>
       <c r="K239" t="n">
         <v>0.1537804444291796</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07060946318110531</v>
+        <v>0.07301516589966928</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1532249457575319</v>
+        <v>0.1533579367196982</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1083280111501526</v>
+        <v>0.1081749414349985</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1532468966136941</v>
+        <v>0.1532366511715562</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03400613993907121</v>
+        <v>0.02363279808139956</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1546642400868186</v>
+        <v>0.05504563150720246</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03400613993907121</v>
+        <v>0.03519674453126878</v>
       </c>
       <c r="K240" t="n">
         <v>0.1546642400868186</v>
       </c>
       <c r="L240" t="n">
-        <v>0.07168642443252521</v>
+        <v>0.07159680624840145</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1541055488940695</v>
+        <v>0.1542393041721103</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1110723281262064</v>
+        <v>0.1050054099100758</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1541276259045774</v>
+        <v>0.1541173215805881</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0353079569786037</v>
+        <v>0.02287637843886395</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1555480357444576</v>
+        <v>0.05501270449431256</v>
       </c>
       <c r="J241" t="n">
-        <v>0.0353079569786037</v>
+        <v>0.03522491779522149</v>
       </c>
       <c r="K241" t="n">
         <v>0.1555480357444576</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07037954984783926</v>
+        <v>0.07368281885299632</v>
       </c>
       <c r="M241" t="n">
-        <v>0.154986152030607</v>
+        <v>0.1551206716245223</v>
       </c>
       <c r="N241" t="n">
-        <v>0.111503828379397</v>
+        <v>0.1086755467201013</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1550083551954607</v>
+        <v>0.1549979919896201</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03434832237920556</v>
+        <v>0.02211822427944229</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1564318314020965</v>
+        <v>0.05497891636660699</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03434832237920556</v>
+        <v>0.03416706310452571</v>
       </c>
       <c r="K242" t="n">
         <v>0.1564318314020965</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07228606656544548</v>
+        <v>0.07044410996536221</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1558667551671445</v>
+        <v>0.1560020390769344</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1049312530922536</v>
+        <v>0.1099078929789861</v>
       </c>
       <c r="O242" t="n">
-        <v>0.155889084486344</v>
+        <v>0.155878662398652</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03556488718821368</v>
+        <v>0.02135833560313462</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1573156270597355</v>
+        <v>0.05494426712408577</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03556488718821368</v>
+        <v>0.03505772661934209</v>
       </c>
       <c r="K243" t="n">
         <v>0.1573156270597355</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07282790773433287</v>
+        <v>0.06986634470636618</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1567473583036821</v>
+        <v>0.1568834065293464</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1047759869466164</v>
+        <v>0.1049912920428613</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1567698137772273</v>
+        <v>0.1567593328076839</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03540341531454159</v>
+        <v>0.0205967124099409</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1581994227173744</v>
+        <v>0.05490875676674888</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03540341531454159</v>
+        <v>0.03415326308297027</v>
       </c>
       <c r="K244" t="n">
         <v>0.1581994227173744</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07074105611292686</v>
+        <v>0.07305888667760155</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1576279614402196</v>
+        <v>0.1577647739817585</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1102731572897707</v>
+        <v>0.1079433187562003</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1576505430681106</v>
+        <v>0.1576400032167159</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03472267718383712</v>
+        <v>0.01983335469986117</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1590832183750134</v>
+        <v>0.05487238529459634</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03472267718383712</v>
+        <v>0.03449178361930566</v>
       </c>
       <c r="K245" t="n">
         <v>0.1590832183750134</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07238018232398136</v>
+        <v>0.0703273565247059</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1585085645767572</v>
+        <v>0.1586461414341705</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1087468429556794</v>
+        <v>0.1096798355461736</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1585312723589939</v>
+        <v>0.1585206736257478</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03410018868700582</v>
+        <v>0.0190682624728954</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1599670140326524</v>
+        <v>0.05483515270762813</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03410018868700582</v>
+        <v>0.03428869079477144</v>
       </c>
       <c r="K246" t="n">
         <v>0.1599670140326524</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07008090143793291</v>
+        <v>0.07015711484995255</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1593891677132947</v>
+        <v>0.1595275088865826</v>
       </c>
       <c r="N246" t="n">
-        <v>0.110705175716699</v>
+        <v>0.1061094349955988</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1594120016498772</v>
+        <v>0.1594013440347798</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03495920391511498</v>
+        <v>0.01830143572904359</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1608508096902913</v>
+        <v>0.05479705900584425</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03495920391511498</v>
+        <v>0.03513741450626769</v>
       </c>
       <c r="K247" t="n">
         <v>0.1608508096902913</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06955436032909187</v>
+        <v>0.07332563801504904</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1602697708498322</v>
+        <v>0.1604088763389947</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1116474586816742</v>
+        <v>0.1105785015366911</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1602927309407605</v>
+        <v>0.1602820144438117</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03544933561669462</v>
+        <v>0.01753287446830575</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1617346053479303</v>
+        <v>0.05475810418924473</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03544933561669462</v>
+        <v>0.03435266336253252</v>
       </c>
       <c r="K248" t="n">
         <v>0.1617346053479303</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06941534785449927</v>
+        <v>0.07377570928163779</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1611503739863698</v>
+        <v>0.1612902437914067</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1090990526734538</v>
+        <v>0.1062612210173626</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1611734602316438</v>
+        <v>0.1611626848528436</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03453196713776362</v>
+        <v>0.01676257869068189</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1626184010055693</v>
+        <v>0.05471828825782955</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03453196713776362</v>
+        <v>0.03535528484033738</v>
       </c>
       <c r="K249" t="n">
         <v>0.1626184010055693</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0719388791519425</v>
+        <v>0.0698637166232976</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1620309771229073</v>
+        <v>0.1621716112438188</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1091641900433873</v>
+        <v>0.1082950930251314</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1620541895225271</v>
+        <v>0.1620433552618755</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03468167783445639</v>
+        <v>0.01599054839617198</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1635021966632082</v>
+        <v>0.05467761121159868</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03468167783445639</v>
+        <v>0.0349721506873418</v>
       </c>
       <c r="K250" t="n">
         <v>0.1635021966632082</v>
       </c>
       <c r="L250" t="n">
-        <v>0.0699899608601427</v>
+        <v>0.0738180554038162</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1629115802594449</v>
+        <v>0.1630529786962308</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1099508656442066</v>
+        <v>0.1092227486597042</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1629349188134104</v>
+        <v>0.1629240256709075</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03515914076370512</v>
+        <v>0.01521678358477605</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1643859923208472</v>
+        <v>0.05463607305055216</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03515914076370512</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K251" t="n">
         <v>0.1643859923208472</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07351015017884216</v>
+        <v>0.07190083982873421</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1637921833959824</v>
+        <v>0.1639343461486429</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1092952321825674</v>
+        <v>0.1078029317487277</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1638156481042937</v>
+        <v>0.1638046960799394</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03445239320766032</v>
+        <v>0.01444128425649407</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1652697879784861</v>
+        <v>0.05459367377468998</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03445239320766032</v>
+        <v>0.03514856172065081</v>
       </c>
       <c r="K252" t="n">
         <v>0.1652697879784861</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07260258506844486</v>
+        <v>0.07365682951174943</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1646727865325199</v>
+        <v>0.164815713601055</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1061404488407511</v>
+        <v>0.1082252426903249</v>
       </c>
       <c r="O252" t="n">
-        <v>0.164696377395177</v>
+        <v>0.1646853664889713</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03441581796361998</v>
+        <v>0.01366405041132608</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1661535836361251</v>
+        <v>0.05455041338401214</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03441581796361998</v>
+        <v>0.03440355673051837</v>
       </c>
       <c r="K253" t="n">
         <v>0.1661535836361251</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07090536482290735</v>
+        <v>0.07153795840332819</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1655533896690575</v>
+        <v>0.165697081053467</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1106207151808349</v>
+        <v>0.1064330366027527</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1655771066860603</v>
+        <v>0.1655660368980033</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03503916596341838</v>
+        <v>0.01288508204927205</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1670373792937641</v>
+        <v>0.05450629187851865</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03503916596341838</v>
+        <v>0.03514954884538951</v>
       </c>
       <c r="K254" t="n">
         <v>0.1670373792937641</v>
       </c>
       <c r="L254" t="n">
-        <v>0.07244778961945283</v>
+        <v>0.07214792330700098</v>
       </c>
       <c r="M254" t="n">
-        <v>0.166433992805595</v>
+        <v>0.1665784485058791</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1074600829311185</v>
+        <v>0.1108094469980679</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1664578359769436</v>
+        <v>0.1664467073070352</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03532432953449947</v>
+        <v>0.012104379170332</v>
       </c>
       <c r="G255" t="n">
-        <v>0.167921174951403</v>
+        <v>0.05446130925820949</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03532432953449947</v>
+        <v>0.03474880642774679</v>
       </c>
       <c r="K255" t="n">
         <v>0.167921174951403</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07241396688770935</v>
+        <v>0.07241324079894579</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1673145959421325</v>
+        <v>0.1674598159582911</v>
       </c>
       <c r="N255" t="n">
-        <v>0.106046842796637</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1673385652678269</v>
+        <v>0.1673273777160671</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03530522356791262</v>
+        <v>0.01132194177450591</v>
       </c>
       <c r="G256" t="n">
-        <v>0.168804970609042</v>
+        <v>0.05441546552308466</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03530522356791262</v>
+        <v>0.03420317605763221</v>
       </c>
       <c r="K256" t="n">
         <v>0.168804970609042</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07036977216748205</v>
+        <v>0.07361014417081302</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1681951990786701</v>
+        <v>0.1683411834107032</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1094870270895313</v>
+        <v>0.1118645562947893</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1682192945587102</v>
+        <v>0.1682080481250991</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03471473045096535</v>
+        <v>0.01053776986179377</v>
       </c>
       <c r="G257" t="n">
-        <v>0.169688766266681</v>
+        <v>0.05436876067314417</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03471473045096535</v>
+        <v>0.03435805291531774</v>
       </c>
       <c r="K257" t="n">
         <v>0.169688766266681</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07077677605845015</v>
+        <v>0.07308591586023816</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1690758022152077</v>
+        <v>0.1692225508631152</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1085529522786096</v>
+        <v>0.1092684016922535</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1691000238495935</v>
+        <v>0.169088718534131</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03486254331422661</v>
+        <v>0.009751863432195612</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1705725619243199</v>
+        <v>0.05432119470838801</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03486254331422661</v>
+        <v>0.03547401527095827</v>
       </c>
       <c r="K258" t="n">
         <v>0.1705725619243199</v>
       </c>
       <c r="L258" t="n">
-        <v>0.0733036528125883</v>
+        <v>0.07291540192374416</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1699564053517452</v>
+        <v>0.1701039183155273</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1091613322169745</v>
+        <v>0.1061450298849546</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1699807531404768</v>
+        <v>0.1699693889431629</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03389727766791362</v>
+        <v>0.008964222485711416</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1714563575819589</v>
+        <v>0.05427276762881621</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03389727766791362</v>
+        <v>0.03571093983282007</v>
       </c>
       <c r="K259" t="n">
         <v>0.1714563575819589</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06951310815375139</v>
+        <v>0.07177760066658503</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1708370084882827</v>
+        <v>0.1709852857679394</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1051767767735804</v>
+        <v>0.1096113484037131</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1708614824313601</v>
+        <v>0.1708500593521949</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.0347451467306258</v>
+        <v>0.008174847022341204</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1723401532395978</v>
+        <v>0.05422347943442873</v>
       </c>
       <c r="J260" t="n">
-        <v>0.0347451467306258</v>
+        <v>0.03454980313723992</v>
       </c>
       <c r="K260" t="n">
         <v>0.1723401532395978</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07166092118727568</v>
+        <v>0.06956275906657633</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1717176116248202</v>
+        <v>0.1718666532203514</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1086751943206251</v>
+        <v>0.1109579797891982</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1717422117222434</v>
+        <v>0.1717307297612268</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03423469334453993</v>
+        <v>0.007383737042084955</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1732239488972368</v>
+        <v>0.05417333012522561</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03423469334453993</v>
+        <v>0.03465744209839228</v>
       </c>
       <c r="K261" t="n">
         <v>0.1732239488972368</v>
       </c>
       <c r="L261" t="n">
-        <v>0.07127578795545672</v>
+        <v>0.07288588022930559</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1725982147613578</v>
+        <v>0.1727480206727635</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1096169627147683</v>
+        <v>0.1077418780701942</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1726229410131267</v>
+        <v>0.1726114001702587</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03509661442575335</v>
+        <v>0.006590892544942661</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1741077445548758</v>
+        <v>0.05412231970120682</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03509661442575335</v>
+        <v>0.03403027500351291</v>
       </c>
       <c r="K262" t="n">
         <v>0.1741077445548758</v>
       </c>
       <c r="L262" t="n">
-        <v>0.07083505271649959</v>
+        <v>0.06982457539373058</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1734788178978953</v>
+        <v>0.1736293881251755</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1100471269465348</v>
+        <v>0.1053455323887791</v>
       </c>
       <c r="O262" t="n">
-        <v>0.17350367030401</v>
+        <v>0.1734920705792907</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03513333140563792</v>
+        <v>0.005796313530914345</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1749915402125147</v>
+        <v>0.05407044816237237</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03513333140563792</v>
+        <v>0.03460015752405468</v>
       </c>
       <c r="K263" t="n">
         <v>0.1749915402125147</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07313458437447257</v>
+        <v>0.07203547252546105</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1743594210344329</v>
+        <v>0.1745107555775876</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1116170622103512</v>
+        <v>0.1126684415793008</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1743843995948933</v>
+        <v>0.1743727409883226</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03531197269266528</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1758753358701537</v>
+        <v>0.05401771550872224</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03531197269266528</v>
+        <v>0.03543473074381101</v>
       </c>
       <c r="K264" t="n">
         <v>0.1758753358701537</v>
       </c>
       <c r="L264" t="n">
-        <v>0.07198061753539053</v>
+        <v>0.07400104685443928</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1752400241709704</v>
+        <v>0.1753921230299997</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1066057914457792</v>
+        <v>0.1084267792856222</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1752651288857766</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1752534113973545</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05401771550872224</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005636380870981693</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05398605891043753</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006274394228444349</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05395526342696847</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006914040072387988</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05392532905831508</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007555318402812587</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05389625580447734</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008198229219718162</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05386804366545526</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008842772523104718</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05384069264124886</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009488948312972229</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05381420273185811</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01013675658932073</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05378857393728303</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01078619735215017</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.0537638062575236</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01143727060146061</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05373989969257984</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01208997633725201</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05371685424245174</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01274431455952438</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05369466990713929</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01340028526827775</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05367334668664253</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01405788846351205</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.0536528845809614</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01471712414522735</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05363328359009596</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0153779923134236</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05361454371404615</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01604049296810083</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05359666495281203</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01670462610925903</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05357964730639355</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01737039173689821</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05356349077479074</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01803778985101837</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.0535481953580036</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01870682045161947</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05353376105603211</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01937748353870157</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05352018786887629</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02004977911226462</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05350747579653612</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02072370717230865</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05349562483901162</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02139926771883366</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05348463499630277</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02207646075183964</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05347450626840961</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02275528627132657</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05346523865533209</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.0234357442772945</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05345683215707024</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02411783476974337</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05344928677362404</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02480155774867324</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05344260250499351</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02548691321408406</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05343677935117864</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02617390116597586</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05343181731217943</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02686252160434864</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05342771638799589</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02755277452920239</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05342447657862801</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0282446599405371</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05342209788407578</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02893817783835279</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05342058030433922</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02963332822264945</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05341992383941832</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03033011109342706</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05342012848931308</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03102852645068566</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05342119425402349</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03172857429442524</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05342312113354958</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0324302546246458</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05342590912789134</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03313356744134729</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05342955823704874</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03383851274452979</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05343406846102181</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03454509053419325</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05343943979981054</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03525330081033767</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05344567225341492</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03596314357296307</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05345276582183497</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03667461882206945</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0534607205050707</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03738772655765678</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05346953630312207</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03810246677972509</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05347921321598911</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.0388188394882744</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05348975124367181</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03953684468330465</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05350115038617017</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04025648236481588</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.0535134106434842</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.04097775253280807</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05352653201561388</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04170065518728125</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05354051450255923</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04242519032823538</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05355535810432024</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.0431513579556705</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05357106282089691</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04387915806958657</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05358762865228923</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04460859066998364</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05360505559849723</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04533965575686168</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05362334365952089</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04607235333022067</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.0536424928353602</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04680668339006064</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05366250312601517</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04754264593638158</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05368337453148582</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0482802409691835</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05370510705177211</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04901946848846638</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05372770068687407</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04976032849423022</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05375115543679171</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.05050282098647506</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05377547130152499</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.05124694596520085</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05380064828107393</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.05199270343040761</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05382668637543855</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.05274009338209537</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05385358558461881</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05348911582026408</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05388134590861474</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.05423977074491376</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05390996734742633</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.0549920581560444</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05393944990105359</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05574597805365604</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05396979356949651</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.05650153043774864</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05400099835275509</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05725871530832222</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05403306425082932</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.05801753266537675</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05406599126371922</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05877798250891225</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.0540997793914248</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05954006483892874</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05413442863394601</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.06030377965542617</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05416993899128288</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.06106912695840462</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05420631046343545</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.06183610674786402</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05424354305040366</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.06260471902380439</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05428163675218753</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.06337496378622572</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05432059156878706</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.06414684103512804</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05436040750020226</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.06492035077051132</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.0544010845464331</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.06569549299237556</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05444262270747963</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.06647226770072079</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05448502198334179</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.06725067489554698</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05452828237401963</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.06803071457685417</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05457240387951314</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0688123867446423</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.0546173864998223</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.06959569139891141</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05466323023494713</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.0703806285396615</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05470993508488762</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.07116719816689253</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05475750104964375</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.07195540028060456</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05480592812921557</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.07274523488079757</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05485521632360305</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.07353670196747153</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05490536563280618</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.07432980154062646</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05495637605682496</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.07512453360026237</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05500824759565942</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.07592089814637924</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05506098024930954</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.07542089814637924</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05506098024930954</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.07594219359856852</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05681985431505533</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.07645951735320569</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05857872838080113</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.07697275196534276</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06033760244654692</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.07748177999003175</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06209647651229271</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.0779864839823247</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06385535057803851</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.07848674649727359</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.0656142246437843</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.07898245008993045</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06737309870953009</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.0794734773153473</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.0691319727752759</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.07995971072857616</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07089084684102169</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.08044103288466904</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07264972090676747</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.08091732633867797</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07440859497251327</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.08138847364565499</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07616746903825906</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.08185435736065205</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07792634310400486</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.0823148600387212</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07968521716975066</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.08276986423491446</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08144409123549645</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.08321925250428386</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08320296530124223</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.08366290740188145</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08496183936698803</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.08410071148275916</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08672071343273383</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.08453254730196907</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08847958749847962</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.08495829741456318</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09023846156422542</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.08537784437559351</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09199733562997121</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.08579107074011208</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.093756209695717</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.08619785906317085</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.0955150837614628</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.08659809189982196</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09727395782720859</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.08699165180511731</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09903283189295438</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.08737842133410897</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1007917059587002</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.08775828304184899</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.102550580024446</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.08813111948338931</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1043094540901918</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.088496813213782</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1060683281559376</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.08885524678807907</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1078272022216833</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.08921075555453625</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1095860762874291</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.08956803611097014</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1113449503531749</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.08992650110672717</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1131038244189208</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.09028555695157545</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1148626984846665</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.0906446100552831</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1166215725504123</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.09100306682761819</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1183804466161581</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.09136033367834884</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1201393206819039</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.09171581701724318</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1218981947476497</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.09206892325406932</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1236570688133955</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.09241905879859533</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1254159428791413</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.09276563006058938</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1271748169448871</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.09310804344981949</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1289336910106329</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.09344570537605387</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1306925650763787</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.09377802224906054</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1324514391421245</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.0941044004786076</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1342103132078703</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.09442424647446324</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1359691872736161</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.0947369666463955</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1377280613393619</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.09504196740417253</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1394869354051076</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.09533865515756243</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1412458094708534</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.0956264363163333</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1430046835365992</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.09590471729025321</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.144763557602345</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.0961729044890903</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1465224316680908</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.09643040432261268</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1482813057338366</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.09667662320058845</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.09691096753278572</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1517990538653282</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.0971328437289726</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.153557927931074</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.09734165819891727</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1553168019968198</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.09753681735238767</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1570756760625656</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.09771772759915204</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1588345501283114</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.09788379534897843</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1605934241940571</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.09803442701163495</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.162352298259803</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.09816974094500533</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1641111723255488</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.09830046244977517</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1658700463912945</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.09843026065008206</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1676289204570404</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.09855898578380837</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1693877945227862</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.09868648808883648</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1711466685885319</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.09881261780304881</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1729055426542777</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.09893722516432765</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1746644167200235</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.09906016041055535</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1764232907857693</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.09918127377961436</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1781821648515151</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.09930041550938701</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1799410389172609</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.09941743583775567</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1816999129830067</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.09953218500260272</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1834587870487525</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.09964451324181048</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1852176611144983</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.09975427079326135</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1869765351802441</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.09986130789483771</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1887354092459899</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.09996547478442194</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1904942833117357</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.1000666216998964</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1922531573774814</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.1001645988791434</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1940120314432272</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.1002592565600453</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1957709055089731</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.1003504449804846</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1975297795747188</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.1004380143783435</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1992886536404646</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.1005218149915046</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2010475277062105</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.10060169705785</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2028064017719562</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.1006775108152622</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.204565275837702</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.1007491065016236</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2063241499034478</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.1008163343548165</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2080830239691936</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.1008790446127233</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2098418980349394</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.1009370875132264</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2116007721006852</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.1009903132942081</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.213359646166431</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.1010385721935508</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2151185202321768</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.1010817144491368</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2168773942979226</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.1011195902988486</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2186362683636684</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.1011520499805685</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2203951424294142</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.1011789437321789</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.22215401649516</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.101200121791562</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2239128905609057</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.1012154343966004</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2256717646266515</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.1012278641951723</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2274306386923973</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.1012278641951723</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2291895127581431</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
